--- a/digital-objects/omap/21-palatine-tonsil-mics/v1.2/raw/omap-21-palatine-tonsil-mics.xlsx
+++ b/digital-objects/omap/21-palatine-tonsil-mics/v1.2/raw/omap-21-palatine-tonsil-mics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishi/codeBase/CNS/hra-kg/digital-objects/omap/21-palatine-tonsil-mics/v1.2/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BE07E1D-04DE-AB4A-A5B4-B872CFB93F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE08BBB7-4802-2948-B13D-93B3F2F4686A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="760" windowWidth="34560" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OMAP_Template" sheetId="1" r:id="rId1"/>
@@ -2024,13 +2024,13 @@
     <t>P08575-8</t>
   </si>
   <si>
-    <t>December 15, 2024</t>
+    <t>https://doi.org/10.48539/HBM639.TMLM.723</t>
   </si>
   <si>
-    <t>v1.1</t>
+    <t>December 15, 2025</t>
   </si>
   <si>
-    <t>https://doi.org/10.48539/HBM639.TMLM.723</t>
+    <t>v1.2</t>
   </si>
 </sst>
 </file>
@@ -2472,7 +2472,7 @@
   <dimension ref="A1:AS999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2858,7 +2858,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -2909,7 +2909,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
@@ -2960,7 +2960,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>

--- a/digital-objects/omap/21-palatine-tonsil-mics/v1.2/raw/omap-21-palatine-tonsil-mics.xlsx
+++ b/digital-objects/omap/21-palatine-tonsil-mics/v1.2/raw/omap-21-palatine-tonsil-mics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishi/codeBase/CNS/hra-kg/digital-objects/omap/21-palatine-tonsil-mics/v1.2/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\HRA\digital-objects\omap\21-palatine-tonsil-mics\v1.2\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE08BBB7-4802-2948-B13D-93B3F2F4686A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC045E45-07D3-402E-812E-D4BBB8A70295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OMAP_Template" sheetId="1" r:id="rId1"/>
@@ -2024,20 +2024,20 @@
     <t>P08575-8</t>
   </si>
   <si>
-    <t>https://doi.org/10.48539/HBM639.TMLM.723</t>
-  </si>
-  <si>
     <t>December 15, 2025</t>
   </si>
   <si>
     <t>v1.2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48539/HBM625.ZLPR.824</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2132,6 +2132,13 @@
       <color rgb="FF000000"/>
       <name val="Lato Regular"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2178,10 +2185,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2251,8 +2259,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2472,39 +2482,39 @@
   <dimension ref="A1:AS999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="25.19921875" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" customWidth="1"/>
-    <col min="6" max="7" width="15.19921875" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" customWidth="1"/>
-    <col min="9" max="9" width="18.19921875" customWidth="1"/>
-    <col min="10" max="11" width="15.19921875" customWidth="1"/>
-    <col min="12" max="12" width="11.796875" customWidth="1"/>
-    <col min="13" max="13" width="19.59765625" customWidth="1"/>
-    <col min="14" max="14" width="14.19921875" customWidth="1"/>
-    <col min="15" max="15" width="26.796875" customWidth="1"/>
-    <col min="16" max="16" width="14.59765625" customWidth="1"/>
-    <col min="17" max="17" width="19.796875" customWidth="1"/>
-    <col min="18" max="18" width="18.3984375" customWidth="1"/>
-    <col min="19" max="19" width="12.59765625" customWidth="1"/>
-    <col min="20" max="20" width="19.19921875" customWidth="1"/>
-    <col min="21" max="21" width="42.59765625" customWidth="1"/>
-    <col min="22" max="22" width="25.19921875" customWidth="1"/>
+    <col min="1" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" customWidth="1"/>
+    <col min="10" max="11" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+    <col min="15" max="15" width="26.77734375" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" customWidth="1"/>
+    <col min="17" max="17" width="19.77734375" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" customWidth="1"/>
+    <col min="20" max="20" width="19.21875" customWidth="1"/>
+    <col min="21" max="21" width="42.5546875" customWidth="1"/>
+    <col min="22" max="22" width="25.21875" customWidth="1"/>
     <col min="23" max="23" width="10" customWidth="1"/>
-    <col min="24" max="24" width="63.19921875" customWidth="1"/>
-    <col min="25" max="25" width="14.796875" customWidth="1"/>
-    <col min="26" max="26" width="19.19921875" customWidth="1"/>
-    <col min="27" max="27" width="23.19921875" customWidth="1"/>
-    <col min="28" max="45" width="97.19921875" customWidth="1"/>
+    <col min="24" max="24" width="63.21875" customWidth="1"/>
+    <col min="25" max="25" width="14.77734375" customWidth="1"/>
+    <col min="26" max="26" width="19.21875" customWidth="1"/>
+    <col min="27" max="27" width="23.21875" customWidth="1"/>
+    <col min="28" max="45" width="97.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2552,7 +2562,7 @@
       <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
     </row>
-    <row r="2" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" ht="15.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="D2" s="3"/>
@@ -2598,7 +2608,7 @@
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
     </row>
-    <row r="3" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2649,7 +2659,7 @@
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
     </row>
-    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2700,7 +2710,7 @@
       <c r="AR4" s="3"/>
       <c r="AS4" s="3"/>
     </row>
-    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2751,7 +2761,7 @@
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
     </row>
-    <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2802,7 +2812,7 @@
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -2853,12 +2863,12 @@
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
     </row>
-    <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>417</v>
+      <c r="B8" s="31" t="s">
+        <v>419</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -2904,12 +2914,12 @@
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
     </row>
-    <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
@@ -2955,12 +2965,12 @@
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -3006,7 +3016,7 @@
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -3105,7 +3115,7 @@
       <c r="AR11" s="9"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
@@ -3198,7 +3208,7 @@
       <c r="AR12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -3291,7 +3301,7 @@
       <c r="AR13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -3384,7 +3394,7 @@
       <c r="AR14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
@@ -3477,7 +3487,7 @@
       <c r="AR15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
@@ -3570,7 +3580,7 @@
       <c r="AR16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -3663,7 +3673,7 @@
       <c r="AR17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
@@ -3756,7 +3766,7 @@
       <c r="AR18" s="19"/>
       <c r="AS18" s="19"/>
     </row>
-    <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
@@ -3849,7 +3859,7 @@
       <c r="AR19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
@@ -3942,7 +3952,7 @@
       <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -4035,7 +4045,7 @@
       <c r="AR21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>40</v>
       </c>
@@ -4128,7 +4138,7 @@
       <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
@@ -4221,7 +4231,7 @@
       <c r="AR23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
@@ -4314,7 +4324,7 @@
       <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
@@ -4407,7 +4417,7 @@
       <c r="AR25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
@@ -4500,7 +4510,7 @@
       <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
@@ -4593,7 +4603,7 @@
       <c r="AR27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -4686,7 +4696,7 @@
       <c r="AR28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
@@ -4779,7 +4789,7 @@
       <c r="AR29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
@@ -4872,7 +4882,7 @@
       <c r="AR30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
@@ -4965,7 +4975,7 @@
       <c r="AR31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
@@ -5058,7 +5068,7 @@
       <c r="AR32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -5151,7 +5161,7 @@
       <c r="AR33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
@@ -5244,7 +5254,7 @@
       <c r="AR34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>40</v>
       </c>
@@ -5337,7 +5347,7 @@
       <c r="AR35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -5430,7 +5440,7 @@
       <c r="AR36" s="10"/>
       <c r="AS36" s="10"/>
     </row>
-    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -5523,7 +5533,7 @@
       <c r="AR37" s="10"/>
       <c r="AS37" s="10"/>
     </row>
-    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
@@ -5616,7 +5626,7 @@
       <c r="AR38" s="10"/>
       <c r="AS38" s="10"/>
     </row>
-    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>40</v>
       </c>
@@ -5709,7 +5719,7 @@
       <c r="AR39" s="10"/>
       <c r="AS39" s="10"/>
     </row>
-    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -5802,7 +5812,7 @@
       <c r="AR40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -5895,7 +5905,7 @@
       <c r="AR41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -5988,7 +5998,7 @@
       <c r="AR42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>40</v>
       </c>
@@ -6081,7 +6091,7 @@
       <c r="AR43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
@@ -6174,7 +6184,7 @@
       <c r="AR44" s="19"/>
       <c r="AS44" s="19"/>
     </row>
-    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:45" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
@@ -6267,7 +6277,7 @@
       <c r="AR45" s="19"/>
       <c r="AS45" s="19"/>
     </row>
-    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
@@ -6360,7 +6370,7 @@
       <c r="AR46" s="19"/>
       <c r="AS46" s="19"/>
     </row>
-    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>40</v>
       </c>
@@ -6453,7 +6463,7 @@
       <c r="AR47" s="19"/>
       <c r="AS47" s="19"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>40</v>
       </c>
@@ -6546,7 +6556,7 @@
       <c r="AR48" s="19"/>
       <c r="AS48" s="19"/>
     </row>
-    <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:45" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
@@ -6639,7 +6649,7 @@
       <c r="AR49" s="19"/>
       <c r="AS49" s="19"/>
     </row>
-    <row r="50" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:45" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>40</v>
       </c>
@@ -6732,7 +6742,7 @@
       <c r="AR50" s="19"/>
       <c r="AS50" s="19"/>
     </row>
-    <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:45" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>40</v>
       </c>
@@ -6825,7 +6835,7 @@
       <c r="AR51" s="19"/>
       <c r="AS51" s="19"/>
     </row>
-    <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:45" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>40</v>
       </c>
@@ -6918,7 +6928,7 @@
       <c r="AR52" s="19"/>
       <c r="AS52" s="19"/>
     </row>
-    <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:45" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>40</v>
       </c>
@@ -7011,7 +7021,7 @@
       <c r="AR53" s="19"/>
       <c r="AS53" s="19"/>
     </row>
-    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:45" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>40</v>
       </c>
@@ -7104,7 +7114,7 @@
       <c r="AR54" s="19"/>
       <c r="AS54" s="19"/>
     </row>
-    <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:45" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>40</v>
       </c>
@@ -7197,7 +7207,7 @@
       <c r="AR55" s="19"/>
       <c r="AS55" s="19"/>
     </row>
-    <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:45" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>40</v>
       </c>
@@ -7290,7 +7300,7 @@
       <c r="AR56" s="19"/>
       <c r="AS56" s="19"/>
     </row>
-    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:45" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>40</v>
       </c>
@@ -7383,7 +7393,7 @@
       <c r="AR57" s="19"/>
       <c r="AS57" s="19"/>
     </row>
-    <row r="58" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:45" ht="15.75" customHeight="1">
       <c r="A58" s="22"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -7430,7 +7440,7 @@
       <c r="AR58" s="19"/>
       <c r="AS58" s="19"/>
     </row>
-    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:45" ht="15.75" customHeight="1">
       <c r="A59" s="22"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -7477,7 +7487,7 @@
       <c r="AR59" s="19"/>
       <c r="AS59" s="19"/>
     </row>
-    <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:45" ht="15.75" customHeight="1">
       <c r="A60" s="22"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -7524,7 +7534,7 @@
       <c r="AR60" s="19"/>
       <c r="AS60" s="19"/>
     </row>
-    <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:45" ht="15.75" customHeight="1">
       <c r="A61" s="22"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -7571,7 +7581,7 @@
       <c r="AR61" s="19"/>
       <c r="AS61" s="19"/>
     </row>
-    <row r="62" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:45" ht="15.75" customHeight="1">
       <c r="A62" s="22"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -7618,7 +7628,7 @@
       <c r="AR62" s="19"/>
       <c r="AS62" s="19"/>
     </row>
-    <row r="63" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:45" ht="15.75" customHeight="1">
       <c r="A63" s="22"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -7665,7 +7675,7 @@
       <c r="AR63" s="19"/>
       <c r="AS63" s="19"/>
     </row>
-    <row r="64" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:45" ht="15.75" customHeight="1">
       <c r="A64" s="22"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -7712,7 +7722,7 @@
       <c r="AR64" s="19"/>
       <c r="AS64" s="19"/>
     </row>
-    <row r="65" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:45" ht="15.75" customHeight="1">
       <c r="A65" s="22"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -7759,7 +7769,7 @@
       <c r="AR65" s="19"/>
       <c r="AS65" s="19"/>
     </row>
-    <row r="66" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:45" ht="15.75" customHeight="1">
       <c r="A66" s="22"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -7806,7 +7816,7 @@
       <c r="AR66" s="19"/>
       <c r="AS66" s="19"/>
     </row>
-    <row r="67" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:45" ht="15.75" customHeight="1">
       <c r="A67" s="22"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -7853,7 +7863,7 @@
       <c r="AR67" s="19"/>
       <c r="AS67" s="19"/>
     </row>
-    <row r="68" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:45" ht="15.75" customHeight="1">
       <c r="A68" s="22"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -7900,7 +7910,7 @@
       <c r="AR68" s="19"/>
       <c r="AS68" s="19"/>
     </row>
-    <row r="69" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:45" ht="15.75" customHeight="1">
       <c r="A69" s="22"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -7947,7 +7957,7 @@
       <c r="AR69" s="19"/>
       <c r="AS69" s="19"/>
     </row>
-    <row r="70" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:45" ht="15.75" customHeight="1">
       <c r="A70" s="22"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -7994,7 +8004,7 @@
       <c r="AR70" s="19"/>
       <c r="AS70" s="19"/>
     </row>
-    <row r="71" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:45" ht="15.75" customHeight="1">
       <c r="A71" s="22"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -8041,7 +8051,7 @@
       <c r="AR71" s="19"/>
       <c r="AS71" s="19"/>
     </row>
-    <row r="72" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:45" ht="15.75" customHeight="1">
       <c r="A72" s="22"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -8088,7 +8098,7 @@
       <c r="AR72" s="19"/>
       <c r="AS72" s="19"/>
     </row>
-    <row r="73" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:45" ht="15.75" customHeight="1">
       <c r="A73" s="22"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -8135,7 +8145,7 @@
       <c r="AR73" s="19"/>
       <c r="AS73" s="19"/>
     </row>
-    <row r="74" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:45" ht="15.75" customHeight="1">
       <c r="A74" s="22"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -8182,7 +8192,7 @@
       <c r="AR74" s="19"/>
       <c r="AS74" s="19"/>
     </row>
-    <row r="75" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:45" ht="15.75" customHeight="1">
       <c r="A75" s="22"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -8229,7 +8239,7 @@
       <c r="AR75" s="19"/>
       <c r="AS75" s="19"/>
     </row>
-    <row r="76" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:45" ht="15.75" customHeight="1">
       <c r="A76" s="22"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -8276,7 +8286,7 @@
       <c r="AR76" s="19"/>
       <c r="AS76" s="19"/>
     </row>
-    <row r="77" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:45" ht="15.75" customHeight="1">
       <c r="A77" s="22"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -8323,7 +8333,7 @@
       <c r="AR77" s="19"/>
       <c r="AS77" s="19"/>
     </row>
-    <row r="78" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:45" ht="15.75" customHeight="1">
       <c r="A78" s="22"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -8370,7 +8380,7 @@
       <c r="AR78" s="19"/>
       <c r="AS78" s="19"/>
     </row>
-    <row r="79" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:45" ht="15.75" customHeight="1">
       <c r="A79" s="22"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -8417,7 +8427,7 @@
       <c r="AR79" s="19"/>
       <c r="AS79" s="19"/>
     </row>
-    <row r="80" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:45" ht="15.75" customHeight="1">
       <c r="A80" s="22"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -8464,7 +8474,7 @@
       <c r="AR80" s="19"/>
       <c r="AS80" s="19"/>
     </row>
-    <row r="81" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:45" ht="15.75" customHeight="1">
       <c r="A81" s="22"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -8511,7 +8521,7 @@
       <c r="AR81" s="19"/>
       <c r="AS81" s="19"/>
     </row>
-    <row r="82" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:45" ht="15.75" customHeight="1">
       <c r="A82" s="22"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -8558,7 +8568,7 @@
       <c r="AR82" s="19"/>
       <c r="AS82" s="19"/>
     </row>
-    <row r="83" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:45" ht="15.75" customHeight="1">
       <c r="A83" s="22"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -8605,7 +8615,7 @@
       <c r="AR83" s="19"/>
       <c r="AS83" s="19"/>
     </row>
-    <row r="84" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:45" ht="15.75" customHeight="1">
       <c r="A84" s="22"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -8652,7 +8662,7 @@
       <c r="AR84" s="19"/>
       <c r="AS84" s="19"/>
     </row>
-    <row r="85" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:45" ht="15.75" customHeight="1">
       <c r="A85" s="22"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -8699,7 +8709,7 @@
       <c r="AR85" s="19"/>
       <c r="AS85" s="19"/>
     </row>
-    <row r="86" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:45" ht="15.75" customHeight="1">
       <c r="A86" s="22"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -8746,7 +8756,7 @@
       <c r="AR86" s="19"/>
       <c r="AS86" s="19"/>
     </row>
-    <row r="87" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:45" ht="15.75" customHeight="1">
       <c r="A87" s="22"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -8793,7 +8803,7 @@
       <c r="AR87" s="19"/>
       <c r="AS87" s="19"/>
     </row>
-    <row r="88" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:45" ht="15.75" customHeight="1">
       <c r="A88" s="22"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -8840,7 +8850,7 @@
       <c r="AR88" s="19"/>
       <c r="AS88" s="19"/>
     </row>
-    <row r="89" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:45" ht="15.75" customHeight="1">
       <c r="A89" s="22"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -8887,7 +8897,7 @@
       <c r="AR89" s="19"/>
       <c r="AS89" s="19"/>
     </row>
-    <row r="90" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:45" ht="15.75" customHeight="1">
       <c r="A90" s="22"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -8934,7 +8944,7 @@
       <c r="AR90" s="19"/>
       <c r="AS90" s="19"/>
     </row>
-    <row r="91" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:45" ht="15.75" customHeight="1">
       <c r="A91" s="22"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -8981,7 +8991,7 @@
       <c r="AR91" s="19"/>
       <c r="AS91" s="19"/>
     </row>
-    <row r="92" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:45" ht="15.75" customHeight="1">
       <c r="A92" s="22"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -9028,7 +9038,7 @@
       <c r="AR92" s="19"/>
       <c r="AS92" s="19"/>
     </row>
-    <row r="93" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:45" ht="15.75" customHeight="1">
       <c r="A93" s="22"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -9075,7 +9085,7 @@
       <c r="AR93" s="19"/>
       <c r="AS93" s="19"/>
     </row>
-    <row r="94" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:45" ht="15.75" customHeight="1">
       <c r="A94" s="22"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -9122,7 +9132,7 @@
       <c r="AR94" s="19"/>
       <c r="AS94" s="19"/>
     </row>
-    <row r="95" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:45" ht="15.75" customHeight="1">
       <c r="A95" s="22"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -9169,7 +9179,7 @@
       <c r="AR95" s="19"/>
       <c r="AS95" s="19"/>
     </row>
-    <row r="96" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:45" ht="15.75" customHeight="1">
       <c r="A96" s="22"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -9216,7 +9226,7 @@
       <c r="AR96" s="19"/>
       <c r="AS96" s="19"/>
     </row>
-    <row r="97" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:45" ht="15.75" customHeight="1">
       <c r="A97" s="22"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -9263,7 +9273,7 @@
       <c r="AR97" s="19"/>
       <c r="AS97" s="19"/>
     </row>
-    <row r="98" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:45" ht="15.75" customHeight="1">
       <c r="A98" s="22"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -9310,7 +9320,7 @@
       <c r="AR98" s="19"/>
       <c r="AS98" s="19"/>
     </row>
-    <row r="99" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:45" ht="15.75" customHeight="1">
       <c r="A99" s="22"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -9357,7 +9367,7 @@
       <c r="AR99" s="19"/>
       <c r="AS99" s="19"/>
     </row>
-    <row r="100" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:45" ht="15.75" customHeight="1">
       <c r="A100" s="22"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -9404,7 +9414,7 @@
       <c r="AR100" s="19"/>
       <c r="AS100" s="19"/>
     </row>
-    <row r="101" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:45" ht="15.75" customHeight="1">
       <c r="A101" s="22"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -9451,7 +9461,7 @@
       <c r="AR101" s="19"/>
       <c r="AS101" s="19"/>
     </row>
-    <row r="102" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:45" ht="15.75" customHeight="1">
       <c r="A102" s="22"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -9498,7 +9508,7 @@
       <c r="AR102" s="19"/>
       <c r="AS102" s="19"/>
     </row>
-    <row r="103" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:45" ht="15.75" customHeight="1">
       <c r="A103" s="22"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -9545,7 +9555,7 @@
       <c r="AR103" s="19"/>
       <c r="AS103" s="19"/>
     </row>
-    <row r="104" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:45" ht="15.75" customHeight="1">
       <c r="A104" s="22"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -9592,7 +9602,7 @@
       <c r="AR104" s="19"/>
       <c r="AS104" s="19"/>
     </row>
-    <row r="105" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:45" ht="15.75" customHeight="1">
       <c r="A105" s="22"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -9639,7 +9649,7 @@
       <c r="AR105" s="19"/>
       <c r="AS105" s="19"/>
     </row>
-    <row r="106" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:45" ht="15.75" customHeight="1">
       <c r="A106" s="22"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
@@ -9686,7 +9696,7 @@
       <c r="AR106" s="19"/>
       <c r="AS106" s="19"/>
     </row>
-    <row r="107" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:45" ht="15.75" customHeight="1">
       <c r="A107" s="22"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
@@ -9733,7 +9743,7 @@
       <c r="AR107" s="19"/>
       <c r="AS107" s="19"/>
     </row>
-    <row r="108" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:45" ht="15.75" customHeight="1">
       <c r="A108" s="22"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
@@ -9780,7 +9790,7 @@
       <c r="AR108" s="19"/>
       <c r="AS108" s="19"/>
     </row>
-    <row r="109" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:45" ht="15.75" customHeight="1">
       <c r="A109" s="22"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -9827,7 +9837,7 @@
       <c r="AR109" s="19"/>
       <c r="AS109" s="19"/>
     </row>
-    <row r="110" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:45" ht="15.75" customHeight="1">
       <c r="A110" s="22"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
@@ -9874,7 +9884,7 @@
       <c r="AR110" s="19"/>
       <c r="AS110" s="19"/>
     </row>
-    <row r="111" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:45" ht="15.75" customHeight="1">
       <c r="A111" s="22"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -9921,7 +9931,7 @@
       <c r="AR111" s="19"/>
       <c r="AS111" s="19"/>
     </row>
-    <row r="112" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:45" ht="15.75" customHeight="1">
       <c r="A112" s="22"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
@@ -9968,7 +9978,7 @@
       <c r="AR112" s="19"/>
       <c r="AS112" s="19"/>
     </row>
-    <row r="113" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:45" ht="15.75" customHeight="1">
       <c r="A113" s="22"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -10015,7 +10025,7 @@
       <c r="AR113" s="19"/>
       <c r="AS113" s="19"/>
     </row>
-    <row r="114" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:45" ht="15.75" customHeight="1">
       <c r="A114" s="22"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -10062,7 +10072,7 @@
       <c r="AR114" s="19"/>
       <c r="AS114" s="19"/>
     </row>
-    <row r="115" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:45" ht="15.75" customHeight="1">
       <c r="A115" s="22"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -10109,7 +10119,7 @@
       <c r="AR115" s="19"/>
       <c r="AS115" s="19"/>
     </row>
-    <row r="116" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:45" ht="15.75" customHeight="1">
       <c r="A116" s="22"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -10156,7 +10166,7 @@
       <c r="AR116" s="19"/>
       <c r="AS116" s="19"/>
     </row>
-    <row r="117" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:45" ht="15.75" customHeight="1">
       <c r="A117" s="22"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -10203,7 +10213,7 @@
       <c r="AR117" s="19"/>
       <c r="AS117" s="19"/>
     </row>
-    <row r="118" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:45" ht="15.75" customHeight="1">
       <c r="A118" s="22"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -10250,7 +10260,7 @@
       <c r="AR118" s="19"/>
       <c r="AS118" s="19"/>
     </row>
-    <row r="119" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:45" ht="15.75" customHeight="1">
       <c r="A119" s="22"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
@@ -10297,7 +10307,7 @@
       <c r="AR119" s="19"/>
       <c r="AS119" s="19"/>
     </row>
-    <row r="120" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:45" ht="15.75" customHeight="1">
       <c r="A120" s="22"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -10344,7 +10354,7 @@
       <c r="AR120" s="19"/>
       <c r="AS120" s="19"/>
     </row>
-    <row r="121" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:45" ht="15.75" customHeight="1">
       <c r="A121" s="22"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -10391,7 +10401,7 @@
       <c r="AR121" s="19"/>
       <c r="AS121" s="19"/>
     </row>
-    <row r="122" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:45" ht="15.75" customHeight="1">
       <c r="A122" s="22"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
@@ -10438,7 +10448,7 @@
       <c r="AR122" s="19"/>
       <c r="AS122" s="19"/>
     </row>
-    <row r="123" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:45" ht="15.75" customHeight="1">
       <c r="A123" s="22"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -10485,7 +10495,7 @@
       <c r="AR123" s="19"/>
       <c r="AS123" s="19"/>
     </row>
-    <row r="124" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:45" ht="15.75" customHeight="1">
       <c r="A124" s="22"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -10532,7 +10542,7 @@
       <c r="AR124" s="19"/>
       <c r="AS124" s="19"/>
     </row>
-    <row r="125" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:45" ht="15.75" customHeight="1">
       <c r="A125" s="22"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -10579,7 +10589,7 @@
       <c r="AR125" s="19"/>
       <c r="AS125" s="19"/>
     </row>
-    <row r="126" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:45" ht="15.75" customHeight="1">
       <c r="A126" s="22"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -10626,7 +10636,7 @@
       <c r="AR126" s="19"/>
       <c r="AS126" s="19"/>
     </row>
-    <row r="127" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:45" ht="15.75" customHeight="1">
       <c r="A127" s="22"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -10673,7 +10683,7 @@
       <c r="AR127" s="19"/>
       <c r="AS127" s="19"/>
     </row>
-    <row r="128" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:45" ht="15.75" customHeight="1">
       <c r="A128" s="22"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -10720,7 +10730,7 @@
       <c r="AR128" s="19"/>
       <c r="AS128" s="19"/>
     </row>
-    <row r="129" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:45" ht="15.75" customHeight="1">
       <c r="A129" s="22"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -10767,7 +10777,7 @@
       <c r="AR129" s="19"/>
       <c r="AS129" s="19"/>
     </row>
-    <row r="130" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:45" ht="15.75" customHeight="1">
       <c r="A130" s="22"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
@@ -10814,7 +10824,7 @@
       <c r="AR130" s="19"/>
       <c r="AS130" s="19"/>
     </row>
-    <row r="131" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:45" ht="15.75" customHeight="1">
       <c r="A131" s="22"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -10861,7 +10871,7 @@
       <c r="AR131" s="19"/>
       <c r="AS131" s="19"/>
     </row>
-    <row r="132" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:45" ht="15.75" customHeight="1">
       <c r="A132" s="22"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -10908,7 +10918,7 @@
       <c r="AR132" s="19"/>
       <c r="AS132" s="19"/>
     </row>
-    <row r="133" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:45" ht="15.75" customHeight="1">
       <c r="A133" s="22"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -10955,7 +10965,7 @@
       <c r="AR133" s="19"/>
       <c r="AS133" s="19"/>
     </row>
-    <row r="134" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:45" ht="15.75" customHeight="1">
       <c r="A134" s="22"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -11002,7 +11012,7 @@
       <c r="AR134" s="19"/>
       <c r="AS134" s="19"/>
     </row>
-    <row r="135" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:45" ht="15.75" customHeight="1">
       <c r="A135" s="22"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -11049,7 +11059,7 @@
       <c r="AR135" s="19"/>
       <c r="AS135" s="19"/>
     </row>
-    <row r="136" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:45" ht="15.75" customHeight="1">
       <c r="A136" s="22"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -11096,7 +11106,7 @@
       <c r="AR136" s="19"/>
       <c r="AS136" s="19"/>
     </row>
-    <row r="137" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:45" ht="15.75" customHeight="1">
       <c r="A137" s="22"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -11143,7 +11153,7 @@
       <c r="AR137" s="19"/>
       <c r="AS137" s="19"/>
     </row>
-    <row r="138" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:45" ht="15.75" customHeight="1">
       <c r="A138" s="22"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -11190,7 +11200,7 @@
       <c r="AR138" s="19"/>
       <c r="AS138" s="19"/>
     </row>
-    <row r="139" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:45" ht="15.75" customHeight="1">
       <c r="A139" s="22"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -11237,7 +11247,7 @@
       <c r="AR139" s="19"/>
       <c r="AS139" s="19"/>
     </row>
-    <row r="140" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:45" ht="15.75" customHeight="1">
       <c r="A140" s="22"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
@@ -11284,7 +11294,7 @@
       <c r="AR140" s="19"/>
       <c r="AS140" s="19"/>
     </row>
-    <row r="141" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:45" ht="15.75" customHeight="1">
       <c r="A141" s="22"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -11331,7 +11341,7 @@
       <c r="AR141" s="19"/>
       <c r="AS141" s="19"/>
     </row>
-    <row r="142" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:45" ht="15.75" customHeight="1">
       <c r="A142" s="22"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -11378,7 +11388,7 @@
       <c r="AR142" s="19"/>
       <c r="AS142" s="19"/>
     </row>
-    <row r="143" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:45" ht="15.75" customHeight="1">
       <c r="A143" s="22"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -11425,7 +11435,7 @@
       <c r="AR143" s="19"/>
       <c r="AS143" s="19"/>
     </row>
-    <row r="144" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:45" ht="15.75" customHeight="1">
       <c r="A144" s="22"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -11472,7 +11482,7 @@
       <c r="AR144" s="19"/>
       <c r="AS144" s="19"/>
     </row>
-    <row r="145" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:45" ht="15.75" customHeight="1">
       <c r="A145" s="22"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -11519,7 +11529,7 @@
       <c r="AR145" s="19"/>
       <c r="AS145" s="19"/>
     </row>
-    <row r="146" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:45" ht="15.75" customHeight="1">
       <c r="A146" s="22"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -11566,7 +11576,7 @@
       <c r="AR146" s="19"/>
       <c r="AS146" s="19"/>
     </row>
-    <row r="147" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:45" ht="15.75" customHeight="1">
       <c r="A147" s="22"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -11613,7 +11623,7 @@
       <c r="AR147" s="19"/>
       <c r="AS147" s="19"/>
     </row>
-    <row r="148" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:45" ht="15.75" customHeight="1">
       <c r="A148" s="22"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -11660,7 +11670,7 @@
       <c r="AR148" s="19"/>
       <c r="AS148" s="19"/>
     </row>
-    <row r="149" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:45" ht="15.75" customHeight="1">
       <c r="A149" s="22"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -11707,7 +11717,7 @@
       <c r="AR149" s="19"/>
       <c r="AS149" s="19"/>
     </row>
-    <row r="150" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:45" ht="15.75" customHeight="1">
       <c r="A150" s="22"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -11754,7 +11764,7 @@
       <c r="AR150" s="19"/>
       <c r="AS150" s="19"/>
     </row>
-    <row r="151" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:45" ht="15.75" customHeight="1">
       <c r="A151" s="22"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -11801,7 +11811,7 @@
       <c r="AR151" s="19"/>
       <c r="AS151" s="19"/>
     </row>
-    <row r="152" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:45" ht="15.75" customHeight="1">
       <c r="A152" s="22"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -11848,7 +11858,7 @@
       <c r="AR152" s="19"/>
       <c r="AS152" s="19"/>
     </row>
-    <row r="153" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:45" ht="15.75" customHeight="1">
       <c r="A153" s="22"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
@@ -11895,7 +11905,7 @@
       <c r="AR153" s="19"/>
       <c r="AS153" s="19"/>
     </row>
-    <row r="154" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:45" ht="15.75" customHeight="1">
       <c r="A154" s="22"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -11942,7 +11952,7 @@
       <c r="AR154" s="19"/>
       <c r="AS154" s="19"/>
     </row>
-    <row r="155" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:45" ht="15.75" customHeight="1">
       <c r="A155" s="22"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
@@ -11989,7 +11999,7 @@
       <c r="AR155" s="19"/>
       <c r="AS155" s="19"/>
     </row>
-    <row r="156" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:45" ht="15.75" customHeight="1">
       <c r="A156" s="22"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
@@ -12036,7 +12046,7 @@
       <c r="AR156" s="19"/>
       <c r="AS156" s="19"/>
     </row>
-    <row r="157" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:45" ht="15.75" customHeight="1">
       <c r="A157" s="22"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
@@ -12083,7 +12093,7 @@
       <c r="AR157" s="19"/>
       <c r="AS157" s="19"/>
     </row>
-    <row r="158" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:45" ht="15.75" customHeight="1">
       <c r="A158" s="22"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
@@ -12130,7 +12140,7 @@
       <c r="AR158" s="19"/>
       <c r="AS158" s="19"/>
     </row>
-    <row r="159" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:45" ht="15.75" customHeight="1">
       <c r="A159" s="22"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -12177,7 +12187,7 @@
       <c r="AR159" s="19"/>
       <c r="AS159" s="19"/>
     </row>
-    <row r="160" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:45" ht="15.75" customHeight="1">
       <c r="A160" s="22"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
@@ -12224,7 +12234,7 @@
       <c r="AR160" s="19"/>
       <c r="AS160" s="19"/>
     </row>
-    <row r="161" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:45" ht="15.75" customHeight="1">
       <c r="A161" s="22"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
@@ -12271,7 +12281,7 @@
       <c r="AR161" s="19"/>
       <c r="AS161" s="19"/>
     </row>
-    <row r="162" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:45" ht="15.75" customHeight="1">
       <c r="A162" s="22"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
@@ -12318,7 +12328,7 @@
       <c r="AR162" s="19"/>
       <c r="AS162" s="19"/>
     </row>
-    <row r="163" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:45" ht="15.75" customHeight="1">
       <c r="A163" s="22"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -12365,7 +12375,7 @@
       <c r="AR163" s="19"/>
       <c r="AS163" s="19"/>
     </row>
-    <row r="164" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:45" ht="15.75" customHeight="1">
       <c r="A164" s="22"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
@@ -12412,7 +12422,7 @@
       <c r="AR164" s="19"/>
       <c r="AS164" s="19"/>
     </row>
-    <row r="165" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:45" ht="15.75" customHeight="1">
       <c r="A165" s="22"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
@@ -12459,7 +12469,7 @@
       <c r="AR165" s="19"/>
       <c r="AS165" s="19"/>
     </row>
-    <row r="166" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:45" ht="15.75" customHeight="1">
       <c r="A166" s="22"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
@@ -12506,7 +12516,7 @@
       <c r="AR166" s="19"/>
       <c r="AS166" s="19"/>
     </row>
-    <row r="167" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:45" ht="15.75" customHeight="1">
       <c r="A167" s="22"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
@@ -12553,7 +12563,7 @@
       <c r="AR167" s="19"/>
       <c r="AS167" s="19"/>
     </row>
-    <row r="168" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:45" ht="15.75" customHeight="1">
       <c r="A168" s="22"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
@@ -12600,7 +12610,7 @@
       <c r="AR168" s="19"/>
       <c r="AS168" s="19"/>
     </row>
-    <row r="169" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:45" ht="15.75" customHeight="1">
       <c r="A169" s="22"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
@@ -12647,7 +12657,7 @@
       <c r="AR169" s="19"/>
       <c r="AS169" s="19"/>
     </row>
-    <row r="170" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:45" ht="15.75" customHeight="1">
       <c r="A170" s="22"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
@@ -12694,7 +12704,7 @@
       <c r="AR170" s="19"/>
       <c r="AS170" s="19"/>
     </row>
-    <row r="171" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:45" ht="15.75" customHeight="1">
       <c r="A171" s="22"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
@@ -12741,7 +12751,7 @@
       <c r="AR171" s="19"/>
       <c r="AS171" s="19"/>
     </row>
-    <row r="172" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:45" ht="15.75" customHeight="1">
       <c r="A172" s="22"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -12788,7 +12798,7 @@
       <c r="AR172" s="19"/>
       <c r="AS172" s="19"/>
     </row>
-    <row r="173" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:45" ht="15.75" customHeight="1">
       <c r="A173" s="22"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
@@ -12835,7 +12845,7 @@
       <c r="AR173" s="19"/>
       <c r="AS173" s="19"/>
     </row>
-    <row r="174" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:45" ht="15.75" customHeight="1">
       <c r="A174" s="22"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -12882,7 +12892,7 @@
       <c r="AR174" s="19"/>
       <c r="AS174" s="19"/>
     </row>
-    <row r="175" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:45" ht="15.75" customHeight="1">
       <c r="A175" s="22"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -12929,7 +12939,7 @@
       <c r="AR175" s="19"/>
       <c r="AS175" s="19"/>
     </row>
-    <row r="176" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:45" ht="15.75" customHeight="1">
       <c r="A176" s="22"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -12976,7 +12986,7 @@
       <c r="AR176" s="19"/>
       <c r="AS176" s="19"/>
     </row>
-    <row r="177" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:45" ht="15.75" customHeight="1">
       <c r="A177" s="22"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
@@ -13023,7 +13033,7 @@
       <c r="AR177" s="19"/>
       <c r="AS177" s="19"/>
     </row>
-    <row r="178" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:45" ht="15.75" customHeight="1">
       <c r="A178" s="22"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -13070,7 +13080,7 @@
       <c r="AR178" s="19"/>
       <c r="AS178" s="19"/>
     </row>
-    <row r="179" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:45" ht="15.75" customHeight="1">
       <c r="A179" s="22"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -13117,7 +13127,7 @@
       <c r="AR179" s="19"/>
       <c r="AS179" s="19"/>
     </row>
-    <row r="180" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:45" ht="15.75" customHeight="1">
       <c r="A180" s="22"/>
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
@@ -13164,7 +13174,7 @@
       <c r="AR180" s="19"/>
       <c r="AS180" s="19"/>
     </row>
-    <row r="181" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:45" ht="15.75" customHeight="1">
       <c r="A181" s="22"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
@@ -13211,7 +13221,7 @@
       <c r="AR181" s="19"/>
       <c r="AS181" s="19"/>
     </row>
-    <row r="182" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:45" ht="15.75" customHeight="1">
       <c r="A182" s="22"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
@@ -13258,7 +13268,7 @@
       <c r="AR182" s="19"/>
       <c r="AS182" s="19"/>
     </row>
-    <row r="183" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:45" ht="15.75" customHeight="1">
       <c r="A183" s="22"/>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
@@ -13305,7 +13315,7 @@
       <c r="AR183" s="19"/>
       <c r="AS183" s="19"/>
     </row>
-    <row r="184" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:45" ht="15.75" customHeight="1">
       <c r="A184" s="22"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
@@ -13352,7 +13362,7 @@
       <c r="AR184" s="19"/>
       <c r="AS184" s="19"/>
     </row>
-    <row r="185" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:45" ht="15.75" customHeight="1">
       <c r="A185" s="22"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
@@ -13399,7 +13409,7 @@
       <c r="AR185" s="19"/>
       <c r="AS185" s="19"/>
     </row>
-    <row r="186" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:45" ht="15.75" customHeight="1">
       <c r="A186" s="22"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
@@ -13446,7 +13456,7 @@
       <c r="AR186" s="19"/>
       <c r="AS186" s="19"/>
     </row>
-    <row r="187" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:45" ht="15.75" customHeight="1">
       <c r="A187" s="22"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -13493,7 +13503,7 @@
       <c r="AR187" s="19"/>
       <c r="AS187" s="19"/>
     </row>
-    <row r="188" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:45" ht="15.75" customHeight="1">
       <c r="A188" s="22"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -13540,7 +13550,7 @@
       <c r="AR188" s="19"/>
       <c r="AS188" s="19"/>
     </row>
-    <row r="189" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:45" ht="15.75" customHeight="1">
       <c r="A189" s="22"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
@@ -13587,7 +13597,7 @@
       <c r="AR189" s="19"/>
       <c r="AS189" s="19"/>
     </row>
-    <row r="190" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:45" ht="15.75" customHeight="1">
       <c r="A190" s="22"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -13634,7 +13644,7 @@
       <c r="AR190" s="19"/>
       <c r="AS190" s="19"/>
     </row>
-    <row r="191" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:45" ht="15.75" customHeight="1">
       <c r="A191" s="22"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -13681,7 +13691,7 @@
       <c r="AR191" s="19"/>
       <c r="AS191" s="19"/>
     </row>
-    <row r="192" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:45" ht="15.75" customHeight="1">
       <c r="A192" s="22"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -13728,7 +13738,7 @@
       <c r="AR192" s="19"/>
       <c r="AS192" s="19"/>
     </row>
-    <row r="193" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:45" ht="15.75" customHeight="1">
       <c r="A193" s="22"/>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -13775,7 +13785,7 @@
       <c r="AR193" s="19"/>
       <c r="AS193" s="19"/>
     </row>
-    <row r="194" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:45" ht="15.75" customHeight="1">
       <c r="A194" s="22"/>
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
@@ -13822,7 +13832,7 @@
       <c r="AR194" s="19"/>
       <c r="AS194" s="19"/>
     </row>
-    <row r="195" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:45" ht="15.75" customHeight="1">
       <c r="A195" s="22"/>
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
@@ -13869,7 +13879,7 @@
       <c r="AR195" s="19"/>
       <c r="AS195" s="19"/>
     </row>
-    <row r="196" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:45" ht="15.75" customHeight="1">
       <c r="A196" s="22"/>
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
@@ -13916,7 +13926,7 @@
       <c r="AR196" s="19"/>
       <c r="AS196" s="19"/>
     </row>
-    <row r="197" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:45" ht="15.75" customHeight="1">
       <c r="A197" s="22"/>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
@@ -13963,7 +13973,7 @@
       <c r="AR197" s="19"/>
       <c r="AS197" s="19"/>
     </row>
-    <row r="198" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:45" ht="15.75" customHeight="1">
       <c r="A198" s="22"/>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
@@ -14010,7 +14020,7 @@
       <c r="AR198" s="19"/>
       <c r="AS198" s="19"/>
     </row>
-    <row r="199" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:45" ht="15.75" customHeight="1">
       <c r="A199" s="22"/>
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
@@ -14057,7 +14067,7 @@
       <c r="AR199" s="19"/>
       <c r="AS199" s="19"/>
     </row>
-    <row r="200" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:45" ht="15.75" customHeight="1">
       <c r="A200" s="22"/>
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
@@ -14104,7 +14114,7 @@
       <c r="AR200" s="19"/>
       <c r="AS200" s="19"/>
     </row>
-    <row r="201" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:45" ht="15.75" customHeight="1">
       <c r="A201" s="22"/>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
@@ -14151,7 +14161,7 @@
       <c r="AR201" s="19"/>
       <c r="AS201" s="19"/>
     </row>
-    <row r="202" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:45" ht="15.75" customHeight="1">
       <c r="A202" s="22"/>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
@@ -14198,7 +14208,7 @@
       <c r="AR202" s="19"/>
       <c r="AS202" s="19"/>
     </row>
-    <row r="203" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:45" ht="15.75" customHeight="1">
       <c r="A203" s="22"/>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
@@ -14245,7 +14255,7 @@
       <c r="AR203" s="19"/>
       <c r="AS203" s="19"/>
     </row>
-    <row r="204" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:45" ht="15.75" customHeight="1">
       <c r="A204" s="22"/>
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
@@ -14292,7 +14302,7 @@
       <c r="AR204" s="19"/>
       <c r="AS204" s="19"/>
     </row>
-    <row r="205" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:45" ht="15.75" customHeight="1">
       <c r="A205" s="22"/>
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
@@ -14339,7 +14349,7 @@
       <c r="AR205" s="19"/>
       <c r="AS205" s="19"/>
     </row>
-    <row r="206" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:45" ht="15.75" customHeight="1">
       <c r="A206" s="22"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
@@ -14386,7 +14396,7 @@
       <c r="AR206" s="19"/>
       <c r="AS206" s="19"/>
     </row>
-    <row r="207" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:45" ht="15.75" customHeight="1">
       <c r="A207" s="22"/>
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
@@ -14433,7 +14443,7 @@
       <c r="AR207" s="19"/>
       <c r="AS207" s="19"/>
     </row>
-    <row r="208" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:45" ht="15.75" customHeight="1">
       <c r="A208" s="22"/>
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
@@ -14480,7 +14490,7 @@
       <c r="AR208" s="19"/>
       <c r="AS208" s="19"/>
     </row>
-    <row r="209" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:45" ht="15.75" customHeight="1">
       <c r="A209" s="22"/>
       <c r="B209" s="19"/>
       <c r="C209" s="19"/>
@@ -14527,7 +14537,7 @@
       <c r="AR209" s="19"/>
       <c r="AS209" s="19"/>
     </row>
-    <row r="210" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:45" ht="15.75" customHeight="1">
       <c r="A210" s="22"/>
       <c r="B210" s="19"/>
       <c r="C210" s="19"/>
@@ -14574,7 +14584,7 @@
       <c r="AR210" s="19"/>
       <c r="AS210" s="19"/>
     </row>
-    <row r="211" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:45" ht="15.75" customHeight="1">
       <c r="A211" s="22"/>
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
@@ -14621,7 +14631,7 @@
       <c r="AR211" s="19"/>
       <c r="AS211" s="19"/>
     </row>
-    <row r="212" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:45" ht="15.75" customHeight="1">
       <c r="A212" s="22"/>
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
@@ -14668,7 +14678,7 @@
       <c r="AR212" s="19"/>
       <c r="AS212" s="19"/>
     </row>
-    <row r="213" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:45" ht="15.75" customHeight="1">
       <c r="A213" s="22"/>
       <c r="B213" s="19"/>
       <c r="C213" s="19"/>
@@ -14715,7 +14725,7 @@
       <c r="AR213" s="19"/>
       <c r="AS213" s="19"/>
     </row>
-    <row r="214" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:45" ht="15.75" customHeight="1">
       <c r="A214" s="22"/>
       <c r="B214" s="19"/>
       <c r="C214" s="19"/>
@@ -14762,7 +14772,7 @@
       <c r="AR214" s="19"/>
       <c r="AS214" s="19"/>
     </row>
-    <row r="215" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:45" ht="15.75" customHeight="1">
       <c r="A215" s="22"/>
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
@@ -14809,7 +14819,7 @@
       <c r="AR215" s="19"/>
       <c r="AS215" s="19"/>
     </row>
-    <row r="216" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:45" ht="15.75" customHeight="1">
       <c r="A216" s="22"/>
       <c r="B216" s="19"/>
       <c r="C216" s="19"/>
@@ -14856,7 +14866,7 @@
       <c r="AR216" s="19"/>
       <c r="AS216" s="19"/>
     </row>
-    <row r="217" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:45" ht="15.75" customHeight="1">
       <c r="A217" s="22"/>
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
@@ -14903,7 +14913,7 @@
       <c r="AR217" s="19"/>
       <c r="AS217" s="19"/>
     </row>
-    <row r="218" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:45" ht="15.75" customHeight="1">
       <c r="A218" s="22"/>
       <c r="B218" s="19"/>
       <c r="C218" s="19"/>
@@ -14950,7 +14960,7 @@
       <c r="AR218" s="19"/>
       <c r="AS218" s="19"/>
     </row>
-    <row r="219" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:45" ht="15.75" customHeight="1">
       <c r="A219" s="22"/>
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
@@ -14997,7 +15007,7 @@
       <c r="AR219" s="19"/>
       <c r="AS219" s="19"/>
     </row>
-    <row r="220" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:45" ht="15.75" customHeight="1">
       <c r="A220" s="22"/>
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
@@ -15044,7 +15054,7 @@
       <c r="AR220" s="19"/>
       <c r="AS220" s="19"/>
     </row>
-    <row r="221" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:45" ht="15.75" customHeight="1">
       <c r="A221" s="22"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
@@ -15091,7 +15101,7 @@
       <c r="AR221" s="19"/>
       <c r="AS221" s="19"/>
     </row>
-    <row r="222" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:45" ht="15.75" customHeight="1">
       <c r="A222" s="22"/>
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
@@ -15138,7 +15148,7 @@
       <c r="AR222" s="19"/>
       <c r="AS222" s="19"/>
     </row>
-    <row r="223" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:45" ht="15.75" customHeight="1">
       <c r="A223" s="22"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
@@ -15185,7 +15195,7 @@
       <c r="AR223" s="19"/>
       <c r="AS223" s="19"/>
     </row>
-    <row r="224" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:45" ht="15.75" customHeight="1">
       <c r="A224" s="22"/>
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
@@ -15232,7 +15242,7 @@
       <c r="AR224" s="19"/>
       <c r="AS224" s="19"/>
     </row>
-    <row r="225" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:45" ht="15.75" customHeight="1">
       <c r="A225" s="22"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
@@ -15279,7 +15289,7 @@
       <c r="AR225" s="19"/>
       <c r="AS225" s="19"/>
     </row>
-    <row r="226" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:45" ht="15.75" customHeight="1">
       <c r="A226" s="22"/>
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
@@ -15326,7 +15336,7 @@
       <c r="AR226" s="19"/>
       <c r="AS226" s="19"/>
     </row>
-    <row r="227" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:45" ht="15.75" customHeight="1">
       <c r="A227" s="22"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
@@ -15373,7 +15383,7 @@
       <c r="AR227" s="19"/>
       <c r="AS227" s="19"/>
     </row>
-    <row r="228" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:45" ht="15.75" customHeight="1">
       <c r="A228" s="22"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
@@ -15420,7 +15430,7 @@
       <c r="AR228" s="19"/>
       <c r="AS228" s="19"/>
     </row>
-    <row r="229" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:45" ht="15.75" customHeight="1">
       <c r="A229" s="22"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
@@ -15467,7 +15477,7 @@
       <c r="AR229" s="19"/>
       <c r="AS229" s="19"/>
     </row>
-    <row r="230" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:45" ht="15.75" customHeight="1">
       <c r="A230" s="22"/>
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
@@ -15514,7 +15524,7 @@
       <c r="AR230" s="19"/>
       <c r="AS230" s="19"/>
     </row>
-    <row r="231" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:45" ht="15.75" customHeight="1">
       <c r="A231" s="22"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
@@ -15561,7 +15571,7 @@
       <c r="AR231" s="19"/>
       <c r="AS231" s="19"/>
     </row>
-    <row r="232" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:45" ht="15.75" customHeight="1">
       <c r="A232" s="22"/>
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
@@ -15608,7 +15618,7 @@
       <c r="AR232" s="19"/>
       <c r="AS232" s="19"/>
     </row>
-    <row r="233" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:45" ht="15.75" customHeight="1">
       <c r="A233" s="22"/>
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
@@ -15655,7 +15665,7 @@
       <c r="AR233" s="19"/>
       <c r="AS233" s="19"/>
     </row>
-    <row r="234" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:45" ht="15.75" customHeight="1">
       <c r="A234" s="22"/>
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
@@ -15702,7 +15712,7 @@
       <c r="AR234" s="19"/>
       <c r="AS234" s="19"/>
     </row>
-    <row r="235" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:45" ht="15.75" customHeight="1">
       <c r="A235" s="22"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
@@ -15749,7 +15759,7 @@
       <c r="AR235" s="19"/>
       <c r="AS235" s="19"/>
     </row>
-    <row r="236" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:45" ht="15.75" customHeight="1">
       <c r="A236" s="22"/>
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
@@ -15796,7 +15806,7 @@
       <c r="AR236" s="19"/>
       <c r="AS236" s="19"/>
     </row>
-    <row r="237" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:45" ht="15.75" customHeight="1">
       <c r="A237" s="22"/>
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
@@ -15843,7 +15853,7 @@
       <c r="AR237" s="19"/>
       <c r="AS237" s="19"/>
     </row>
-    <row r="238" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:45" ht="15.75" customHeight="1">
       <c r="A238" s="22"/>
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
@@ -15890,7 +15900,7 @@
       <c r="AR238" s="19"/>
       <c r="AS238" s="19"/>
     </row>
-    <row r="239" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:45" ht="15.75" customHeight="1">
       <c r="A239" s="22"/>
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
@@ -15937,7 +15947,7 @@
       <c r="AR239" s="19"/>
       <c r="AS239" s="19"/>
     </row>
-    <row r="240" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:45" ht="15.75" customHeight="1">
       <c r="A240" s="22"/>
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
@@ -15984,7 +15994,7 @@
       <c r="AR240" s="19"/>
       <c r="AS240" s="19"/>
     </row>
-    <row r="241" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:45" ht="15.75" customHeight="1">
       <c r="A241" s="22"/>
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
@@ -16031,7 +16041,7 @@
       <c r="AR241" s="19"/>
       <c r="AS241" s="19"/>
     </row>
-    <row r="242" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:45" ht="15.75" customHeight="1">
       <c r="A242" s="22"/>
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
@@ -16078,7 +16088,7 @@
       <c r="AR242" s="19"/>
       <c r="AS242" s="19"/>
     </row>
-    <row r="243" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:45" ht="15.75" customHeight="1">
       <c r="A243" s="22"/>
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
@@ -16125,7 +16135,7 @@
       <c r="AR243" s="19"/>
       <c r="AS243" s="19"/>
     </row>
-    <row r="244" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:45" ht="15.75" customHeight="1">
       <c r="A244" s="22"/>
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
@@ -16172,7 +16182,7 @@
       <c r="AR244" s="19"/>
       <c r="AS244" s="19"/>
     </row>
-    <row r="245" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:45" ht="15.75" customHeight="1">
       <c r="A245" s="22"/>
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
@@ -16219,7 +16229,7 @@
       <c r="AR245" s="19"/>
       <c r="AS245" s="19"/>
     </row>
-    <row r="246" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:45" ht="15.75" customHeight="1">
       <c r="A246" s="22"/>
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
@@ -16266,7 +16276,7 @@
       <c r="AR246" s="19"/>
       <c r="AS246" s="19"/>
     </row>
-    <row r="247" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:45" ht="15.75" customHeight="1">
       <c r="A247" s="22"/>
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
@@ -16313,7 +16323,7 @@
       <c r="AR247" s="19"/>
       <c r="AS247" s="19"/>
     </row>
-    <row r="248" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:45" ht="15.75" customHeight="1">
       <c r="A248" s="22"/>
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
@@ -16360,7 +16370,7 @@
       <c r="AR248" s="19"/>
       <c r="AS248" s="19"/>
     </row>
-    <row r="249" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:45" ht="15.75" customHeight="1">
       <c r="A249" s="22"/>
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
@@ -16407,7 +16417,7 @@
       <c r="AR249" s="19"/>
       <c r="AS249" s="19"/>
     </row>
-    <row r="250" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:45" ht="15.75" customHeight="1">
       <c r="A250" s="22"/>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
@@ -16454,7 +16464,7 @@
       <c r="AR250" s="19"/>
       <c r="AS250" s="19"/>
     </row>
-    <row r="251" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:45" ht="15.75" customHeight="1">
       <c r="A251" s="22"/>
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
@@ -16501,7 +16511,7 @@
       <c r="AR251" s="19"/>
       <c r="AS251" s="19"/>
     </row>
-    <row r="252" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:45" ht="15.75" customHeight="1">
       <c r="A252" s="22"/>
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
@@ -16548,7 +16558,7 @@
       <c r="AR252" s="19"/>
       <c r="AS252" s="19"/>
     </row>
-    <row r="253" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:45" ht="15.75" customHeight="1">
       <c r="A253" s="22"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
@@ -16595,7 +16605,7 @@
       <c r="AR253" s="19"/>
       <c r="AS253" s="19"/>
     </row>
-    <row r="254" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:45" ht="15.75" customHeight="1">
       <c r="A254" s="22"/>
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
@@ -16642,7 +16652,7 @@
       <c r="AR254" s="19"/>
       <c r="AS254" s="19"/>
     </row>
-    <row r="255" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:45" ht="15.75" customHeight="1">
       <c r="A255" s="22"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
@@ -16689,7 +16699,7 @@
       <c r="AR255" s="19"/>
       <c r="AS255" s="19"/>
     </row>
-    <row r="256" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:45" ht="15.75" customHeight="1">
       <c r="A256" s="22"/>
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
@@ -16736,7 +16746,7 @@
       <c r="AR256" s="19"/>
       <c r="AS256" s="19"/>
     </row>
-    <row r="257" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:45" ht="15.75" customHeight="1">
       <c r="A257" s="22"/>
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
@@ -16783,7 +16793,7 @@
       <c r="AR257" s="19"/>
       <c r="AS257" s="19"/>
     </row>
-    <row r="258" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:45" ht="15.75" customHeight="1">
       <c r="A258" s="29"/>
       <c r="B258" s="26"/>
       <c r="C258" s="26"/>
@@ -16830,7 +16840,7 @@
       <c r="AR258" s="26"/>
       <c r="AS258" s="26"/>
     </row>
-    <row r="259" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:45" ht="15.75" customHeight="1">
       <c r="A259" s="29"/>
       <c r="B259" s="26"/>
       <c r="C259" s="26"/>
@@ -16877,7 +16887,7 @@
       <c r="AR259" s="26"/>
       <c r="AS259" s="26"/>
     </row>
-    <row r="260" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:45" ht="15.75" customHeight="1">
       <c r="A260" s="29"/>
       <c r="B260" s="26"/>
       <c r="C260" s="26"/>
@@ -16924,7 +16934,7 @@
       <c r="AR260" s="26"/>
       <c r="AS260" s="26"/>
     </row>
-    <row r="261" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:45" ht="15.75" customHeight="1">
       <c r="A261" s="29"/>
       <c r="B261" s="26"/>
       <c r="C261" s="26"/>
@@ -16971,7 +16981,7 @@
       <c r="AR261" s="26"/>
       <c r="AS261" s="26"/>
     </row>
-    <row r="262" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:45" ht="15.75" customHeight="1">
       <c r="A262" s="29"/>
       <c r="B262" s="26"/>
       <c r="C262" s="26"/>
@@ -17018,7 +17028,7 @@
       <c r="AR262" s="26"/>
       <c r="AS262" s="26"/>
     </row>
-    <row r="263" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:45" ht="15.75" customHeight="1">
       <c r="A263" s="29"/>
       <c r="B263" s="26"/>
       <c r="C263" s="26"/>
@@ -17065,7 +17075,7 @@
       <c r="AR263" s="26"/>
       <c r="AS263" s="26"/>
     </row>
-    <row r="264" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:45" ht="15.75" customHeight="1">
       <c r="A264" s="29"/>
       <c r="B264" s="26"/>
       <c r="C264" s="26"/>
@@ -17112,7 +17122,7 @@
       <c r="AR264" s="26"/>
       <c r="AS264" s="26"/>
     </row>
-    <row r="265" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:45" ht="15.75" customHeight="1">
       <c r="A265" s="29"/>
       <c r="B265" s="26"/>
       <c r="C265" s="26"/>
@@ -17159,7 +17169,7 @@
       <c r="AR265" s="26"/>
       <c r="AS265" s="26"/>
     </row>
-    <row r="266" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:45" ht="15.75" customHeight="1">
       <c r="A266" s="29"/>
       <c r="B266" s="26"/>
       <c r="C266" s="26"/>
@@ -17206,7 +17216,7 @@
       <c r="AR266" s="26"/>
       <c r="AS266" s="26"/>
     </row>
-    <row r="267" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:45" ht="15.75" customHeight="1">
       <c r="A267" s="29"/>
       <c r="B267" s="26"/>
       <c r="C267" s="26"/>
@@ -17253,7 +17263,7 @@
       <c r="AR267" s="26"/>
       <c r="AS267" s="26"/>
     </row>
-    <row r="268" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:45" ht="15.75" customHeight="1">
       <c r="A268" s="29"/>
       <c r="B268" s="26"/>
       <c r="C268" s="26"/>
@@ -17300,7 +17310,7 @@
       <c r="AR268" s="26"/>
       <c r="AS268" s="26"/>
     </row>
-    <row r="269" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:45" ht="15.75" customHeight="1">
       <c r="A269" s="29"/>
       <c r="B269" s="26"/>
       <c r="C269" s="26"/>
@@ -17347,7 +17357,7 @@
       <c r="AR269" s="26"/>
       <c r="AS269" s="26"/>
     </row>
-    <row r="270" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:45" ht="15.75" customHeight="1">
       <c r="A270" s="29"/>
       <c r="B270" s="26"/>
       <c r="C270" s="26"/>
@@ -17394,7 +17404,7 @@
       <c r="AR270" s="26"/>
       <c r="AS270" s="26"/>
     </row>
-    <row r="271" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:45" ht="15.75" customHeight="1">
       <c r="A271" s="29"/>
       <c r="B271" s="26"/>
       <c r="C271" s="26"/>
@@ -17441,7 +17451,7 @@
       <c r="AR271" s="26"/>
       <c r="AS271" s="26"/>
     </row>
-    <row r="272" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:45" ht="15.75" customHeight="1">
       <c r="A272" s="29"/>
       <c r="B272" s="26"/>
       <c r="C272" s="26"/>
@@ -17488,7 +17498,7 @@
       <c r="AR272" s="26"/>
       <c r="AS272" s="26"/>
     </row>
-    <row r="273" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:45" ht="15.75" customHeight="1">
       <c r="A273" s="29"/>
       <c r="B273" s="26"/>
       <c r="C273" s="26"/>
@@ -17535,7 +17545,7 @@
       <c r="AR273" s="26"/>
       <c r="AS273" s="26"/>
     </row>
-    <row r="274" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:45" ht="15.75" customHeight="1">
       <c r="A274" s="29"/>
       <c r="B274" s="26"/>
       <c r="C274" s="26"/>
@@ -17582,7 +17592,7 @@
       <c r="AR274" s="26"/>
       <c r="AS274" s="26"/>
     </row>
-    <row r="275" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:45" ht="15.75" customHeight="1">
       <c r="A275" s="29"/>
       <c r="B275" s="26"/>
       <c r="C275" s="26"/>
@@ -17629,7 +17639,7 @@
       <c r="AR275" s="26"/>
       <c r="AS275" s="26"/>
     </row>
-    <row r="276" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:45" ht="15.75" customHeight="1">
       <c r="A276" s="29"/>
       <c r="B276" s="26"/>
       <c r="C276" s="26"/>
@@ -17676,7 +17686,7 @@
       <c r="AR276" s="26"/>
       <c r="AS276" s="26"/>
     </row>
-    <row r="277" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:45" ht="15.75" customHeight="1">
       <c r="A277" s="29"/>
       <c r="B277" s="26"/>
       <c r="C277" s="26"/>
@@ -17723,7 +17733,7 @@
       <c r="AR277" s="26"/>
       <c r="AS277" s="26"/>
     </row>
-    <row r="278" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:45" ht="15.75" customHeight="1">
       <c r="A278" s="29"/>
       <c r="B278" s="26"/>
       <c r="C278" s="26"/>
@@ -17770,7 +17780,7 @@
       <c r="AR278" s="26"/>
       <c r="AS278" s="26"/>
     </row>
-    <row r="279" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:45" ht="15.75" customHeight="1">
       <c r="A279" s="29"/>
       <c r="B279" s="26"/>
       <c r="C279" s="26"/>
@@ -17817,7 +17827,7 @@
       <c r="AR279" s="26"/>
       <c r="AS279" s="26"/>
     </row>
-    <row r="280" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:45" ht="15.75" customHeight="1">
       <c r="A280" s="29"/>
       <c r="B280" s="26"/>
       <c r="C280" s="26"/>
@@ -17864,7 +17874,7 @@
       <c r="AR280" s="26"/>
       <c r="AS280" s="26"/>
     </row>
-    <row r="281" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:45" ht="15.75" customHeight="1">
       <c r="A281" s="29"/>
       <c r="B281" s="26"/>
       <c r="C281" s="26"/>
@@ -17911,7 +17921,7 @@
       <c r="AR281" s="26"/>
       <c r="AS281" s="26"/>
     </row>
-    <row r="282" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:45" ht="15.75" customHeight="1">
       <c r="A282" s="29"/>
       <c r="B282" s="26"/>
       <c r="C282" s="26"/>
@@ -17958,7 +17968,7 @@
       <c r="AR282" s="26"/>
       <c r="AS282" s="26"/>
     </row>
-    <row r="283" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:45" ht="15.75" customHeight="1">
       <c r="A283" s="29"/>
       <c r="B283" s="26"/>
       <c r="C283" s="26"/>
@@ -18005,7 +18015,7 @@
       <c r="AR283" s="26"/>
       <c r="AS283" s="26"/>
     </row>
-    <row r="284" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:45" ht="15.75" customHeight="1">
       <c r="A284" s="29"/>
       <c r="B284" s="26"/>
       <c r="C284" s="26"/>
@@ -18052,7 +18062,7 @@
       <c r="AR284" s="26"/>
       <c r="AS284" s="26"/>
     </row>
-    <row r="285" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:45" ht="15.75" customHeight="1">
       <c r="A285" s="29"/>
       <c r="B285" s="26"/>
       <c r="C285" s="26"/>
@@ -18099,7 +18109,7 @@
       <c r="AR285" s="26"/>
       <c r="AS285" s="26"/>
     </row>
-    <row r="286" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:45" ht="15.75" customHeight="1">
       <c r="A286" s="29"/>
       <c r="B286" s="26"/>
       <c r="C286" s="26"/>
@@ -18146,7 +18156,7 @@
       <c r="AR286" s="26"/>
       <c r="AS286" s="26"/>
     </row>
-    <row r="287" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:45" ht="15.75" customHeight="1">
       <c r="A287" s="29"/>
       <c r="B287" s="26"/>
       <c r="C287" s="26"/>
@@ -18193,7 +18203,7 @@
       <c r="AR287" s="26"/>
       <c r="AS287" s="26"/>
     </row>
-    <row r="288" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:45" ht="15.75" customHeight="1">
       <c r="A288" s="29"/>
       <c r="B288" s="26"/>
       <c r="C288" s="26"/>
@@ -18240,7 +18250,7 @@
       <c r="AR288" s="26"/>
       <c r="AS288" s="26"/>
     </row>
-    <row r="289" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:45" ht="15.75" customHeight="1">
       <c r="A289" s="29"/>
       <c r="B289" s="26"/>
       <c r="C289" s="26"/>
@@ -18287,7 +18297,7 @@
       <c r="AR289" s="26"/>
       <c r="AS289" s="26"/>
     </row>
-    <row r="290" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:45" ht="15.75" customHeight="1">
       <c r="A290" s="29"/>
       <c r="B290" s="26"/>
       <c r="C290" s="26"/>
@@ -18334,7 +18344,7 @@
       <c r="AR290" s="26"/>
       <c r="AS290" s="26"/>
     </row>
-    <row r="291" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:45" ht="15.75" customHeight="1">
       <c r="A291" s="29"/>
       <c r="B291" s="26"/>
       <c r="C291" s="26"/>
@@ -18381,7 +18391,7 @@
       <c r="AR291" s="26"/>
       <c r="AS291" s="26"/>
     </row>
-    <row r="292" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:45" ht="15.75" customHeight="1">
       <c r="A292" s="29"/>
       <c r="B292" s="26"/>
       <c r="C292" s="26"/>
@@ -18428,7 +18438,7 @@
       <c r="AR292" s="26"/>
       <c r="AS292" s="26"/>
     </row>
-    <row r="293" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:45" ht="15.75" customHeight="1">
       <c r="A293" s="29"/>
       <c r="B293" s="26"/>
       <c r="C293" s="26"/>
@@ -18475,7 +18485,7 @@
       <c r="AR293" s="26"/>
       <c r="AS293" s="26"/>
     </row>
-    <row r="294" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:45" ht="15.75" customHeight="1">
       <c r="A294" s="29"/>
       <c r="B294" s="26"/>
       <c r="C294" s="26"/>
@@ -18522,7 +18532,7 @@
       <c r="AR294" s="26"/>
       <c r="AS294" s="26"/>
     </row>
-    <row r="295" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:45" ht="15.75" customHeight="1">
       <c r="A295" s="29"/>
       <c r="B295" s="26"/>
       <c r="C295" s="26"/>
@@ -18569,7 +18579,7 @@
       <c r="AR295" s="26"/>
       <c r="AS295" s="26"/>
     </row>
-    <row r="296" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:45" ht="15.75" customHeight="1">
       <c r="A296" s="29"/>
       <c r="B296" s="26"/>
       <c r="C296" s="26"/>
@@ -18616,7 +18626,7 @@
       <c r="AR296" s="26"/>
       <c r="AS296" s="26"/>
     </row>
-    <row r="297" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:45" ht="15.75" customHeight="1">
       <c r="A297" s="29"/>
       <c r="B297" s="26"/>
       <c r="C297" s="26"/>
@@ -18663,7 +18673,7 @@
       <c r="AR297" s="26"/>
       <c r="AS297" s="26"/>
     </row>
-    <row r="298" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:45" ht="15.75" customHeight="1">
       <c r="A298" s="29"/>
       <c r="B298" s="26"/>
       <c r="C298" s="26"/>
@@ -18710,7 +18720,7 @@
       <c r="AR298" s="26"/>
       <c r="AS298" s="26"/>
     </row>
-    <row r="299" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:45" ht="15.75" customHeight="1">
       <c r="A299" s="29"/>
       <c r="B299" s="26"/>
       <c r="C299" s="26"/>
@@ -18757,7 +18767,7 @@
       <c r="AR299" s="26"/>
       <c r="AS299" s="26"/>
     </row>
-    <row r="300" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:45" ht="15.75" customHeight="1">
       <c r="A300" s="29"/>
       <c r="B300" s="26"/>
       <c r="C300" s="26"/>
@@ -18804,7 +18814,7 @@
       <c r="AR300" s="26"/>
       <c r="AS300" s="26"/>
     </row>
-    <row r="301" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:45" ht="15.75" customHeight="1">
       <c r="A301" s="29"/>
       <c r="B301" s="26"/>
       <c r="C301" s="26"/>
@@ -18851,7 +18861,7 @@
       <c r="AR301" s="26"/>
       <c r="AS301" s="26"/>
     </row>
-    <row r="302" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:45" ht="15.75" customHeight="1">
       <c r="A302" s="29"/>
       <c r="B302" s="26"/>
       <c r="C302" s="26"/>
@@ -18898,7 +18908,7 @@
       <c r="AR302" s="26"/>
       <c r="AS302" s="26"/>
     </row>
-    <row r="303" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:45" ht="15.75" customHeight="1">
       <c r="A303" s="29"/>
       <c r="B303" s="26"/>
       <c r="C303" s="26"/>
@@ -18945,7 +18955,7 @@
       <c r="AR303" s="26"/>
       <c r="AS303" s="26"/>
     </row>
-    <row r="304" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:45" ht="15.75" customHeight="1">
       <c r="A304" s="29"/>
       <c r="B304" s="26"/>
       <c r="C304" s="26"/>
@@ -18992,7 +19002,7 @@
       <c r="AR304" s="26"/>
       <c r="AS304" s="26"/>
     </row>
-    <row r="305" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:45" ht="15.75" customHeight="1">
       <c r="A305" s="29"/>
       <c r="B305" s="26"/>
       <c r="C305" s="26"/>
@@ -19039,7 +19049,7 @@
       <c r="AR305" s="26"/>
       <c r="AS305" s="26"/>
     </row>
-    <row r="306" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:45" ht="15.75" customHeight="1">
       <c r="A306" s="29"/>
       <c r="B306" s="26"/>
       <c r="C306" s="26"/>
@@ -19086,7 +19096,7 @@
       <c r="AR306" s="26"/>
       <c r="AS306" s="26"/>
     </row>
-    <row r="307" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:45" ht="15.75" customHeight="1">
       <c r="A307" s="29"/>
       <c r="B307" s="26"/>
       <c r="C307" s="26"/>
@@ -19133,7 +19143,7 @@
       <c r="AR307" s="26"/>
       <c r="AS307" s="26"/>
     </row>
-    <row r="308" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:45" ht="15.75" customHeight="1">
       <c r="A308" s="29"/>
       <c r="B308" s="26"/>
       <c r="C308" s="26"/>
@@ -19180,7 +19190,7 @@
       <c r="AR308" s="26"/>
       <c r="AS308" s="26"/>
     </row>
-    <row r="309" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:45" ht="15.75" customHeight="1">
       <c r="A309" s="29"/>
       <c r="B309" s="26"/>
       <c r="C309" s="26"/>
@@ -19227,7 +19237,7 @@
       <c r="AR309" s="26"/>
       <c r="AS309" s="26"/>
     </row>
-    <row r="310" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:45" ht="15.75" customHeight="1">
       <c r="A310" s="29"/>
       <c r="B310" s="26"/>
       <c r="C310" s="26"/>
@@ -19274,7 +19284,7 @@
       <c r="AR310" s="26"/>
       <c r="AS310" s="26"/>
     </row>
-    <row r="311" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:45" ht="15.75" customHeight="1">
       <c r="A311" s="29"/>
       <c r="B311" s="26"/>
       <c r="C311" s="26"/>
@@ -19321,7 +19331,7 @@
       <c r="AR311" s="26"/>
       <c r="AS311" s="26"/>
     </row>
-    <row r="312" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:45" ht="15.75" customHeight="1">
       <c r="A312" s="29"/>
       <c r="B312" s="26"/>
       <c r="C312" s="26"/>
@@ -19368,7 +19378,7 @@
       <c r="AR312" s="26"/>
       <c r="AS312" s="26"/>
     </row>
-    <row r="313" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:45" ht="15.75" customHeight="1">
       <c r="A313" s="29"/>
       <c r="B313" s="26"/>
       <c r="C313" s="26"/>
@@ -19415,7 +19425,7 @@
       <c r="AR313" s="26"/>
       <c r="AS313" s="26"/>
     </row>
-    <row r="314" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:45" ht="15.75" customHeight="1">
       <c r="A314" s="29"/>
       <c r="B314" s="26"/>
       <c r="C314" s="26"/>
@@ -19462,7 +19472,7 @@
       <c r="AR314" s="26"/>
       <c r="AS314" s="26"/>
     </row>
-    <row r="315" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:45" ht="15.75" customHeight="1">
       <c r="A315" s="29"/>
       <c r="B315" s="26"/>
       <c r="C315" s="26"/>
@@ -19509,7 +19519,7 @@
       <c r="AR315" s="26"/>
       <c r="AS315" s="26"/>
     </row>
-    <row r="316" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:45" ht="15.75" customHeight="1">
       <c r="A316" s="29"/>
       <c r="B316" s="26"/>
       <c r="C316" s="26"/>
@@ -19556,7 +19566,7 @@
       <c r="AR316" s="26"/>
       <c r="AS316" s="26"/>
     </row>
-    <row r="317" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:45" ht="15.75" customHeight="1">
       <c r="A317" s="29"/>
       <c r="B317" s="26"/>
       <c r="C317" s="26"/>
@@ -19603,7 +19613,7 @@
       <c r="AR317" s="26"/>
       <c r="AS317" s="26"/>
     </row>
-    <row r="318" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:45" ht="15.75" customHeight="1">
       <c r="A318" s="29"/>
       <c r="B318" s="26"/>
       <c r="C318" s="26"/>
@@ -19650,7 +19660,7 @@
       <c r="AR318" s="26"/>
       <c r="AS318" s="26"/>
     </row>
-    <row r="319" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:45" ht="15.75" customHeight="1">
       <c r="A319" s="29"/>
       <c r="B319" s="26"/>
       <c r="C319" s="26"/>
@@ -19697,7 +19707,7 @@
       <c r="AR319" s="26"/>
       <c r="AS319" s="26"/>
     </row>
-    <row r="320" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:45" ht="15.75" customHeight="1">
       <c r="A320" s="29"/>
       <c r="B320" s="26"/>
       <c r="C320" s="26"/>
@@ -19744,7 +19754,7 @@
       <c r="AR320" s="26"/>
       <c r="AS320" s="26"/>
     </row>
-    <row r="321" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:45" ht="15.75" customHeight="1">
       <c r="A321" s="29"/>
       <c r="B321" s="26"/>
       <c r="C321" s="26"/>
@@ -19791,7 +19801,7 @@
       <c r="AR321" s="26"/>
       <c r="AS321" s="26"/>
     </row>
-    <row r="322" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:45" ht="15.75" customHeight="1">
       <c r="A322" s="29"/>
       <c r="B322" s="26"/>
       <c r="C322" s="26"/>
@@ -19838,7 +19848,7 @@
       <c r="AR322" s="26"/>
       <c r="AS322" s="26"/>
     </row>
-    <row r="323" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:45" ht="15.75" customHeight="1">
       <c r="A323" s="29"/>
       <c r="B323" s="26"/>
       <c r="C323" s="26"/>
@@ -19885,7 +19895,7 @@
       <c r="AR323" s="26"/>
       <c r="AS323" s="26"/>
     </row>
-    <row r="324" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:45" ht="15.75" customHeight="1">
       <c r="A324" s="29"/>
       <c r="B324" s="26"/>
       <c r="C324" s="26"/>
@@ -19932,7 +19942,7 @@
       <c r="AR324" s="26"/>
       <c r="AS324" s="26"/>
     </row>
-    <row r="325" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:45" ht="15.75" customHeight="1">
       <c r="A325" s="29"/>
       <c r="B325" s="26"/>
       <c r="C325" s="26"/>
@@ -19979,7 +19989,7 @@
       <c r="AR325" s="26"/>
       <c r="AS325" s="26"/>
     </row>
-    <row r="326" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:45" ht="15.75" customHeight="1">
       <c r="A326" s="29"/>
       <c r="B326" s="26"/>
       <c r="C326" s="26"/>
@@ -20026,7 +20036,7 @@
       <c r="AR326" s="26"/>
       <c r="AS326" s="26"/>
     </row>
-    <row r="327" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:45" ht="15.75" customHeight="1">
       <c r="A327" s="29"/>
       <c r="B327" s="26"/>
       <c r="C327" s="26"/>
@@ -20073,7 +20083,7 @@
       <c r="AR327" s="26"/>
       <c r="AS327" s="26"/>
     </row>
-    <row r="328" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:45" ht="15.75" customHeight="1">
       <c r="A328" s="29"/>
       <c r="B328" s="26"/>
       <c r="C328" s="26"/>
@@ -20120,7 +20130,7 @@
       <c r="AR328" s="26"/>
       <c r="AS328" s="26"/>
     </row>
-    <row r="329" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:45" ht="15.75" customHeight="1">
       <c r="A329" s="29"/>
       <c r="B329" s="26"/>
       <c r="C329" s="26"/>
@@ -20167,7 +20177,7 @@
       <c r="AR329" s="26"/>
       <c r="AS329" s="26"/>
     </row>
-    <row r="330" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:45" ht="15.75" customHeight="1">
       <c r="A330" s="29"/>
       <c r="B330" s="26"/>
       <c r="C330" s="26"/>
@@ -20214,7 +20224,7 @@
       <c r="AR330" s="26"/>
       <c r="AS330" s="26"/>
     </row>
-    <row r="331" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:45" ht="15.75" customHeight="1">
       <c r="A331" s="29"/>
       <c r="B331" s="26"/>
       <c r="C331" s="26"/>
@@ -20261,7 +20271,7 @@
       <c r="AR331" s="26"/>
       <c r="AS331" s="26"/>
     </row>
-    <row r="332" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:45" ht="15.75" customHeight="1">
       <c r="A332" s="29"/>
       <c r="B332" s="26"/>
       <c r="C332" s="26"/>
@@ -20308,7 +20318,7 @@
       <c r="AR332" s="26"/>
       <c r="AS332" s="26"/>
     </row>
-    <row r="333" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:45" ht="15.75" customHeight="1">
       <c r="A333" s="29"/>
       <c r="B333" s="26"/>
       <c r="C333" s="26"/>
@@ -20355,7 +20365,7 @@
       <c r="AR333" s="26"/>
       <c r="AS333" s="26"/>
     </row>
-    <row r="334" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:45" ht="15.75" customHeight="1">
       <c r="A334" s="29"/>
       <c r="B334" s="26"/>
       <c r="C334" s="26"/>
@@ -20402,7 +20412,7 @@
       <c r="AR334" s="26"/>
       <c r="AS334" s="26"/>
     </row>
-    <row r="335" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:45" ht="15.75" customHeight="1">
       <c r="A335" s="29"/>
       <c r="B335" s="26"/>
       <c r="C335" s="26"/>
@@ -20449,7 +20459,7 @@
       <c r="AR335" s="26"/>
       <c r="AS335" s="26"/>
     </row>
-    <row r="336" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:45" ht="15.75" customHeight="1">
       <c r="A336" s="29"/>
       <c r="B336" s="26"/>
       <c r="C336" s="26"/>
@@ -20496,7 +20506,7 @@
       <c r="AR336" s="26"/>
       <c r="AS336" s="26"/>
     </row>
-    <row r="337" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:45" ht="15.75" customHeight="1">
       <c r="A337" s="29"/>
       <c r="B337" s="26"/>
       <c r="C337" s="26"/>
@@ -20543,7 +20553,7 @@
       <c r="AR337" s="26"/>
       <c r="AS337" s="26"/>
     </row>
-    <row r="338" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:45" ht="15.75" customHeight="1">
       <c r="A338" s="29"/>
       <c r="B338" s="26"/>
       <c r="C338" s="26"/>
@@ -20590,7 +20600,7 @@
       <c r="AR338" s="26"/>
       <c r="AS338" s="26"/>
     </row>
-    <row r="339" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:45" ht="15.75" customHeight="1">
       <c r="A339" s="29"/>
       <c r="B339" s="26"/>
       <c r="C339" s="26"/>
@@ -20637,7 +20647,7 @@
       <c r="AR339" s="26"/>
       <c r="AS339" s="26"/>
     </row>
-    <row r="340" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:45" ht="15.75" customHeight="1">
       <c r="A340" s="29"/>
       <c r="B340" s="26"/>
       <c r="C340" s="26"/>
@@ -20684,7 +20694,7 @@
       <c r="AR340" s="26"/>
       <c r="AS340" s="26"/>
     </row>
-    <row r="341" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:45" ht="15.75" customHeight="1">
       <c r="A341" s="29"/>
       <c r="B341" s="26"/>
       <c r="C341" s="26"/>
@@ -20731,7 +20741,7 @@
       <c r="AR341" s="26"/>
       <c r="AS341" s="26"/>
     </row>
-    <row r="342" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:45" ht="15.75" customHeight="1">
       <c r="A342" s="29"/>
       <c r="B342" s="26"/>
       <c r="C342" s="26"/>
@@ -20778,7 +20788,7 @@
       <c r="AR342" s="26"/>
       <c r="AS342" s="26"/>
     </row>
-    <row r="343" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:45" ht="15.75" customHeight="1">
       <c r="A343" s="29"/>
       <c r="B343" s="26"/>
       <c r="C343" s="26"/>
@@ -20825,7 +20835,7 @@
       <c r="AR343" s="26"/>
       <c r="AS343" s="26"/>
     </row>
-    <row r="344" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:45" ht="15.75" customHeight="1">
       <c r="A344" s="29"/>
       <c r="B344" s="26"/>
       <c r="C344" s="26"/>
@@ -20872,7 +20882,7 @@
       <c r="AR344" s="26"/>
       <c r="AS344" s="26"/>
     </row>
-    <row r="345" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:45" ht="15.75" customHeight="1">
       <c r="A345" s="29"/>
       <c r="B345" s="26"/>
       <c r="C345" s="26"/>
@@ -20919,7 +20929,7 @@
       <c r="AR345" s="26"/>
       <c r="AS345" s="26"/>
     </row>
-    <row r="346" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:45" ht="15.75" customHeight="1">
       <c r="A346" s="29"/>
       <c r="B346" s="26"/>
       <c r="C346" s="26"/>
@@ -20966,7 +20976,7 @@
       <c r="AR346" s="26"/>
       <c r="AS346" s="26"/>
     </row>
-    <row r="347" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:45" ht="15.75" customHeight="1">
       <c r="A347" s="29"/>
       <c r="B347" s="26"/>
       <c r="C347" s="26"/>
@@ -21013,7 +21023,7 @@
       <c r="AR347" s="26"/>
       <c r="AS347" s="26"/>
     </row>
-    <row r="348" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:45" ht="15.75" customHeight="1">
       <c r="A348" s="29"/>
       <c r="B348" s="26"/>
       <c r="C348" s="26"/>
@@ -21060,7 +21070,7 @@
       <c r="AR348" s="26"/>
       <c r="AS348" s="26"/>
     </row>
-    <row r="349" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:45" ht="15.75" customHeight="1">
       <c r="A349" s="29"/>
       <c r="B349" s="26"/>
       <c r="C349" s="26"/>
@@ -21107,7 +21117,7 @@
       <c r="AR349" s="26"/>
       <c r="AS349" s="26"/>
     </row>
-    <row r="350" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:45" ht="15.75" customHeight="1">
       <c r="A350" s="29"/>
       <c r="B350" s="26"/>
       <c r="C350" s="26"/>
@@ -21154,7 +21164,7 @@
       <c r="AR350" s="26"/>
       <c r="AS350" s="26"/>
     </row>
-    <row r="351" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:45" ht="15.75" customHeight="1">
       <c r="A351" s="29"/>
       <c r="B351" s="26"/>
       <c r="C351" s="26"/>
@@ -21201,7 +21211,7 @@
       <c r="AR351" s="26"/>
       <c r="AS351" s="26"/>
     </row>
-    <row r="352" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:45" ht="15.75" customHeight="1">
       <c r="A352" s="29"/>
       <c r="B352" s="26"/>
       <c r="C352" s="26"/>
@@ -21248,7 +21258,7 @@
       <c r="AR352" s="26"/>
       <c r="AS352" s="26"/>
     </row>
-    <row r="353" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:45" ht="15.75" customHeight="1">
       <c r="A353" s="29"/>
       <c r="B353" s="26"/>
       <c r="C353" s="26"/>
@@ -21295,7 +21305,7 @@
       <c r="AR353" s="26"/>
       <c r="AS353" s="26"/>
     </row>
-    <row r="354" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:45" ht="15.75" customHeight="1">
       <c r="A354" s="29"/>
       <c r="B354" s="26"/>
       <c r="C354" s="26"/>
@@ -21342,7 +21352,7 @@
       <c r="AR354" s="26"/>
       <c r="AS354" s="26"/>
     </row>
-    <row r="355" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:45" ht="15.75" customHeight="1">
       <c r="A355" s="29"/>
       <c r="B355" s="26"/>
       <c r="C355" s="26"/>
@@ -21389,7 +21399,7 @@
       <c r="AR355" s="26"/>
       <c r="AS355" s="26"/>
     </row>
-    <row r="356" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:45" ht="15.75" customHeight="1">
       <c r="A356" s="29"/>
       <c r="B356" s="26"/>
       <c r="C356" s="26"/>
@@ -21436,7 +21446,7 @@
       <c r="AR356" s="26"/>
       <c r="AS356" s="26"/>
     </row>
-    <row r="357" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:45" ht="15.75" customHeight="1">
       <c r="A357" s="29"/>
       <c r="B357" s="26"/>
       <c r="C357" s="26"/>
@@ -21483,7 +21493,7 @@
       <c r="AR357" s="26"/>
       <c r="AS357" s="26"/>
     </row>
-    <row r="358" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:45" ht="15.75" customHeight="1">
       <c r="A358" s="29"/>
       <c r="B358" s="26"/>
       <c r="C358" s="26"/>
@@ -21530,7 +21540,7 @@
       <c r="AR358" s="26"/>
       <c r="AS358" s="26"/>
     </row>
-    <row r="359" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:45" ht="15.75" customHeight="1">
       <c r="A359" s="29"/>
       <c r="B359" s="26"/>
       <c r="C359" s="26"/>
@@ -21577,7 +21587,7 @@
       <c r="AR359" s="26"/>
       <c r="AS359" s="26"/>
     </row>
-    <row r="360" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:45" ht="15.75" customHeight="1">
       <c r="A360" s="29"/>
       <c r="B360" s="26"/>
       <c r="C360" s="26"/>
@@ -21624,7 +21634,7 @@
       <c r="AR360" s="26"/>
       <c r="AS360" s="26"/>
     </row>
-    <row r="361" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:45" ht="15.75" customHeight="1">
       <c r="A361" s="29"/>
       <c r="B361" s="26"/>
       <c r="C361" s="26"/>
@@ -21671,7 +21681,7 @@
       <c r="AR361" s="26"/>
       <c r="AS361" s="26"/>
     </row>
-    <row r="362" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:45" ht="15.75" customHeight="1">
       <c r="A362" s="29"/>
       <c r="B362" s="26"/>
       <c r="C362" s="26"/>
@@ -21718,7 +21728,7 @@
       <c r="AR362" s="26"/>
       <c r="AS362" s="26"/>
     </row>
-    <row r="363" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:45" ht="15.75" customHeight="1">
       <c r="A363" s="29"/>
       <c r="B363" s="26"/>
       <c r="C363" s="26"/>
@@ -21765,7 +21775,7 @@
       <c r="AR363" s="26"/>
       <c r="AS363" s="26"/>
     </row>
-    <row r="364" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:45" ht="15.75" customHeight="1">
       <c r="A364" s="29"/>
       <c r="B364" s="26"/>
       <c r="C364" s="26"/>
@@ -21812,7 +21822,7 @@
       <c r="AR364" s="26"/>
       <c r="AS364" s="26"/>
     </row>
-    <row r="365" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:45" ht="15.75" customHeight="1">
       <c r="A365" s="29"/>
       <c r="B365" s="26"/>
       <c r="C365" s="26"/>
@@ -21859,7 +21869,7 @@
       <c r="AR365" s="26"/>
       <c r="AS365" s="26"/>
     </row>
-    <row r="366" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:45" ht="15.75" customHeight="1">
       <c r="A366" s="29"/>
       <c r="B366" s="26"/>
       <c r="C366" s="26"/>
@@ -21906,7 +21916,7 @@
       <c r="AR366" s="26"/>
       <c r="AS366" s="26"/>
     </row>
-    <row r="367" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:45" ht="15.75" customHeight="1">
       <c r="A367" s="29"/>
       <c r="B367" s="26"/>
       <c r="C367" s="26"/>
@@ -21953,7 +21963,7 @@
       <c r="AR367" s="26"/>
       <c r="AS367" s="26"/>
     </row>
-    <row r="368" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:45" ht="15.75" customHeight="1">
       <c r="A368" s="29"/>
       <c r="B368" s="26"/>
       <c r="C368" s="26"/>
@@ -22000,7 +22010,7 @@
       <c r="AR368" s="26"/>
       <c r="AS368" s="26"/>
     </row>
-    <row r="369" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:45" ht="15.75" customHeight="1">
       <c r="A369" s="29"/>
       <c r="B369" s="26"/>
       <c r="C369" s="26"/>
@@ -22047,7 +22057,7 @@
       <c r="AR369" s="26"/>
       <c r="AS369" s="26"/>
     </row>
-    <row r="370" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:45" ht="15.75" customHeight="1">
       <c r="A370" s="29"/>
       <c r="B370" s="26"/>
       <c r="C370" s="26"/>
@@ -22094,7 +22104,7 @@
       <c r="AR370" s="26"/>
       <c r="AS370" s="26"/>
     </row>
-    <row r="371" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:45" ht="15.75" customHeight="1">
       <c r="A371" s="29"/>
       <c r="B371" s="26"/>
       <c r="C371" s="26"/>
@@ -22141,7 +22151,7 @@
       <c r="AR371" s="26"/>
       <c r="AS371" s="26"/>
     </row>
-    <row r="372" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:45" ht="15.75" customHeight="1">
       <c r="A372" s="29"/>
       <c r="B372" s="26"/>
       <c r="C372" s="26"/>
@@ -22188,7 +22198,7 @@
       <c r="AR372" s="26"/>
       <c r="AS372" s="26"/>
     </row>
-    <row r="373" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:45" ht="15.75" customHeight="1">
       <c r="A373" s="29"/>
       <c r="B373" s="26"/>
       <c r="C373" s="26"/>
@@ -22235,7 +22245,7 @@
       <c r="AR373" s="26"/>
       <c r="AS373" s="26"/>
     </row>
-    <row r="374" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:45" ht="15.75" customHeight="1">
       <c r="A374" s="29"/>
       <c r="B374" s="26"/>
       <c r="C374" s="26"/>
@@ -22282,7 +22292,7 @@
       <c r="AR374" s="26"/>
       <c r="AS374" s="26"/>
     </row>
-    <row r="375" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:45" ht="15.75" customHeight="1">
       <c r="A375" s="29"/>
       <c r="B375" s="26"/>
       <c r="C375" s="26"/>
@@ -22329,7 +22339,7 @@
       <c r="AR375" s="26"/>
       <c r="AS375" s="26"/>
     </row>
-    <row r="376" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:45" ht="15.75" customHeight="1">
       <c r="A376" s="29"/>
       <c r="B376" s="26"/>
       <c r="C376" s="26"/>
@@ -22376,7 +22386,7 @@
       <c r="AR376" s="26"/>
       <c r="AS376" s="26"/>
     </row>
-    <row r="377" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:45" ht="15.75" customHeight="1">
       <c r="A377" s="29"/>
       <c r="B377" s="26"/>
       <c r="C377" s="26"/>
@@ -22423,7 +22433,7 @@
       <c r="AR377" s="26"/>
       <c r="AS377" s="26"/>
     </row>
-    <row r="378" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:45" ht="15.75" customHeight="1">
       <c r="A378" s="29"/>
       <c r="B378" s="26"/>
       <c r="C378" s="26"/>
@@ -22470,7 +22480,7 @@
       <c r="AR378" s="26"/>
       <c r="AS378" s="26"/>
     </row>
-    <row r="379" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:45" ht="15.75" customHeight="1">
       <c r="A379" s="29"/>
       <c r="B379" s="26"/>
       <c r="C379" s="26"/>
@@ -22517,7 +22527,7 @@
       <c r="AR379" s="26"/>
       <c r="AS379" s="26"/>
     </row>
-    <row r="380" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:45" ht="15.75" customHeight="1">
       <c r="A380" s="29"/>
       <c r="B380" s="26"/>
       <c r="C380" s="26"/>
@@ -22564,7 +22574,7 @@
       <c r="AR380" s="26"/>
       <c r="AS380" s="26"/>
     </row>
-    <row r="381" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:45" ht="15.75" customHeight="1">
       <c r="A381" s="29"/>
       <c r="B381" s="26"/>
       <c r="C381" s="26"/>
@@ -22611,7 +22621,7 @@
       <c r="AR381" s="26"/>
       <c r="AS381" s="26"/>
     </row>
-    <row r="382" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:45" ht="15.75" customHeight="1">
       <c r="A382" s="29"/>
       <c r="B382" s="26"/>
       <c r="C382" s="26"/>
@@ -22658,7 +22668,7 @@
       <c r="AR382" s="26"/>
       <c r="AS382" s="26"/>
     </row>
-    <row r="383" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:45" ht="15.75" customHeight="1">
       <c r="A383" s="29"/>
       <c r="B383" s="26"/>
       <c r="C383" s="26"/>
@@ -22705,7 +22715,7 @@
       <c r="AR383" s="26"/>
       <c r="AS383" s="26"/>
     </row>
-    <row r="384" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:45" ht="15.75" customHeight="1">
       <c r="A384" s="29"/>
       <c r="B384" s="26"/>
       <c r="C384" s="26"/>
@@ -22752,7 +22762,7 @@
       <c r="AR384" s="26"/>
       <c r="AS384" s="26"/>
     </row>
-    <row r="385" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:45" ht="15.75" customHeight="1">
       <c r="A385" s="29"/>
       <c r="B385" s="26"/>
       <c r="C385" s="26"/>
@@ -22799,7 +22809,7 @@
       <c r="AR385" s="26"/>
       <c r="AS385" s="26"/>
     </row>
-    <row r="386" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:45" ht="15.75" customHeight="1">
       <c r="A386" s="29"/>
       <c r="B386" s="26"/>
       <c r="C386" s="26"/>
@@ -22846,7 +22856,7 @@
       <c r="AR386" s="26"/>
       <c r="AS386" s="26"/>
     </row>
-    <row r="387" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:45" ht="15.75" customHeight="1">
       <c r="A387" s="29"/>
       <c r="B387" s="26"/>
       <c r="C387" s="26"/>
@@ -22893,7 +22903,7 @@
       <c r="AR387" s="26"/>
       <c r="AS387" s="26"/>
     </row>
-    <row r="388" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:45" ht="15.75" customHeight="1">
       <c r="A388" s="29"/>
       <c r="B388" s="26"/>
       <c r="C388" s="26"/>
@@ -22940,7 +22950,7 @@
       <c r="AR388" s="26"/>
       <c r="AS388" s="26"/>
     </row>
-    <row r="389" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:45" ht="15.75" customHeight="1">
       <c r="A389" s="29"/>
       <c r="B389" s="26"/>
       <c r="C389" s="26"/>
@@ -22987,7 +22997,7 @@
       <c r="AR389" s="26"/>
       <c r="AS389" s="26"/>
     </row>
-    <row r="390" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:45" ht="15.75" customHeight="1">
       <c r="A390" s="29"/>
       <c r="B390" s="26"/>
       <c r="C390" s="26"/>
@@ -23034,7 +23044,7 @@
       <c r="AR390" s="26"/>
       <c r="AS390" s="26"/>
     </row>
-    <row r="391" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:45" ht="15.75" customHeight="1">
       <c r="A391" s="29"/>
       <c r="B391" s="26"/>
       <c r="C391" s="26"/>
@@ -23081,7 +23091,7 @@
       <c r="AR391" s="26"/>
       <c r="AS391" s="26"/>
     </row>
-    <row r="392" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:45" ht="15.75" customHeight="1">
       <c r="A392" s="29"/>
       <c r="B392" s="26"/>
       <c r="C392" s="26"/>
@@ -23128,7 +23138,7 @@
       <c r="AR392" s="26"/>
       <c r="AS392" s="26"/>
     </row>
-    <row r="393" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:45" ht="15.75" customHeight="1">
       <c r="A393" s="29"/>
       <c r="B393" s="26"/>
       <c r="C393" s="26"/>
@@ -23175,7 +23185,7 @@
       <c r="AR393" s="26"/>
       <c r="AS393" s="26"/>
     </row>
-    <row r="394" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:45" ht="15.75" customHeight="1">
       <c r="A394" s="29"/>
       <c r="B394" s="26"/>
       <c r="C394" s="26"/>
@@ -23222,7 +23232,7 @@
       <c r="AR394" s="26"/>
       <c r="AS394" s="26"/>
     </row>
-    <row r="395" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:45" ht="15.75" customHeight="1">
       <c r="A395" s="29"/>
       <c r="B395" s="26"/>
       <c r="C395" s="26"/>
@@ -23269,7 +23279,7 @@
       <c r="AR395" s="26"/>
       <c r="AS395" s="26"/>
     </row>
-    <row r="396" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:45" ht="15.75" customHeight="1">
       <c r="A396" s="29"/>
       <c r="B396" s="26"/>
       <c r="C396" s="26"/>
@@ -23316,7 +23326,7 @@
       <c r="AR396" s="26"/>
       <c r="AS396" s="26"/>
     </row>
-    <row r="397" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:45" ht="15.75" customHeight="1">
       <c r="A397" s="29"/>
       <c r="B397" s="26"/>
       <c r="C397" s="26"/>
@@ -23363,7 +23373,7 @@
       <c r="AR397" s="26"/>
       <c r="AS397" s="26"/>
     </row>
-    <row r="398" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:45" ht="15.75" customHeight="1">
       <c r="A398" s="29"/>
       <c r="B398" s="26"/>
       <c r="C398" s="26"/>
@@ -23410,7 +23420,7 @@
       <c r="AR398" s="26"/>
       <c r="AS398" s="26"/>
     </row>
-    <row r="399" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:45" ht="15.75" customHeight="1">
       <c r="A399" s="29"/>
       <c r="B399" s="26"/>
       <c r="C399" s="26"/>
@@ -23457,7 +23467,7 @@
       <c r="AR399" s="26"/>
       <c r="AS399" s="26"/>
     </row>
-    <row r="400" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:45" ht="15.75" customHeight="1">
       <c r="A400" s="29"/>
       <c r="B400" s="26"/>
       <c r="C400" s="26"/>
@@ -23504,7 +23514,7 @@
       <c r="AR400" s="26"/>
       <c r="AS400" s="26"/>
     </row>
-    <row r="401" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:45" ht="15.75" customHeight="1">
       <c r="A401" s="29"/>
       <c r="B401" s="26"/>
       <c r="C401" s="26"/>
@@ -23551,7 +23561,7 @@
       <c r="AR401" s="26"/>
       <c r="AS401" s="26"/>
     </row>
-    <row r="402" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:45" ht="15.75" customHeight="1">
       <c r="A402" s="29"/>
       <c r="B402" s="26"/>
       <c r="C402" s="26"/>
@@ -23598,7 +23608,7 @@
       <c r="AR402" s="26"/>
       <c r="AS402" s="26"/>
     </row>
-    <row r="403" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:45" ht="15.75" customHeight="1">
       <c r="A403" s="29"/>
       <c r="B403" s="26"/>
       <c r="C403" s="26"/>
@@ -23645,7 +23655,7 @@
       <c r="AR403" s="26"/>
       <c r="AS403" s="26"/>
     </row>
-    <row r="404" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:45" ht="15.75" customHeight="1">
       <c r="A404" s="29"/>
       <c r="B404" s="26"/>
       <c r="C404" s="26"/>
@@ -23692,7 +23702,7 @@
       <c r="AR404" s="26"/>
       <c r="AS404" s="26"/>
     </row>
-    <row r="405" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:45" ht="15.75" customHeight="1">
       <c r="A405" s="29"/>
       <c r="B405" s="26"/>
       <c r="C405" s="26"/>
@@ -23739,7 +23749,7 @@
       <c r="AR405" s="26"/>
       <c r="AS405" s="26"/>
     </row>
-    <row r="406" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:45" ht="15.75" customHeight="1">
       <c r="A406" s="29"/>
       <c r="B406" s="26"/>
       <c r="C406" s="26"/>
@@ -23786,7 +23796,7 @@
       <c r="AR406" s="26"/>
       <c r="AS406" s="26"/>
     </row>
-    <row r="407" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:45" ht="15.75" customHeight="1">
       <c r="A407" s="29"/>
       <c r="B407" s="26"/>
       <c r="C407" s="26"/>
@@ -23833,7 +23843,7 @@
       <c r="AR407" s="26"/>
       <c r="AS407" s="26"/>
     </row>
-    <row r="408" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:45" ht="15.75" customHeight="1">
       <c r="A408" s="29"/>
       <c r="B408" s="26"/>
       <c r="C408" s="26"/>
@@ -23880,7 +23890,7 @@
       <c r="AR408" s="26"/>
       <c r="AS408" s="26"/>
     </row>
-    <row r="409" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:45" ht="15.75" customHeight="1">
       <c r="A409" s="29"/>
       <c r="B409" s="26"/>
       <c r="C409" s="26"/>
@@ -23927,7 +23937,7 @@
       <c r="AR409" s="26"/>
       <c r="AS409" s="26"/>
     </row>
-    <row r="410" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:45" ht="15.75" customHeight="1">
       <c r="A410" s="29"/>
       <c r="B410" s="26"/>
       <c r="C410" s="26"/>
@@ -23974,7 +23984,7 @@
       <c r="AR410" s="26"/>
       <c r="AS410" s="26"/>
     </row>
-    <row r="411" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:45" ht="15.75" customHeight="1">
       <c r="A411" s="29"/>
       <c r="B411" s="26"/>
       <c r="C411" s="26"/>
@@ -24021,7 +24031,7 @@
       <c r="AR411" s="26"/>
       <c r="AS411" s="26"/>
     </row>
-    <row r="412" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:45" ht="15.75" customHeight="1">
       <c r="A412" s="29"/>
       <c r="B412" s="26"/>
       <c r="C412" s="26"/>
@@ -24068,7 +24078,7 @@
       <c r="AR412" s="26"/>
       <c r="AS412" s="26"/>
     </row>
-    <row r="413" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:45" ht="15.75" customHeight="1">
       <c r="A413" s="29"/>
       <c r="B413" s="26"/>
       <c r="C413" s="26"/>
@@ -24115,7 +24125,7 @@
       <c r="AR413" s="26"/>
       <c r="AS413" s="26"/>
     </row>
-    <row r="414" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:45" ht="15.75" customHeight="1">
       <c r="A414" s="29"/>
       <c r="B414" s="26"/>
       <c r="C414" s="26"/>
@@ -24162,7 +24172,7 @@
       <c r="AR414" s="26"/>
       <c r="AS414" s="26"/>
     </row>
-    <row r="415" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:45" ht="15.75" customHeight="1">
       <c r="A415" s="29"/>
       <c r="B415" s="26"/>
       <c r="C415" s="26"/>
@@ -24209,7 +24219,7 @@
       <c r="AR415" s="26"/>
       <c r="AS415" s="26"/>
     </row>
-    <row r="416" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:45" ht="15.75" customHeight="1">
       <c r="A416" s="29"/>
       <c r="B416" s="26"/>
       <c r="C416" s="26"/>
@@ -24256,7 +24266,7 @@
       <c r="AR416" s="26"/>
       <c r="AS416" s="26"/>
     </row>
-    <row r="417" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:45" ht="15.75" customHeight="1">
       <c r="A417" s="29"/>
       <c r="B417" s="26"/>
       <c r="C417" s="26"/>
@@ -24303,7 +24313,7 @@
       <c r="AR417" s="26"/>
       <c r="AS417" s="26"/>
     </row>
-    <row r="418" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:45" ht="15.75" customHeight="1">
       <c r="A418" s="29"/>
       <c r="B418" s="26"/>
       <c r="C418" s="26"/>
@@ -24350,7 +24360,7 @@
       <c r="AR418" s="26"/>
       <c r="AS418" s="26"/>
     </row>
-    <row r="419" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:45" ht="15.75" customHeight="1">
       <c r="A419" s="29"/>
       <c r="B419" s="26"/>
       <c r="C419" s="26"/>
@@ -24397,7 +24407,7 @@
       <c r="AR419" s="26"/>
       <c r="AS419" s="26"/>
     </row>
-    <row r="420" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:45" ht="15.75" customHeight="1">
       <c r="A420" s="29"/>
       <c r="B420" s="26"/>
       <c r="C420" s="26"/>
@@ -24444,7 +24454,7 @@
       <c r="AR420" s="26"/>
       <c r="AS420" s="26"/>
     </row>
-    <row r="421" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:45" ht="15.75" customHeight="1">
       <c r="A421" s="29"/>
       <c r="B421" s="26"/>
       <c r="C421" s="26"/>
@@ -24491,7 +24501,7 @@
       <c r="AR421" s="26"/>
       <c r="AS421" s="26"/>
     </row>
-    <row r="422" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:45" ht="15.75" customHeight="1">
       <c r="A422" s="29"/>
       <c r="B422" s="26"/>
       <c r="C422" s="26"/>
@@ -24538,7 +24548,7 @@
       <c r="AR422" s="26"/>
       <c r="AS422" s="26"/>
     </row>
-    <row r="423" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:45" ht="15.75" customHeight="1">
       <c r="A423" s="29"/>
       <c r="B423" s="26"/>
       <c r="C423" s="26"/>
@@ -24585,7 +24595,7 @@
       <c r="AR423" s="26"/>
       <c r="AS423" s="26"/>
     </row>
-    <row r="424" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:45" ht="15.75" customHeight="1">
       <c r="A424" s="29"/>
       <c r="B424" s="26"/>
       <c r="C424" s="26"/>
@@ -24632,7 +24642,7 @@
       <c r="AR424" s="26"/>
       <c r="AS424" s="26"/>
     </row>
-    <row r="425" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:45" ht="15.75" customHeight="1">
       <c r="A425" s="29"/>
       <c r="B425" s="26"/>
       <c r="C425" s="26"/>
@@ -24679,7 +24689,7 @@
       <c r="AR425" s="26"/>
       <c r="AS425" s="26"/>
     </row>
-    <row r="426" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:45" ht="15.75" customHeight="1">
       <c r="A426" s="29"/>
       <c r="B426" s="26"/>
       <c r="C426" s="26"/>
@@ -24726,7 +24736,7 @@
       <c r="AR426" s="26"/>
       <c r="AS426" s="26"/>
     </row>
-    <row r="427" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:45" ht="15.75" customHeight="1">
       <c r="A427" s="29"/>
       <c r="B427" s="26"/>
       <c r="C427" s="26"/>
@@ -24773,7 +24783,7 @@
       <c r="AR427" s="26"/>
       <c r="AS427" s="26"/>
     </row>
-    <row r="428" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:45" ht="15.75" customHeight="1">
       <c r="A428" s="29"/>
       <c r="B428" s="26"/>
       <c r="C428" s="26"/>
@@ -24820,7 +24830,7 @@
       <c r="AR428" s="26"/>
       <c r="AS428" s="26"/>
     </row>
-    <row r="429" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:45" ht="15.75" customHeight="1">
       <c r="A429" s="29"/>
       <c r="B429" s="26"/>
       <c r="C429" s="26"/>
@@ -24867,7 +24877,7 @@
       <c r="AR429" s="26"/>
       <c r="AS429" s="26"/>
     </row>
-    <row r="430" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:45" ht="15.75" customHeight="1">
       <c r="A430" s="29"/>
       <c r="B430" s="26"/>
       <c r="C430" s="26"/>
@@ -24914,7 +24924,7 @@
       <c r="AR430" s="26"/>
       <c r="AS430" s="26"/>
     </row>
-    <row r="431" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:45" ht="15.75" customHeight="1">
       <c r="A431" s="29"/>
       <c r="B431" s="26"/>
       <c r="C431" s="26"/>
@@ -24961,7 +24971,7 @@
       <c r="AR431" s="26"/>
       <c r="AS431" s="26"/>
     </row>
-    <row r="432" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:45" ht="15.75" customHeight="1">
       <c r="A432" s="29"/>
       <c r="B432" s="26"/>
       <c r="C432" s="26"/>
@@ -25008,7 +25018,7 @@
       <c r="AR432" s="26"/>
       <c r="AS432" s="26"/>
     </row>
-    <row r="433" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:45" ht="15.75" customHeight="1">
       <c r="A433" s="29"/>
       <c r="B433" s="26"/>
       <c r="C433" s="26"/>
@@ -25055,7 +25065,7 @@
       <c r="AR433" s="26"/>
       <c r="AS433" s="26"/>
     </row>
-    <row r="434" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:45" ht="15.75" customHeight="1">
       <c r="A434" s="29"/>
       <c r="B434" s="26"/>
       <c r="C434" s="26"/>
@@ -25102,7 +25112,7 @@
       <c r="AR434" s="26"/>
       <c r="AS434" s="26"/>
     </row>
-    <row r="435" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:45" ht="15.75" customHeight="1">
       <c r="A435" s="29"/>
       <c r="B435" s="26"/>
       <c r="C435" s="26"/>
@@ -25149,7 +25159,7 @@
       <c r="AR435" s="26"/>
       <c r="AS435" s="26"/>
     </row>
-    <row r="436" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:45" ht="15.75" customHeight="1">
       <c r="A436" s="29"/>
       <c r="B436" s="26"/>
       <c r="C436" s="26"/>
@@ -25196,7 +25206,7 @@
       <c r="AR436" s="26"/>
       <c r="AS436" s="26"/>
     </row>
-    <row r="437" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:45" ht="15.75" customHeight="1">
       <c r="A437" s="29"/>
       <c r="B437" s="26"/>
       <c r="C437" s="26"/>
@@ -25243,7 +25253,7 @@
       <c r="AR437" s="26"/>
       <c r="AS437" s="26"/>
     </row>
-    <row r="438" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:45" ht="15.75" customHeight="1">
       <c r="A438" s="29"/>
       <c r="B438" s="26"/>
       <c r="C438" s="26"/>
@@ -25290,7 +25300,7 @@
       <c r="AR438" s="26"/>
       <c r="AS438" s="26"/>
     </row>
-    <row r="439" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:45" ht="15.75" customHeight="1">
       <c r="A439" s="29"/>
       <c r="B439" s="26"/>
       <c r="C439" s="26"/>
@@ -25337,7 +25347,7 @@
       <c r="AR439" s="26"/>
       <c r="AS439" s="26"/>
     </row>
-    <row r="440" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:45" ht="15.75" customHeight="1">
       <c r="A440" s="29"/>
       <c r="B440" s="26"/>
       <c r="C440" s="26"/>
@@ -25384,7 +25394,7 @@
       <c r="AR440" s="26"/>
       <c r="AS440" s="26"/>
     </row>
-    <row r="441" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:45" ht="15.75" customHeight="1">
       <c r="A441" s="29"/>
       <c r="B441" s="26"/>
       <c r="C441" s="26"/>
@@ -25431,7 +25441,7 @@
       <c r="AR441" s="26"/>
       <c r="AS441" s="26"/>
     </row>
-    <row r="442" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:45" ht="15.75" customHeight="1">
       <c r="A442" s="29"/>
       <c r="B442" s="26"/>
       <c r="C442" s="26"/>
@@ -25478,7 +25488,7 @@
       <c r="AR442" s="26"/>
       <c r="AS442" s="26"/>
     </row>
-    <row r="443" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:45" ht="15.75" customHeight="1">
       <c r="A443" s="29"/>
       <c r="B443" s="26"/>
       <c r="C443" s="26"/>
@@ -25525,7 +25535,7 @@
       <c r="AR443" s="26"/>
       <c r="AS443" s="26"/>
     </row>
-    <row r="444" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:45" ht="15.75" customHeight="1">
       <c r="A444" s="29"/>
       <c r="B444" s="26"/>
       <c r="C444" s="26"/>
@@ -25572,7 +25582,7 @@
       <c r="AR444" s="26"/>
       <c r="AS444" s="26"/>
     </row>
-    <row r="445" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:45" ht="15.75" customHeight="1">
       <c r="A445" s="29"/>
       <c r="B445" s="26"/>
       <c r="C445" s="26"/>
@@ -25619,7 +25629,7 @@
       <c r="AR445" s="26"/>
       <c r="AS445" s="26"/>
     </row>
-    <row r="446" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:45" ht="15.75" customHeight="1">
       <c r="A446" s="29"/>
       <c r="B446" s="26"/>
       <c r="C446" s="26"/>
@@ -25666,7 +25676,7 @@
       <c r="AR446" s="26"/>
       <c r="AS446" s="26"/>
     </row>
-    <row r="447" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:45" ht="15.75" customHeight="1">
       <c r="A447" s="29"/>
       <c r="B447" s="26"/>
       <c r="C447" s="26"/>
@@ -25713,7 +25723,7 @@
       <c r="AR447" s="26"/>
       <c r="AS447" s="26"/>
     </row>
-    <row r="448" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:45" ht="15.75" customHeight="1">
       <c r="A448" s="29"/>
       <c r="B448" s="26"/>
       <c r="C448" s="26"/>
@@ -25760,7 +25770,7 @@
       <c r="AR448" s="26"/>
       <c r="AS448" s="26"/>
     </row>
-    <row r="449" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:45" ht="15.75" customHeight="1">
       <c r="A449" s="29"/>
       <c r="B449" s="26"/>
       <c r="C449" s="26"/>
@@ -25807,7 +25817,7 @@
       <c r="AR449" s="26"/>
       <c r="AS449" s="26"/>
     </row>
-    <row r="450" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:45" ht="15.75" customHeight="1">
       <c r="A450" s="29"/>
       <c r="B450" s="26"/>
       <c r="C450" s="26"/>
@@ -25854,7 +25864,7 @@
       <c r="AR450" s="26"/>
       <c r="AS450" s="26"/>
     </row>
-    <row r="451" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:45" ht="15.75" customHeight="1">
       <c r="A451" s="29"/>
       <c r="B451" s="26"/>
       <c r="C451" s="26"/>
@@ -25901,7 +25911,7 @@
       <c r="AR451" s="26"/>
       <c r="AS451" s="26"/>
     </row>
-    <row r="452" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:45" ht="15.75" customHeight="1">
       <c r="A452" s="29"/>
       <c r="B452" s="26"/>
       <c r="C452" s="26"/>
@@ -25948,7 +25958,7 @@
       <c r="AR452" s="26"/>
       <c r="AS452" s="26"/>
     </row>
-    <row r="453" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:45" ht="15.75" customHeight="1">
       <c r="A453" s="29"/>
       <c r="B453" s="26"/>
       <c r="C453" s="26"/>
@@ -25995,7 +26005,7 @@
       <c r="AR453" s="26"/>
       <c r="AS453" s="26"/>
     </row>
-    <row r="454" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:45" ht="15.75" customHeight="1">
       <c r="A454" s="29"/>
       <c r="B454" s="26"/>
       <c r="C454" s="26"/>
@@ -26042,7 +26052,7 @@
       <c r="AR454" s="26"/>
       <c r="AS454" s="26"/>
     </row>
-    <row r="455" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:45" ht="15.75" customHeight="1">
       <c r="A455" s="29"/>
       <c r="B455" s="26"/>
       <c r="C455" s="26"/>
@@ -26089,7 +26099,7 @@
       <c r="AR455" s="26"/>
       <c r="AS455" s="26"/>
     </row>
-    <row r="456" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:45" ht="15.75" customHeight="1">
       <c r="A456" s="29"/>
       <c r="B456" s="26"/>
       <c r="C456" s="26"/>
@@ -26136,7 +26146,7 @@
       <c r="AR456" s="26"/>
       <c r="AS456" s="26"/>
     </row>
-    <row r="457" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:45" ht="15.75" customHeight="1">
       <c r="A457" s="29"/>
       <c r="B457" s="26"/>
       <c r="C457" s="26"/>
@@ -26183,7 +26193,7 @@
       <c r="AR457" s="26"/>
       <c r="AS457" s="26"/>
     </row>
-    <row r="458" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:45" ht="15.75" customHeight="1">
       <c r="A458" s="29"/>
       <c r="B458" s="26"/>
       <c r="C458" s="26"/>
@@ -26230,7 +26240,7 @@
       <c r="AR458" s="26"/>
       <c r="AS458" s="26"/>
     </row>
-    <row r="459" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:45" ht="15.75" customHeight="1">
       <c r="A459" s="29"/>
       <c r="B459" s="26"/>
       <c r="C459" s="26"/>
@@ -26277,7 +26287,7 @@
       <c r="AR459" s="26"/>
       <c r="AS459" s="26"/>
     </row>
-    <row r="460" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:45" ht="15.75" customHeight="1">
       <c r="A460" s="29"/>
       <c r="B460" s="26"/>
       <c r="C460" s="26"/>
@@ -26324,7 +26334,7 @@
       <c r="AR460" s="26"/>
       <c r="AS460" s="26"/>
     </row>
-    <row r="461" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:45" ht="15.75" customHeight="1">
       <c r="A461" s="29"/>
       <c r="B461" s="26"/>
       <c r="C461" s="26"/>
@@ -26371,7 +26381,7 @@
       <c r="AR461" s="26"/>
       <c r="AS461" s="26"/>
     </row>
-    <row r="462" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:45" ht="15.75" customHeight="1">
       <c r="A462" s="29"/>
       <c r="B462" s="26"/>
       <c r="C462" s="26"/>
@@ -26418,7 +26428,7 @@
       <c r="AR462" s="26"/>
       <c r="AS462" s="26"/>
     </row>
-    <row r="463" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:45" ht="15.75" customHeight="1">
       <c r="A463" s="29"/>
       <c r="B463" s="26"/>
       <c r="C463" s="26"/>
@@ -26465,7 +26475,7 @@
       <c r="AR463" s="26"/>
       <c r="AS463" s="26"/>
     </row>
-    <row r="464" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:45" ht="15.75" customHeight="1">
       <c r="A464" s="29"/>
       <c r="B464" s="26"/>
       <c r="C464" s="26"/>
@@ -26512,7 +26522,7 @@
       <c r="AR464" s="26"/>
       <c r="AS464" s="26"/>
     </row>
-    <row r="465" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:45" ht="15.75" customHeight="1">
       <c r="A465" s="29"/>
       <c r="B465" s="26"/>
       <c r="C465" s="26"/>
@@ -26559,7 +26569,7 @@
       <c r="AR465" s="26"/>
       <c r="AS465" s="26"/>
     </row>
-    <row r="466" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:45" ht="15.75" customHeight="1">
       <c r="A466" s="29"/>
       <c r="B466" s="26"/>
       <c r="C466" s="26"/>
@@ -26606,7 +26616,7 @@
       <c r="AR466" s="26"/>
       <c r="AS466" s="26"/>
     </row>
-    <row r="467" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:45" ht="15.75" customHeight="1">
       <c r="A467" s="29"/>
       <c r="B467" s="26"/>
       <c r="C467" s="26"/>
@@ -26653,7 +26663,7 @@
       <c r="AR467" s="26"/>
       <c r="AS467" s="26"/>
     </row>
-    <row r="468" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:45" ht="15.75" customHeight="1">
       <c r="A468" s="29"/>
       <c r="B468" s="26"/>
       <c r="C468" s="26"/>
@@ -26700,7 +26710,7 @@
       <c r="AR468" s="26"/>
       <c r="AS468" s="26"/>
     </row>
-    <row r="469" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:45" ht="15.75" customHeight="1">
       <c r="A469" s="29"/>
       <c r="B469" s="26"/>
       <c r="C469" s="26"/>
@@ -26747,7 +26757,7 @@
       <c r="AR469" s="26"/>
       <c r="AS469" s="26"/>
     </row>
-    <row r="470" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:45" ht="15.75" customHeight="1">
       <c r="A470" s="29"/>
       <c r="B470" s="26"/>
       <c r="C470" s="26"/>
@@ -26794,7 +26804,7 @@
       <c r="AR470" s="26"/>
       <c r="AS470" s="26"/>
     </row>
-    <row r="471" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:45" ht="15.75" customHeight="1">
       <c r="A471" s="29"/>
       <c r="B471" s="26"/>
       <c r="C471" s="26"/>
@@ -26841,7 +26851,7 @@
       <c r="AR471" s="26"/>
       <c r="AS471" s="26"/>
     </row>
-    <row r="472" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:45" ht="15.75" customHeight="1">
       <c r="A472" s="29"/>
       <c r="B472" s="26"/>
       <c r="C472" s="26"/>
@@ -26888,7 +26898,7 @@
       <c r="AR472" s="26"/>
       <c r="AS472" s="26"/>
     </row>
-    <row r="473" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:45" ht="15.75" customHeight="1">
       <c r="A473" s="29"/>
       <c r="B473" s="26"/>
       <c r="C473" s="26"/>
@@ -26935,7 +26945,7 @@
       <c r="AR473" s="26"/>
       <c r="AS473" s="26"/>
     </row>
-    <row r="474" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:45" ht="15.75" customHeight="1">
       <c r="A474" s="29"/>
       <c r="B474" s="26"/>
       <c r="C474" s="26"/>
@@ -26982,7 +26992,7 @@
       <c r="AR474" s="26"/>
       <c r="AS474" s="26"/>
     </row>
-    <row r="475" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:45" ht="15.75" customHeight="1">
       <c r="A475" s="29"/>
       <c r="B475" s="26"/>
       <c r="C475" s="26"/>
@@ -27029,7 +27039,7 @@
       <c r="AR475" s="26"/>
       <c r="AS475" s="26"/>
     </row>
-    <row r="476" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:45" ht="15.75" customHeight="1">
       <c r="A476" s="29"/>
       <c r="B476" s="26"/>
       <c r="C476" s="26"/>
@@ -27076,7 +27086,7 @@
       <c r="AR476" s="26"/>
       <c r="AS476" s="26"/>
     </row>
-    <row r="477" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:45" ht="15.75" customHeight="1">
       <c r="A477" s="29"/>
       <c r="B477" s="26"/>
       <c r="C477" s="26"/>
@@ -27123,7 +27133,7 @@
       <c r="AR477" s="26"/>
       <c r="AS477" s="26"/>
     </row>
-    <row r="478" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:45" ht="15.75" customHeight="1">
       <c r="A478" s="29"/>
       <c r="B478" s="26"/>
       <c r="C478" s="26"/>
@@ -27170,7 +27180,7 @@
       <c r="AR478" s="26"/>
       <c r="AS478" s="26"/>
     </row>
-    <row r="479" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:45" ht="15.75" customHeight="1">
       <c r="A479" s="29"/>
       <c r="B479" s="26"/>
       <c r="C479" s="26"/>
@@ -27217,7 +27227,7 @@
       <c r="AR479" s="26"/>
       <c r="AS479" s="26"/>
     </row>
-    <row r="480" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:45" ht="15.75" customHeight="1">
       <c r="A480" s="29"/>
       <c r="B480" s="26"/>
       <c r="C480" s="26"/>
@@ -27264,7 +27274,7 @@
       <c r="AR480" s="26"/>
       <c r="AS480" s="26"/>
     </row>
-    <row r="481" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:45" ht="15.75" customHeight="1">
       <c r="A481" s="29"/>
       <c r="B481" s="26"/>
       <c r="C481" s="26"/>
@@ -27311,7 +27321,7 @@
       <c r="AR481" s="26"/>
       <c r="AS481" s="26"/>
     </row>
-    <row r="482" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:45" ht="15.75" customHeight="1">
       <c r="A482" s="29"/>
       <c r="B482" s="26"/>
       <c r="C482" s="26"/>
@@ -27358,7 +27368,7 @@
       <c r="AR482" s="26"/>
       <c r="AS482" s="26"/>
     </row>
-    <row r="483" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:45" ht="15.75" customHeight="1">
       <c r="A483" s="29"/>
       <c r="B483" s="26"/>
       <c r="C483" s="26"/>
@@ -27405,7 +27415,7 @@
       <c r="AR483" s="26"/>
       <c r="AS483" s="26"/>
     </row>
-    <row r="484" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:45" ht="15.75" customHeight="1">
       <c r="A484" s="29"/>
       <c r="B484" s="26"/>
       <c r="C484" s="26"/>
@@ -27452,7 +27462,7 @@
       <c r="AR484" s="26"/>
       <c r="AS484" s="26"/>
     </row>
-    <row r="485" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:45" ht="15.75" customHeight="1">
       <c r="A485" s="29"/>
       <c r="B485" s="26"/>
       <c r="C485" s="26"/>
@@ -27499,7 +27509,7 @@
       <c r="AR485" s="26"/>
       <c r="AS485" s="26"/>
     </row>
-    <row r="486" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:45" ht="15.75" customHeight="1">
       <c r="A486" s="29"/>
       <c r="B486" s="26"/>
       <c r="C486" s="26"/>
@@ -27546,7 +27556,7 @@
       <c r="AR486" s="26"/>
       <c r="AS486" s="26"/>
     </row>
-    <row r="487" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:45" ht="15.75" customHeight="1">
       <c r="A487" s="29"/>
       <c r="B487" s="26"/>
       <c r="C487" s="26"/>
@@ -27593,7 +27603,7 @@
       <c r="AR487" s="26"/>
       <c r="AS487" s="26"/>
     </row>
-    <row r="488" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:45" ht="15.75" customHeight="1">
       <c r="A488" s="29"/>
       <c r="B488" s="26"/>
       <c r="C488" s="26"/>
@@ -27640,7 +27650,7 @@
       <c r="AR488" s="26"/>
       <c r="AS488" s="26"/>
     </row>
-    <row r="489" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:45" ht="15.75" customHeight="1">
       <c r="A489" s="29"/>
       <c r="B489" s="26"/>
       <c r="C489" s="26"/>
@@ -27687,7 +27697,7 @@
       <c r="AR489" s="26"/>
       <c r="AS489" s="26"/>
     </row>
-    <row r="490" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:45" ht="15.75" customHeight="1">
       <c r="A490" s="29"/>
       <c r="B490" s="26"/>
       <c r="C490" s="26"/>
@@ -27734,7 +27744,7 @@
       <c r="AR490" s="26"/>
       <c r="AS490" s="26"/>
     </row>
-    <row r="491" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:45" ht="15.75" customHeight="1">
       <c r="A491" s="29"/>
       <c r="B491" s="26"/>
       <c r="C491" s="26"/>
@@ -27781,7 +27791,7 @@
       <c r="AR491" s="26"/>
       <c r="AS491" s="26"/>
     </row>
-    <row r="492" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:45" ht="15.75" customHeight="1">
       <c r="A492" s="29"/>
       <c r="B492" s="26"/>
       <c r="C492" s="26"/>
@@ -27828,7 +27838,7 @@
       <c r="AR492" s="26"/>
       <c r="AS492" s="26"/>
     </row>
-    <row r="493" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:45" ht="15.75" customHeight="1">
       <c r="A493" s="29"/>
       <c r="B493" s="26"/>
       <c r="C493" s="26"/>
@@ -27875,7 +27885,7 @@
       <c r="AR493" s="26"/>
       <c r="AS493" s="26"/>
     </row>
-    <row r="494" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:45" ht="15.75" customHeight="1">
       <c r="A494" s="29"/>
       <c r="B494" s="26"/>
       <c r="C494" s="26"/>
@@ -27922,7 +27932,7 @@
       <c r="AR494" s="26"/>
       <c r="AS494" s="26"/>
     </row>
-    <row r="495" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:45" ht="15.75" customHeight="1">
       <c r="A495" s="29"/>
       <c r="B495" s="26"/>
       <c r="C495" s="26"/>
@@ -27969,7 +27979,7 @@
       <c r="AR495" s="26"/>
       <c r="AS495" s="26"/>
     </row>
-    <row r="496" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:45" ht="15.75" customHeight="1">
       <c r="A496" s="29"/>
       <c r="B496" s="26"/>
       <c r="C496" s="26"/>
@@ -28016,7 +28026,7 @@
       <c r="AR496" s="26"/>
       <c r="AS496" s="26"/>
     </row>
-    <row r="497" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:45" ht="15.75" customHeight="1">
       <c r="A497" s="29"/>
       <c r="B497" s="26"/>
       <c r="C497" s="26"/>
@@ -28063,7 +28073,7 @@
       <c r="AR497" s="26"/>
       <c r="AS497" s="26"/>
     </row>
-    <row r="498" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:45" ht="15.75" customHeight="1">
       <c r="A498" s="29"/>
       <c r="B498" s="26"/>
       <c r="C498" s="26"/>
@@ -28110,7 +28120,7 @@
       <c r="AR498" s="26"/>
       <c r="AS498" s="26"/>
     </row>
-    <row r="499" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:45" ht="15.75" customHeight="1">
       <c r="A499" s="29"/>
       <c r="B499" s="26"/>
       <c r="C499" s="26"/>
@@ -28157,7 +28167,7 @@
       <c r="AR499" s="26"/>
       <c r="AS499" s="26"/>
     </row>
-    <row r="500" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:45" ht="15.75" customHeight="1">
       <c r="A500" s="29"/>
       <c r="B500" s="26"/>
       <c r="C500" s="26"/>
@@ -28204,7 +28214,7 @@
       <c r="AR500" s="26"/>
       <c r="AS500" s="26"/>
     </row>
-    <row r="501" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:45" ht="15.75" customHeight="1">
       <c r="A501" s="29"/>
       <c r="B501" s="26"/>
       <c r="C501" s="26"/>
@@ -28251,7 +28261,7 @@
       <c r="AR501" s="26"/>
       <c r="AS501" s="26"/>
     </row>
-    <row r="502" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:45" ht="15.75" customHeight="1">
       <c r="A502" s="29"/>
       <c r="B502" s="26"/>
       <c r="C502" s="26"/>
@@ -28298,7 +28308,7 @@
       <c r="AR502" s="26"/>
       <c r="AS502" s="26"/>
     </row>
-    <row r="503" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:45" ht="15.75" customHeight="1">
       <c r="A503" s="29"/>
       <c r="B503" s="26"/>
       <c r="C503" s="26"/>
@@ -28345,7 +28355,7 @@
       <c r="AR503" s="26"/>
       <c r="AS503" s="26"/>
     </row>
-    <row r="504" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:45" ht="15.75" customHeight="1">
       <c r="A504" s="29"/>
       <c r="B504" s="26"/>
       <c r="C504" s="26"/>
@@ -28392,7 +28402,7 @@
       <c r="AR504" s="26"/>
       <c r="AS504" s="26"/>
     </row>
-    <row r="505" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:45" ht="15.75" customHeight="1">
       <c r="A505" s="29"/>
       <c r="B505" s="26"/>
       <c r="C505" s="26"/>
@@ -28439,7 +28449,7 @@
       <c r="AR505" s="26"/>
       <c r="AS505" s="26"/>
     </row>
-    <row r="506" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:45" ht="15.75" customHeight="1">
       <c r="A506" s="29"/>
       <c r="B506" s="26"/>
       <c r="C506" s="26"/>
@@ -28486,7 +28496,7 @@
       <c r="AR506" s="26"/>
       <c r="AS506" s="26"/>
     </row>
-    <row r="507" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:45" ht="15.75" customHeight="1">
       <c r="A507" s="29"/>
       <c r="B507" s="26"/>
       <c r="C507" s="26"/>
@@ -28533,7 +28543,7 @@
       <c r="AR507" s="26"/>
       <c r="AS507" s="26"/>
     </row>
-    <row r="508" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:45" ht="15.75" customHeight="1">
       <c r="A508" s="29"/>
       <c r="B508" s="26"/>
       <c r="C508" s="26"/>
@@ -28580,7 +28590,7 @@
       <c r="AR508" s="26"/>
       <c r="AS508" s="26"/>
     </row>
-    <row r="509" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:45" ht="15.75" customHeight="1">
       <c r="A509" s="29"/>
       <c r="B509" s="26"/>
       <c r="C509" s="26"/>
@@ -28627,7 +28637,7 @@
       <c r="AR509" s="26"/>
       <c r="AS509" s="26"/>
     </row>
-    <row r="510" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:45" ht="15.75" customHeight="1">
       <c r="A510" s="29"/>
       <c r="B510" s="26"/>
       <c r="C510" s="26"/>
@@ -28674,7 +28684,7 @@
       <c r="AR510" s="26"/>
       <c r="AS510" s="26"/>
     </row>
-    <row r="511" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:45" ht="15.75" customHeight="1">
       <c r="A511" s="29"/>
       <c r="B511" s="26"/>
       <c r="C511" s="26"/>
@@ -28721,7 +28731,7 @@
       <c r="AR511" s="26"/>
       <c r="AS511" s="26"/>
     </row>
-    <row r="512" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:45" ht="15.75" customHeight="1">
       <c r="A512" s="29"/>
       <c r="B512" s="26"/>
       <c r="C512" s="26"/>
@@ -28768,7 +28778,7 @@
       <c r="AR512" s="26"/>
       <c r="AS512" s="26"/>
     </row>
-    <row r="513" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:45" ht="15.75" customHeight="1">
       <c r="A513" s="29"/>
       <c r="B513" s="26"/>
       <c r="C513" s="26"/>
@@ -28815,7 +28825,7 @@
       <c r="AR513" s="26"/>
       <c r="AS513" s="26"/>
     </row>
-    <row r="514" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:45" ht="15.75" customHeight="1">
       <c r="A514" s="29"/>
       <c r="B514" s="26"/>
       <c r="C514" s="26"/>
@@ -28862,7 +28872,7 @@
       <c r="AR514" s="26"/>
       <c r="AS514" s="26"/>
     </row>
-    <row r="515" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:45" ht="15.75" customHeight="1">
       <c r="A515" s="29"/>
       <c r="B515" s="26"/>
       <c r="C515" s="26"/>
@@ -28909,7 +28919,7 @@
       <c r="AR515" s="26"/>
       <c r="AS515" s="26"/>
     </row>
-    <row r="516" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:45" ht="15.75" customHeight="1">
       <c r="A516" s="29"/>
       <c r="B516" s="26"/>
       <c r="C516" s="26"/>
@@ -28956,7 +28966,7 @@
       <c r="AR516" s="26"/>
       <c r="AS516" s="26"/>
     </row>
-    <row r="517" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:45" ht="15.75" customHeight="1">
       <c r="A517" s="29"/>
       <c r="B517" s="26"/>
       <c r="C517" s="26"/>
@@ -29003,7 +29013,7 @@
       <c r="AR517" s="26"/>
       <c r="AS517" s="26"/>
     </row>
-    <row r="518" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:45" ht="15.75" customHeight="1">
       <c r="A518" s="29"/>
       <c r="B518" s="26"/>
       <c r="C518" s="26"/>
@@ -29050,7 +29060,7 @@
       <c r="AR518" s="26"/>
       <c r="AS518" s="26"/>
     </row>
-    <row r="519" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:45" ht="15.75" customHeight="1">
       <c r="A519" s="29"/>
       <c r="B519" s="26"/>
       <c r="C519" s="26"/>
@@ -29097,7 +29107,7 @@
       <c r="AR519" s="26"/>
       <c r="AS519" s="26"/>
     </row>
-    <row r="520" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:45" ht="15.75" customHeight="1">
       <c r="A520" s="29"/>
       <c r="B520" s="26"/>
       <c r="C520" s="26"/>
@@ -29144,7 +29154,7 @@
       <c r="AR520" s="26"/>
       <c r="AS520" s="26"/>
     </row>
-    <row r="521" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:45" ht="15.75" customHeight="1">
       <c r="A521" s="29"/>
       <c r="B521" s="26"/>
       <c r="C521" s="26"/>
@@ -29191,7 +29201,7 @@
       <c r="AR521" s="26"/>
       <c r="AS521" s="26"/>
     </row>
-    <row r="522" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:45" ht="15.75" customHeight="1">
       <c r="A522" s="29"/>
       <c r="B522" s="26"/>
       <c r="C522" s="26"/>
@@ -29238,7 +29248,7 @@
       <c r="AR522" s="26"/>
       <c r="AS522" s="26"/>
     </row>
-    <row r="523" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:45" ht="15.75" customHeight="1">
       <c r="A523" s="29"/>
       <c r="B523" s="26"/>
       <c r="C523" s="26"/>
@@ -29285,7 +29295,7 @@
       <c r="AR523" s="26"/>
       <c r="AS523" s="26"/>
     </row>
-    <row r="524" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:45" ht="15.75" customHeight="1">
       <c r="A524" s="29"/>
       <c r="B524" s="26"/>
       <c r="C524" s="26"/>
@@ -29332,7 +29342,7 @@
       <c r="AR524" s="26"/>
       <c r="AS524" s="26"/>
     </row>
-    <row r="525" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:45" ht="15.75" customHeight="1">
       <c r="A525" s="29"/>
       <c r="B525" s="26"/>
       <c r="C525" s="26"/>
@@ -29379,7 +29389,7 @@
       <c r="AR525" s="26"/>
       <c r="AS525" s="26"/>
     </row>
-    <row r="526" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:45" ht="15.75" customHeight="1">
       <c r="A526" s="29"/>
       <c r="B526" s="26"/>
       <c r="C526" s="26"/>
@@ -29426,7 +29436,7 @@
       <c r="AR526" s="26"/>
       <c r="AS526" s="26"/>
     </row>
-    <row r="527" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:45" ht="15.75" customHeight="1">
       <c r="A527" s="29"/>
       <c r="B527" s="26"/>
       <c r="C527" s="26"/>
@@ -29473,7 +29483,7 @@
       <c r="AR527" s="26"/>
       <c r="AS527" s="26"/>
     </row>
-    <row r="528" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:45" ht="15.75" customHeight="1">
       <c r="A528" s="29"/>
       <c r="B528" s="26"/>
       <c r="C528" s="26"/>
@@ -29520,7 +29530,7 @@
       <c r="AR528" s="26"/>
       <c r="AS528" s="26"/>
     </row>
-    <row r="529" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:45" ht="15.75" customHeight="1">
       <c r="A529" s="29"/>
       <c r="B529" s="26"/>
       <c r="C529" s="26"/>
@@ -29567,7 +29577,7 @@
       <c r="AR529" s="26"/>
       <c r="AS529" s="26"/>
     </row>
-    <row r="530" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:45" ht="15.75" customHeight="1">
       <c r="A530" s="29"/>
       <c r="B530" s="26"/>
       <c r="C530" s="26"/>
@@ -29614,7 +29624,7 @@
       <c r="AR530" s="26"/>
       <c r="AS530" s="26"/>
     </row>
-    <row r="531" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:45" ht="15.75" customHeight="1">
       <c r="A531" s="29"/>
       <c r="B531" s="26"/>
       <c r="C531" s="26"/>
@@ -29661,7 +29671,7 @@
       <c r="AR531" s="26"/>
       <c r="AS531" s="26"/>
     </row>
-    <row r="532" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:45" ht="15.75" customHeight="1">
       <c r="A532" s="29"/>
       <c r="B532" s="26"/>
       <c r="C532" s="26"/>
@@ -29708,7 +29718,7 @@
       <c r="AR532" s="26"/>
       <c r="AS532" s="26"/>
     </row>
-    <row r="533" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:45" ht="15.75" customHeight="1">
       <c r="A533" s="29"/>
       <c r="B533" s="26"/>
       <c r="C533" s="26"/>
@@ -29755,7 +29765,7 @@
       <c r="AR533" s="26"/>
       <c r="AS533" s="26"/>
     </row>
-    <row r="534" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:45" ht="15.75" customHeight="1">
       <c r="A534" s="29"/>
       <c r="B534" s="26"/>
       <c r="C534" s="26"/>
@@ -29802,7 +29812,7 @@
       <c r="AR534" s="26"/>
       <c r="AS534" s="26"/>
     </row>
-    <row r="535" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:45" ht="15.75" customHeight="1">
       <c r="A535" s="29"/>
       <c r="B535" s="26"/>
       <c r="C535" s="26"/>
@@ -29849,7 +29859,7 @@
       <c r="AR535" s="26"/>
       <c r="AS535" s="26"/>
     </row>
-    <row r="536" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:45" ht="15.75" customHeight="1">
       <c r="A536" s="29"/>
       <c r="B536" s="26"/>
       <c r="C536" s="26"/>
@@ -29896,7 +29906,7 @@
       <c r="AR536" s="26"/>
       <c r="AS536" s="26"/>
     </row>
-    <row r="537" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:45" ht="15.75" customHeight="1">
       <c r="A537" s="29"/>
       <c r="B537" s="26"/>
       <c r="C537" s="26"/>
@@ -29943,7 +29953,7 @@
       <c r="AR537" s="26"/>
       <c r="AS537" s="26"/>
     </row>
-    <row r="538" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:45" ht="15.75" customHeight="1">
       <c r="A538" s="29"/>
       <c r="B538" s="26"/>
       <c r="C538" s="26"/>
@@ -29990,7 +30000,7 @@
       <c r="AR538" s="26"/>
       <c r="AS538" s="26"/>
     </row>
-    <row r="539" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:45" ht="15.75" customHeight="1">
       <c r="A539" s="29"/>
       <c r="B539" s="26"/>
       <c r="C539" s="26"/>
@@ -30037,7 +30047,7 @@
       <c r="AR539" s="26"/>
       <c r="AS539" s="26"/>
     </row>
-    <row r="540" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:45" ht="15.75" customHeight="1">
       <c r="A540" s="29"/>
       <c r="B540" s="26"/>
       <c r="C540" s="26"/>
@@ -30084,7 +30094,7 @@
       <c r="AR540" s="26"/>
       <c r="AS540" s="26"/>
     </row>
-    <row r="541" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:45" ht="15.75" customHeight="1">
       <c r="A541" s="29"/>
       <c r="B541" s="26"/>
       <c r="C541" s="26"/>
@@ -30131,7 +30141,7 @@
       <c r="AR541" s="26"/>
       <c r="AS541" s="26"/>
     </row>
-    <row r="542" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:45" ht="15.75" customHeight="1">
       <c r="A542" s="29"/>
       <c r="B542" s="26"/>
       <c r="C542" s="26"/>
@@ -30178,7 +30188,7 @@
       <c r="AR542" s="26"/>
       <c r="AS542" s="26"/>
     </row>
-    <row r="543" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:45" ht="15.75" customHeight="1">
       <c r="A543" s="29"/>
       <c r="B543" s="26"/>
       <c r="C543" s="26"/>
@@ -30225,7 +30235,7 @@
       <c r="AR543" s="26"/>
       <c r="AS543" s="26"/>
     </row>
-    <row r="544" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:45" ht="15.75" customHeight="1">
       <c r="A544" s="29"/>
       <c r="B544" s="26"/>
       <c r="C544" s="26"/>
@@ -30272,7 +30282,7 @@
       <c r="AR544" s="26"/>
       <c r="AS544" s="26"/>
     </row>
-    <row r="545" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:45" ht="15.75" customHeight="1">
       <c r="A545" s="29"/>
       <c r="B545" s="26"/>
       <c r="C545" s="26"/>
@@ -30319,7 +30329,7 @@
       <c r="AR545" s="26"/>
       <c r="AS545" s="26"/>
     </row>
-    <row r="546" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:45" ht="15.75" customHeight="1">
       <c r="A546" s="29"/>
       <c r="B546" s="26"/>
       <c r="C546" s="26"/>
@@ -30366,7 +30376,7 @@
       <c r="AR546" s="26"/>
       <c r="AS546" s="26"/>
     </row>
-    <row r="547" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:45" ht="15.75" customHeight="1">
       <c r="A547" s="29"/>
       <c r="B547" s="26"/>
       <c r="C547" s="26"/>
@@ -30413,7 +30423,7 @@
       <c r="AR547" s="26"/>
       <c r="AS547" s="26"/>
     </row>
-    <row r="548" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:45" ht="15.75" customHeight="1">
       <c r="A548" s="29"/>
       <c r="B548" s="26"/>
       <c r="C548" s="26"/>
@@ -30460,7 +30470,7 @@
       <c r="AR548" s="26"/>
       <c r="AS548" s="26"/>
     </row>
-    <row r="549" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:45" ht="15.75" customHeight="1">
       <c r="A549" s="29"/>
       <c r="B549" s="26"/>
       <c r="C549" s="26"/>
@@ -30507,7 +30517,7 @@
       <c r="AR549" s="26"/>
       <c r="AS549" s="26"/>
     </row>
-    <row r="550" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:45" ht="15.75" customHeight="1">
       <c r="A550" s="29"/>
       <c r="B550" s="26"/>
       <c r="C550" s="26"/>
@@ -30554,7 +30564,7 @@
       <c r="AR550" s="26"/>
       <c r="AS550" s="26"/>
     </row>
-    <row r="551" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:45" ht="15.75" customHeight="1">
       <c r="A551" s="29"/>
       <c r="B551" s="26"/>
       <c r="C551" s="26"/>
@@ -30601,7 +30611,7 @@
       <c r="AR551" s="26"/>
       <c r="AS551" s="26"/>
     </row>
-    <row r="552" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:45" ht="15.75" customHeight="1">
       <c r="A552" s="29"/>
       <c r="B552" s="26"/>
       <c r="C552" s="26"/>
@@ -30648,7 +30658,7 @@
       <c r="AR552" s="26"/>
       <c r="AS552" s="26"/>
     </row>
-    <row r="553" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:45" ht="15.75" customHeight="1">
       <c r="A553" s="29"/>
       <c r="B553" s="26"/>
       <c r="C553" s="26"/>
@@ -30695,7 +30705,7 @@
       <c r="AR553" s="26"/>
       <c r="AS553" s="26"/>
     </row>
-    <row r="554" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:45" ht="15.75" customHeight="1">
       <c r="A554" s="29"/>
       <c r="B554" s="26"/>
       <c r="C554" s="26"/>
@@ -30742,7 +30752,7 @@
       <c r="AR554" s="26"/>
       <c r="AS554" s="26"/>
     </row>
-    <row r="555" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:45" ht="15.75" customHeight="1">
       <c r="A555" s="29"/>
       <c r="B555" s="26"/>
       <c r="C555" s="26"/>
@@ -30789,7 +30799,7 @@
       <c r="AR555" s="26"/>
       <c r="AS555" s="26"/>
     </row>
-    <row r="556" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:45" ht="15.75" customHeight="1">
       <c r="A556" s="29"/>
       <c r="B556" s="26"/>
       <c r="C556" s="26"/>
@@ -30836,7 +30846,7 @@
       <c r="AR556" s="26"/>
       <c r="AS556" s="26"/>
     </row>
-    <row r="557" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:45" ht="15.75" customHeight="1">
       <c r="A557" s="29"/>
       <c r="B557" s="26"/>
       <c r="C557" s="26"/>
@@ -30883,7 +30893,7 @@
       <c r="AR557" s="26"/>
       <c r="AS557" s="26"/>
     </row>
-    <row r="558" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:45" ht="15.75" customHeight="1">
       <c r="A558" s="29"/>
       <c r="B558" s="26"/>
       <c r="C558" s="26"/>
@@ -30930,7 +30940,7 @@
       <c r="AR558" s="26"/>
       <c r="AS558" s="26"/>
     </row>
-    <row r="559" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:45" ht="15.75" customHeight="1">
       <c r="A559" s="29"/>
       <c r="B559" s="26"/>
       <c r="C559" s="26"/>
@@ -30977,7 +30987,7 @@
       <c r="AR559" s="26"/>
       <c r="AS559" s="26"/>
     </row>
-    <row r="560" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:45" ht="15.75" customHeight="1">
       <c r="A560" s="29"/>
       <c r="B560" s="26"/>
       <c r="C560" s="26"/>
@@ -31024,7 +31034,7 @@
       <c r="AR560" s="26"/>
       <c r="AS560" s="26"/>
     </row>
-    <row r="561" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:45" ht="15.75" customHeight="1">
       <c r="A561" s="29"/>
       <c r="B561" s="26"/>
       <c r="C561" s="26"/>
@@ -31071,7 +31081,7 @@
       <c r="AR561" s="26"/>
       <c r="AS561" s="26"/>
     </row>
-    <row r="562" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:45" ht="15.75" customHeight="1">
       <c r="A562" s="29"/>
       <c r="B562" s="26"/>
       <c r="C562" s="26"/>
@@ -31118,7 +31128,7 @@
       <c r="AR562" s="26"/>
       <c r="AS562" s="26"/>
     </row>
-    <row r="563" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:45" ht="15.75" customHeight="1">
       <c r="A563" s="29"/>
       <c r="B563" s="26"/>
       <c r="C563" s="26"/>
@@ -31165,7 +31175,7 @@
       <c r="AR563" s="26"/>
       <c r="AS563" s="26"/>
     </row>
-    <row r="564" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:45" ht="15.75" customHeight="1">
       <c r="A564" s="29"/>
       <c r="B564" s="26"/>
       <c r="C564" s="26"/>
@@ -31212,7 +31222,7 @@
       <c r="AR564" s="26"/>
       <c r="AS564" s="26"/>
     </row>
-    <row r="565" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:45" ht="15.75" customHeight="1">
       <c r="A565" s="29"/>
       <c r="B565" s="26"/>
       <c r="C565" s="26"/>
@@ -31259,7 +31269,7 @@
       <c r="AR565" s="26"/>
       <c r="AS565" s="26"/>
     </row>
-    <row r="566" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:45" ht="15.75" customHeight="1">
       <c r="A566" s="29"/>
       <c r="B566" s="26"/>
       <c r="C566" s="26"/>
@@ -31306,7 +31316,7 @@
       <c r="AR566" s="26"/>
       <c r="AS566" s="26"/>
     </row>
-    <row r="567" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:45" ht="15.75" customHeight="1">
       <c r="A567" s="29"/>
       <c r="B567" s="26"/>
       <c r="C567" s="26"/>
@@ -31353,7 +31363,7 @@
       <c r="AR567" s="26"/>
       <c r="AS567" s="26"/>
     </row>
-    <row r="568" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:45" ht="15.75" customHeight="1">
       <c r="A568" s="29"/>
       <c r="B568" s="26"/>
       <c r="C568" s="26"/>
@@ -31400,7 +31410,7 @@
       <c r="AR568" s="26"/>
       <c r="AS568" s="26"/>
     </row>
-    <row r="569" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:45" ht="15.75" customHeight="1">
       <c r="A569" s="29"/>
       <c r="B569" s="26"/>
       <c r="C569" s="26"/>
@@ -31447,7 +31457,7 @@
       <c r="AR569" s="26"/>
       <c r="AS569" s="26"/>
     </row>
-    <row r="570" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:45" ht="15.75" customHeight="1">
       <c r="A570" s="29"/>
       <c r="B570" s="26"/>
       <c r="C570" s="26"/>
@@ -31494,7 +31504,7 @@
       <c r="AR570" s="26"/>
       <c r="AS570" s="26"/>
     </row>
-    <row r="571" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:45" ht="15.75" customHeight="1">
       <c r="A571" s="29"/>
       <c r="B571" s="26"/>
       <c r="C571" s="26"/>
@@ -31541,7 +31551,7 @@
       <c r="AR571" s="26"/>
       <c r="AS571" s="26"/>
     </row>
-    <row r="572" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:45" ht="15.75" customHeight="1">
       <c r="A572" s="29"/>
       <c r="B572" s="26"/>
       <c r="C572" s="26"/>
@@ -31588,7 +31598,7 @@
       <c r="AR572" s="26"/>
       <c r="AS572" s="26"/>
     </row>
-    <row r="573" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:45" ht="15.75" customHeight="1">
       <c r="A573" s="29"/>
       <c r="B573" s="26"/>
       <c r="C573" s="26"/>
@@ -31635,7 +31645,7 @@
       <c r="AR573" s="26"/>
       <c r="AS573" s="26"/>
     </row>
-    <row r="574" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:45" ht="15.75" customHeight="1">
       <c r="A574" s="29"/>
       <c r="B574" s="26"/>
       <c r="C574" s="26"/>
@@ -31682,7 +31692,7 @@
       <c r="AR574" s="26"/>
       <c r="AS574" s="26"/>
     </row>
-    <row r="575" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:45" ht="15.75" customHeight="1">
       <c r="A575" s="29"/>
       <c r="B575" s="26"/>
       <c r="C575" s="26"/>
@@ -31729,7 +31739,7 @@
       <c r="AR575" s="26"/>
       <c r="AS575" s="26"/>
     </row>
-    <row r="576" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:45" ht="15.75" customHeight="1">
       <c r="A576" s="29"/>
       <c r="B576" s="26"/>
       <c r="C576" s="26"/>
@@ -31776,7 +31786,7 @@
       <c r="AR576" s="26"/>
       <c r="AS576" s="26"/>
     </row>
-    <row r="577" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:45" ht="15.75" customHeight="1">
       <c r="A577" s="29"/>
       <c r="B577" s="26"/>
       <c r="C577" s="26"/>
@@ -31823,7 +31833,7 @@
       <c r="AR577" s="26"/>
       <c r="AS577" s="26"/>
     </row>
-    <row r="578" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:45" ht="15.75" customHeight="1">
       <c r="A578" s="29"/>
       <c r="B578" s="26"/>
       <c r="C578" s="26"/>
@@ -31870,7 +31880,7 @@
       <c r="AR578" s="26"/>
       <c r="AS578" s="26"/>
     </row>
-    <row r="579" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:45" ht="15.75" customHeight="1">
       <c r="A579" s="29"/>
       <c r="B579" s="26"/>
       <c r="C579" s="26"/>
@@ -31917,7 +31927,7 @@
       <c r="AR579" s="26"/>
       <c r="AS579" s="26"/>
     </row>
-    <row r="580" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:45" ht="15.75" customHeight="1">
       <c r="A580" s="29"/>
       <c r="B580" s="26"/>
       <c r="C580" s="26"/>
@@ -31964,7 +31974,7 @@
       <c r="AR580" s="26"/>
       <c r="AS580" s="26"/>
     </row>
-    <row r="581" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:45" ht="15.75" customHeight="1">
       <c r="A581" s="29"/>
       <c r="B581" s="26"/>
       <c r="C581" s="26"/>
@@ -32011,7 +32021,7 @@
       <c r="AR581" s="26"/>
       <c r="AS581" s="26"/>
     </row>
-    <row r="582" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:45" ht="15.75" customHeight="1">
       <c r="A582" s="29"/>
       <c r="B582" s="26"/>
       <c r="C582" s="26"/>
@@ -32058,7 +32068,7 @@
       <c r="AR582" s="26"/>
       <c r="AS582" s="26"/>
     </row>
-    <row r="583" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:45" ht="15.75" customHeight="1">
       <c r="A583" s="29"/>
       <c r="B583" s="26"/>
       <c r="C583" s="26"/>
@@ -32105,7 +32115,7 @@
       <c r="AR583" s="26"/>
       <c r="AS583" s="26"/>
     </row>
-    <row r="584" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:45" ht="15.75" customHeight="1">
       <c r="A584" s="29"/>
       <c r="B584" s="26"/>
       <c r="C584" s="26"/>
@@ -32152,7 +32162,7 @@
       <c r="AR584" s="26"/>
       <c r="AS584" s="26"/>
     </row>
-    <row r="585" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:45" ht="15.75" customHeight="1">
       <c r="A585" s="29"/>
       <c r="B585" s="26"/>
       <c r="C585" s="26"/>
@@ -32199,7 +32209,7 @@
       <c r="AR585" s="26"/>
       <c r="AS585" s="26"/>
     </row>
-    <row r="586" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:45" ht="15.75" customHeight="1">
       <c r="A586" s="29"/>
       <c r="B586" s="26"/>
       <c r="C586" s="26"/>
@@ -32246,7 +32256,7 @@
       <c r="AR586" s="26"/>
       <c r="AS586" s="26"/>
     </row>
-    <row r="587" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:45" ht="15.75" customHeight="1">
       <c r="A587" s="29"/>
       <c r="B587" s="26"/>
       <c r="C587" s="26"/>
@@ -32293,7 +32303,7 @@
       <c r="AR587" s="26"/>
       <c r="AS587" s="26"/>
     </row>
-    <row r="588" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:45" ht="15.75" customHeight="1">
       <c r="A588" s="29"/>
       <c r="B588" s="26"/>
       <c r="C588" s="26"/>
@@ -32340,7 +32350,7 @@
       <c r="AR588" s="26"/>
       <c r="AS588" s="26"/>
     </row>
-    <row r="589" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:45" ht="15.75" customHeight="1">
       <c r="A589" s="29"/>
       <c r="B589" s="26"/>
       <c r="C589" s="26"/>
@@ -32387,7 +32397,7 @@
       <c r="AR589" s="26"/>
       <c r="AS589" s="26"/>
     </row>
-    <row r="590" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:45" ht="15.75" customHeight="1">
       <c r="A590" s="29"/>
       <c r="B590" s="26"/>
       <c r="C590" s="26"/>
@@ -32434,7 +32444,7 @@
       <c r="AR590" s="26"/>
       <c r="AS590" s="26"/>
     </row>
-    <row r="591" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:45" ht="15.75" customHeight="1">
       <c r="A591" s="29"/>
       <c r="B591" s="26"/>
       <c r="C591" s="26"/>
@@ -32481,7 +32491,7 @@
       <c r="AR591" s="26"/>
       <c r="AS591" s="26"/>
     </row>
-    <row r="592" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:45" ht="15.75" customHeight="1">
       <c r="A592" s="29"/>
       <c r="B592" s="26"/>
       <c r="C592" s="26"/>
@@ -32528,7 +32538,7 @@
       <c r="AR592" s="26"/>
       <c r="AS592" s="26"/>
     </row>
-    <row r="593" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:45" ht="15.75" customHeight="1">
       <c r="A593" s="29"/>
       <c r="B593" s="26"/>
       <c r="C593" s="26"/>
@@ -32575,7 +32585,7 @@
       <c r="AR593" s="26"/>
       <c r="AS593" s="26"/>
     </row>
-    <row r="594" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:45" ht="15.75" customHeight="1">
       <c r="A594" s="29"/>
       <c r="B594" s="26"/>
       <c r="C594" s="26"/>
@@ -32622,7 +32632,7 @@
       <c r="AR594" s="26"/>
       <c r="AS594" s="26"/>
     </row>
-    <row r="595" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:45" ht="15.75" customHeight="1">
       <c r="A595" s="29"/>
       <c r="B595" s="26"/>
       <c r="C595" s="26"/>
@@ -32669,7 +32679,7 @@
       <c r="AR595" s="26"/>
       <c r="AS595" s="26"/>
     </row>
-    <row r="596" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:45" ht="15.75" customHeight="1">
       <c r="A596" s="29"/>
       <c r="B596" s="26"/>
       <c r="C596" s="26"/>
@@ -32716,7 +32726,7 @@
       <c r="AR596" s="26"/>
       <c r="AS596" s="26"/>
     </row>
-    <row r="597" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:45" ht="15.75" customHeight="1">
       <c r="A597" s="29"/>
       <c r="B597" s="26"/>
       <c r="C597" s="26"/>
@@ -32763,7 +32773,7 @@
       <c r="AR597" s="26"/>
       <c r="AS597" s="26"/>
     </row>
-    <row r="598" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:45" ht="15.75" customHeight="1">
       <c r="A598" s="29"/>
       <c r="B598" s="26"/>
       <c r="C598" s="26"/>
@@ -32810,7 +32820,7 @@
       <c r="AR598" s="26"/>
       <c r="AS598" s="26"/>
     </row>
-    <row r="599" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:45" ht="15.75" customHeight="1">
       <c r="A599" s="29"/>
       <c r="B599" s="26"/>
       <c r="C599" s="26"/>
@@ -32857,7 +32867,7 @@
       <c r="AR599" s="26"/>
       <c r="AS599" s="26"/>
     </row>
-    <row r="600" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:45" ht="15.75" customHeight="1">
       <c r="A600" s="29"/>
       <c r="B600" s="26"/>
       <c r="C600" s="26"/>
@@ -32904,7 +32914,7 @@
       <c r="AR600" s="26"/>
       <c r="AS600" s="26"/>
     </row>
-    <row r="601" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:45" ht="15.75" customHeight="1">
       <c r="A601" s="29"/>
       <c r="B601" s="26"/>
       <c r="C601" s="26"/>
@@ -32951,7 +32961,7 @@
       <c r="AR601" s="26"/>
       <c r="AS601" s="26"/>
     </row>
-    <row r="602" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:45" ht="15.75" customHeight="1">
       <c r="A602" s="29"/>
       <c r="B602" s="26"/>
       <c r="C602" s="26"/>
@@ -32998,7 +33008,7 @@
       <c r="AR602" s="26"/>
       <c r="AS602" s="26"/>
     </row>
-    <row r="603" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:45" ht="15.75" customHeight="1">
       <c r="A603" s="29"/>
       <c r="B603" s="26"/>
       <c r="C603" s="26"/>
@@ -33045,7 +33055,7 @@
       <c r="AR603" s="26"/>
       <c r="AS603" s="26"/>
     </row>
-    <row r="604" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:45" ht="15.75" customHeight="1">
       <c r="A604" s="29"/>
       <c r="B604" s="26"/>
       <c r="C604" s="26"/>
@@ -33092,7 +33102,7 @@
       <c r="AR604" s="26"/>
       <c r="AS604" s="26"/>
     </row>
-    <row r="605" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:45" ht="15.75" customHeight="1">
       <c r="A605" s="29"/>
       <c r="B605" s="26"/>
       <c r="C605" s="26"/>
@@ -33139,7 +33149,7 @@
       <c r="AR605" s="26"/>
       <c r="AS605" s="26"/>
     </row>
-    <row r="606" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:45" ht="15.75" customHeight="1">
       <c r="A606" s="29"/>
       <c r="B606" s="26"/>
       <c r="C606" s="26"/>
@@ -33186,7 +33196,7 @@
       <c r="AR606" s="26"/>
       <c r="AS606" s="26"/>
     </row>
-    <row r="607" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:45" ht="15.75" customHeight="1">
       <c r="A607" s="29"/>
       <c r="B607" s="26"/>
       <c r="C607" s="26"/>
@@ -33233,7 +33243,7 @@
       <c r="AR607" s="26"/>
       <c r="AS607" s="26"/>
     </row>
-    <row r="608" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:45" ht="15.75" customHeight="1">
       <c r="A608" s="29"/>
       <c r="B608" s="26"/>
       <c r="C608" s="26"/>
@@ -33280,7 +33290,7 @@
       <c r="AR608" s="26"/>
       <c r="AS608" s="26"/>
     </row>
-    <row r="609" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:45" ht="15.75" customHeight="1">
       <c r="A609" s="29"/>
       <c r="B609" s="26"/>
       <c r="C609" s="26"/>
@@ -33327,7 +33337,7 @@
       <c r="AR609" s="26"/>
       <c r="AS609" s="26"/>
     </row>
-    <row r="610" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:45" ht="15.75" customHeight="1">
       <c r="A610" s="29"/>
       <c r="B610" s="26"/>
       <c r="C610" s="26"/>
@@ -33374,7 +33384,7 @@
       <c r="AR610" s="26"/>
       <c r="AS610" s="26"/>
     </row>
-    <row r="611" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:45" ht="15.75" customHeight="1">
       <c r="A611" s="29"/>
       <c r="B611" s="26"/>
       <c r="C611" s="26"/>
@@ -33421,7 +33431,7 @@
       <c r="AR611" s="26"/>
       <c r="AS611" s="26"/>
     </row>
-    <row r="612" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:45" ht="15.75" customHeight="1">
       <c r="A612" s="29"/>
       <c r="B612" s="26"/>
       <c r="C612" s="26"/>
@@ -33468,7 +33478,7 @@
       <c r="AR612" s="26"/>
       <c r="AS612" s="26"/>
     </row>
-    <row r="613" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:45" ht="15.75" customHeight="1">
       <c r="A613" s="29"/>
       <c r="B613" s="26"/>
       <c r="C613" s="26"/>
@@ -33515,7 +33525,7 @@
       <c r="AR613" s="26"/>
       <c r="AS613" s="26"/>
     </row>
-    <row r="614" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:45" ht="15.75" customHeight="1">
       <c r="A614" s="29"/>
       <c r="B614" s="26"/>
       <c r="C614" s="26"/>
@@ -33562,7 +33572,7 @@
       <c r="AR614" s="26"/>
       <c r="AS614" s="26"/>
     </row>
-    <row r="615" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:45" ht="15.75" customHeight="1">
       <c r="A615" s="29"/>
       <c r="B615" s="26"/>
       <c r="C615" s="26"/>
@@ -33609,7 +33619,7 @@
       <c r="AR615" s="26"/>
       <c r="AS615" s="26"/>
     </row>
-    <row r="616" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:45" ht="15.75" customHeight="1">
       <c r="A616" s="29"/>
       <c r="B616" s="26"/>
       <c r="C616" s="26"/>
@@ -33656,7 +33666,7 @@
       <c r="AR616" s="26"/>
       <c r="AS616" s="26"/>
     </row>
-    <row r="617" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:45" ht="15.75" customHeight="1">
       <c r="A617" s="29"/>
       <c r="B617" s="26"/>
       <c r="C617" s="26"/>
@@ -33703,7 +33713,7 @@
       <c r="AR617" s="26"/>
       <c r="AS617" s="26"/>
     </row>
-    <row r="618" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:45" ht="15.75" customHeight="1">
       <c r="A618" s="29"/>
       <c r="B618" s="26"/>
       <c r="C618" s="26"/>
@@ -33750,7 +33760,7 @@
       <c r="AR618" s="26"/>
       <c r="AS618" s="26"/>
     </row>
-    <row r="619" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:45" ht="15.75" customHeight="1">
       <c r="A619" s="29"/>
       <c r="B619" s="26"/>
       <c r="C619" s="26"/>
@@ -33797,7 +33807,7 @@
       <c r="AR619" s="26"/>
       <c r="AS619" s="26"/>
     </row>
-    <row r="620" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:45" ht="15.75" customHeight="1">
       <c r="A620" s="29"/>
       <c r="B620" s="26"/>
       <c r="C620" s="26"/>
@@ -33844,7 +33854,7 @@
       <c r="AR620" s="26"/>
       <c r="AS620" s="26"/>
     </row>
-    <row r="621" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:45" ht="15.75" customHeight="1">
       <c r="A621" s="29"/>
       <c r="B621" s="26"/>
       <c r="C621" s="26"/>
@@ -33891,7 +33901,7 @@
       <c r="AR621" s="26"/>
       <c r="AS621" s="26"/>
     </row>
-    <row r="622" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:45" ht="15.75" customHeight="1">
       <c r="A622" s="29"/>
       <c r="B622" s="26"/>
       <c r="C622" s="26"/>
@@ -33938,7 +33948,7 @@
       <c r="AR622" s="26"/>
       <c r="AS622" s="26"/>
     </row>
-    <row r="623" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:45" ht="15.75" customHeight="1">
       <c r="A623" s="29"/>
       <c r="B623" s="26"/>
       <c r="C623" s="26"/>
@@ -33985,7 +33995,7 @@
       <c r="AR623" s="26"/>
       <c r="AS623" s="26"/>
     </row>
-    <row r="624" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:45" ht="15.75" customHeight="1">
       <c r="A624" s="29"/>
       <c r="B624" s="26"/>
       <c r="C624" s="26"/>
@@ -34032,7 +34042,7 @@
       <c r="AR624" s="26"/>
       <c r="AS624" s="26"/>
     </row>
-    <row r="625" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:45" ht="15.75" customHeight="1">
       <c r="A625" s="29"/>
       <c r="B625" s="26"/>
       <c r="C625" s="26"/>
@@ -34079,7 +34089,7 @@
       <c r="AR625" s="26"/>
       <c r="AS625" s="26"/>
     </row>
-    <row r="626" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:45" ht="15.75" customHeight="1">
       <c r="A626" s="29"/>
       <c r="B626" s="26"/>
       <c r="C626" s="26"/>
@@ -34126,7 +34136,7 @@
       <c r="AR626" s="26"/>
       <c r="AS626" s="26"/>
     </row>
-    <row r="627" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:45" ht="15.75" customHeight="1">
       <c r="A627" s="29"/>
       <c r="B627" s="26"/>
       <c r="C627" s="26"/>
@@ -34173,7 +34183,7 @@
       <c r="AR627" s="26"/>
       <c r="AS627" s="26"/>
     </row>
-    <row r="628" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:45" ht="15.75" customHeight="1">
       <c r="A628" s="29"/>
       <c r="B628" s="26"/>
       <c r="C628" s="26"/>
@@ -34220,7 +34230,7 @@
       <c r="AR628" s="26"/>
       <c r="AS628" s="26"/>
     </row>
-    <row r="629" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:45" ht="15.75" customHeight="1">
       <c r="A629" s="29"/>
       <c r="B629" s="26"/>
       <c r="C629" s="26"/>
@@ -34267,7 +34277,7 @@
       <c r="AR629" s="26"/>
       <c r="AS629" s="26"/>
     </row>
-    <row r="630" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:45" ht="15.75" customHeight="1">
       <c r="A630" s="29"/>
       <c r="B630" s="26"/>
       <c r="C630" s="26"/>
@@ -34314,7 +34324,7 @@
       <c r="AR630" s="26"/>
       <c r="AS630" s="26"/>
     </row>
-    <row r="631" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:45" ht="15.75" customHeight="1">
       <c r="A631" s="29"/>
       <c r="B631" s="26"/>
       <c r="C631" s="26"/>
@@ -34361,7 +34371,7 @@
       <c r="AR631" s="26"/>
       <c r="AS631" s="26"/>
     </row>
-    <row r="632" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:45" ht="15.75" customHeight="1">
       <c r="A632" s="29"/>
       <c r="B632" s="26"/>
       <c r="C632" s="26"/>
@@ -34408,7 +34418,7 @@
       <c r="AR632" s="26"/>
       <c r="AS632" s="26"/>
     </row>
-    <row r="633" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:45" ht="15.75" customHeight="1">
       <c r="A633" s="29"/>
       <c r="B633" s="26"/>
       <c r="C633" s="26"/>
@@ -34455,7 +34465,7 @@
       <c r="AR633" s="26"/>
       <c r="AS633" s="26"/>
     </row>
-    <row r="634" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:45" ht="15.75" customHeight="1">
       <c r="A634" s="29"/>
       <c r="B634" s="26"/>
       <c r="C634" s="26"/>
@@ -34502,7 +34512,7 @@
       <c r="AR634" s="26"/>
       <c r="AS634" s="26"/>
     </row>
-    <row r="635" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:45" ht="15.75" customHeight="1">
       <c r="A635" s="29"/>
       <c r="B635" s="26"/>
       <c r="C635" s="26"/>
@@ -34549,7 +34559,7 @@
       <c r="AR635" s="26"/>
       <c r="AS635" s="26"/>
     </row>
-    <row r="636" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:45" ht="15.75" customHeight="1">
       <c r="A636" s="29"/>
       <c r="B636" s="26"/>
       <c r="C636" s="26"/>
@@ -34596,7 +34606,7 @@
       <c r="AR636" s="26"/>
       <c r="AS636" s="26"/>
     </row>
-    <row r="637" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:45" ht="15.75" customHeight="1">
       <c r="A637" s="29"/>
       <c r="B637" s="26"/>
       <c r="C637" s="26"/>
@@ -34643,7 +34653,7 @@
       <c r="AR637" s="26"/>
       <c r="AS637" s="26"/>
     </row>
-    <row r="638" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:45" ht="15.75" customHeight="1">
       <c r="A638" s="29"/>
       <c r="B638" s="26"/>
       <c r="C638" s="26"/>
@@ -34690,7 +34700,7 @@
       <c r="AR638" s="26"/>
       <c r="AS638" s="26"/>
     </row>
-    <row r="639" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:45" ht="15.75" customHeight="1">
       <c r="A639" s="29"/>
       <c r="B639" s="26"/>
       <c r="C639" s="26"/>
@@ -34737,7 +34747,7 @@
       <c r="AR639" s="26"/>
       <c r="AS639" s="26"/>
     </row>
-    <row r="640" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:45" ht="15.75" customHeight="1">
       <c r="A640" s="29"/>
       <c r="B640" s="26"/>
       <c r="C640" s="26"/>
@@ -34784,7 +34794,7 @@
       <c r="AR640" s="26"/>
       <c r="AS640" s="26"/>
     </row>
-    <row r="641" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:45" ht="15.75" customHeight="1">
       <c r="A641" s="29"/>
       <c r="B641" s="26"/>
       <c r="C641" s="26"/>
@@ -34831,7 +34841,7 @@
       <c r="AR641" s="26"/>
       <c r="AS641" s="26"/>
     </row>
-    <row r="642" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:45" ht="15.75" customHeight="1">
       <c r="A642" s="29"/>
       <c r="B642" s="26"/>
       <c r="C642" s="26"/>
@@ -34878,7 +34888,7 @@
       <c r="AR642" s="26"/>
       <c r="AS642" s="26"/>
     </row>
-    <row r="643" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:45" ht="15.75" customHeight="1">
       <c r="A643" s="29"/>
       <c r="B643" s="26"/>
       <c r="C643" s="26"/>
@@ -34925,7 +34935,7 @@
       <c r="AR643" s="26"/>
       <c r="AS643" s="26"/>
     </row>
-    <row r="644" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:45" ht="15.75" customHeight="1">
       <c r="A644" s="29"/>
       <c r="B644" s="26"/>
       <c r="C644" s="26"/>
@@ -34972,7 +34982,7 @@
       <c r="AR644" s="26"/>
       <c r="AS644" s="26"/>
     </row>
-    <row r="645" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:45" ht="15.75" customHeight="1">
       <c r="A645" s="29"/>
       <c r="B645" s="26"/>
       <c r="C645" s="26"/>
@@ -35019,7 +35029,7 @@
       <c r="AR645" s="26"/>
       <c r="AS645" s="26"/>
     </row>
-    <row r="646" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:45" ht="15.75" customHeight="1">
       <c r="A646" s="29"/>
       <c r="B646" s="26"/>
       <c r="C646" s="26"/>
@@ -35066,7 +35076,7 @@
       <c r="AR646" s="26"/>
       <c r="AS646" s="26"/>
     </row>
-    <row r="647" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:45" ht="15.75" customHeight="1">
       <c r="A647" s="29"/>
       <c r="B647" s="26"/>
       <c r="C647" s="26"/>
@@ -35113,7 +35123,7 @@
       <c r="AR647" s="26"/>
       <c r="AS647" s="26"/>
     </row>
-    <row r="648" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:45" ht="15.75" customHeight="1">
       <c r="A648" s="29"/>
       <c r="B648" s="26"/>
       <c r="C648" s="26"/>
@@ -35160,7 +35170,7 @@
       <c r="AR648" s="26"/>
       <c r="AS648" s="26"/>
     </row>
-    <row r="649" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:45" ht="15.75" customHeight="1">
       <c r="A649" s="29"/>
       <c r="B649" s="26"/>
       <c r="C649" s="26"/>
@@ -35207,7 +35217,7 @@
       <c r="AR649" s="26"/>
       <c r="AS649" s="26"/>
     </row>
-    <row r="650" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:45" ht="15.75" customHeight="1">
       <c r="A650" s="29"/>
       <c r="B650" s="26"/>
       <c r="C650" s="26"/>
@@ -35254,7 +35264,7 @@
       <c r="AR650" s="26"/>
       <c r="AS650" s="26"/>
     </row>
-    <row r="651" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:45" ht="15.75" customHeight="1">
       <c r="A651" s="29"/>
       <c r="B651" s="26"/>
       <c r="C651" s="26"/>
@@ -35301,7 +35311,7 @@
       <c r="AR651" s="26"/>
       <c r="AS651" s="26"/>
     </row>
-    <row r="652" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:45" ht="15.75" customHeight="1">
       <c r="A652" s="29"/>
       <c r="B652" s="26"/>
       <c r="C652" s="26"/>
@@ -35348,7 +35358,7 @@
       <c r="AR652" s="26"/>
       <c r="AS652" s="26"/>
     </row>
-    <row r="653" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:45" ht="15.75" customHeight="1">
       <c r="A653" s="29"/>
       <c r="B653" s="26"/>
       <c r="C653" s="26"/>
@@ -35395,7 +35405,7 @@
       <c r="AR653" s="26"/>
       <c r="AS653" s="26"/>
     </row>
-    <row r="654" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:45" ht="15.75" customHeight="1">
       <c r="A654" s="29"/>
       <c r="B654" s="26"/>
       <c r="C654" s="26"/>
@@ -35442,7 +35452,7 @@
       <c r="AR654" s="26"/>
       <c r="AS654" s="26"/>
     </row>
-    <row r="655" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:45" ht="15.75" customHeight="1">
       <c r="A655" s="29"/>
       <c r="B655" s="26"/>
       <c r="C655" s="26"/>
@@ -35489,7 +35499,7 @@
       <c r="AR655" s="26"/>
       <c r="AS655" s="26"/>
     </row>
-    <row r="656" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:45" ht="15.75" customHeight="1">
       <c r="A656" s="29"/>
       <c r="B656" s="26"/>
       <c r="C656" s="26"/>
@@ -35536,7 +35546,7 @@
       <c r="AR656" s="26"/>
       <c r="AS656" s="26"/>
     </row>
-    <row r="657" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:45" ht="15.75" customHeight="1">
       <c r="A657" s="29"/>
       <c r="B657" s="26"/>
       <c r="C657" s="26"/>
@@ -35583,7 +35593,7 @@
       <c r="AR657" s="26"/>
       <c r="AS657" s="26"/>
     </row>
-    <row r="658" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:45" ht="15.75" customHeight="1">
       <c r="A658" s="29"/>
       <c r="B658" s="26"/>
       <c r="C658" s="26"/>
@@ -35630,7 +35640,7 @@
       <c r="AR658" s="26"/>
       <c r="AS658" s="26"/>
     </row>
-    <row r="659" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:45" ht="15.75" customHeight="1">
       <c r="A659" s="29"/>
       <c r="B659" s="26"/>
       <c r="C659" s="26"/>
@@ -35677,7 +35687,7 @@
       <c r="AR659" s="26"/>
       <c r="AS659" s="26"/>
     </row>
-    <row r="660" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:45" ht="15.75" customHeight="1">
       <c r="A660" s="29"/>
       <c r="B660" s="26"/>
       <c r="C660" s="26"/>
@@ -35724,7 +35734,7 @@
       <c r="AR660" s="26"/>
       <c r="AS660" s="26"/>
     </row>
-    <row r="661" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:45" ht="15.75" customHeight="1">
       <c r="A661" s="29"/>
       <c r="B661" s="26"/>
       <c r="C661" s="26"/>
@@ -35771,7 +35781,7 @@
       <c r="AR661" s="26"/>
       <c r="AS661" s="26"/>
     </row>
-    <row r="662" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:45" ht="15.75" customHeight="1">
       <c r="A662" s="29"/>
       <c r="B662" s="26"/>
       <c r="C662" s="26"/>
@@ -35818,7 +35828,7 @@
       <c r="AR662" s="26"/>
       <c r="AS662" s="26"/>
     </row>
-    <row r="663" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:45" ht="15.75" customHeight="1">
       <c r="A663" s="29"/>
       <c r="B663" s="26"/>
       <c r="C663" s="26"/>
@@ -35865,7 +35875,7 @@
       <c r="AR663" s="26"/>
       <c r="AS663" s="26"/>
     </row>
-    <row r="664" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:45" ht="15.75" customHeight="1">
       <c r="A664" s="29"/>
       <c r="B664" s="26"/>
       <c r="C664" s="26"/>
@@ -35912,7 +35922,7 @@
       <c r="AR664" s="26"/>
       <c r="AS664" s="26"/>
     </row>
-    <row r="665" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:45" ht="15.75" customHeight="1">
       <c r="A665" s="29"/>
       <c r="B665" s="26"/>
       <c r="C665" s="26"/>
@@ -35959,7 +35969,7 @@
       <c r="AR665" s="26"/>
       <c r="AS665" s="26"/>
     </row>
-    <row r="666" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:45" ht="15.75" customHeight="1">
       <c r="A666" s="29"/>
       <c r="B666" s="26"/>
       <c r="C666" s="26"/>
@@ -36006,7 +36016,7 @@
       <c r="AR666" s="26"/>
       <c r="AS666" s="26"/>
     </row>
-    <row r="667" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:45" ht="15.75" customHeight="1">
       <c r="A667" s="29"/>
       <c r="B667" s="26"/>
       <c r="C667" s="26"/>
@@ -36053,7 +36063,7 @@
       <c r="AR667" s="26"/>
       <c r="AS667" s="26"/>
     </row>
-    <row r="668" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:45" ht="15.75" customHeight="1">
       <c r="A668" s="29"/>
       <c r="B668" s="26"/>
       <c r="C668" s="26"/>
@@ -36100,7 +36110,7 @@
       <c r="AR668" s="26"/>
       <c r="AS668" s="26"/>
     </row>
-    <row r="669" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:45" ht="15.75" customHeight="1">
       <c r="A669" s="29"/>
       <c r="B669" s="26"/>
       <c r="C669" s="26"/>
@@ -36147,7 +36157,7 @@
       <c r="AR669" s="26"/>
       <c r="AS669" s="26"/>
     </row>
-    <row r="670" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:45" ht="15.75" customHeight="1">
       <c r="A670" s="29"/>
       <c r="B670" s="26"/>
       <c r="C670" s="26"/>
@@ -36194,7 +36204,7 @@
       <c r="AR670" s="26"/>
       <c r="AS670" s="26"/>
     </row>
-    <row r="671" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:45" ht="15.75" customHeight="1">
       <c r="A671" s="29"/>
       <c r="B671" s="26"/>
       <c r="C671" s="26"/>
@@ -36241,7 +36251,7 @@
       <c r="AR671" s="26"/>
       <c r="AS671" s="26"/>
     </row>
-    <row r="672" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:45" ht="15.75" customHeight="1">
       <c r="A672" s="29"/>
       <c r="B672" s="26"/>
       <c r="C672" s="26"/>
@@ -36288,7 +36298,7 @@
       <c r="AR672" s="26"/>
       <c r="AS672" s="26"/>
     </row>
-    <row r="673" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:45" ht="15.75" customHeight="1">
       <c r="A673" s="29"/>
       <c r="B673" s="26"/>
       <c r="C673" s="26"/>
@@ -36335,7 +36345,7 @@
       <c r="AR673" s="26"/>
       <c r="AS673" s="26"/>
     </row>
-    <row r="674" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:45" ht="15.75" customHeight="1">
       <c r="A674" s="29"/>
       <c r="B674" s="26"/>
       <c r="C674" s="26"/>
@@ -36382,7 +36392,7 @@
       <c r="AR674" s="26"/>
       <c r="AS674" s="26"/>
     </row>
-    <row r="675" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:45" ht="15.75" customHeight="1">
       <c r="A675" s="29"/>
       <c r="B675" s="26"/>
       <c r="C675" s="26"/>
@@ -36429,7 +36439,7 @@
       <c r="AR675" s="26"/>
       <c r="AS675" s="26"/>
     </row>
-    <row r="676" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:45" ht="15.75" customHeight="1">
       <c r="A676" s="29"/>
       <c r="B676" s="26"/>
       <c r="C676" s="26"/>
@@ -36476,7 +36486,7 @@
       <c r="AR676" s="26"/>
       <c r="AS676" s="26"/>
     </row>
-    <row r="677" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:45" ht="15.75" customHeight="1">
       <c r="A677" s="29"/>
       <c r="B677" s="26"/>
       <c r="C677" s="26"/>
@@ -36523,7 +36533,7 @@
       <c r="AR677" s="26"/>
       <c r="AS677" s="26"/>
     </row>
-    <row r="678" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:45" ht="15.75" customHeight="1">
       <c r="A678" s="29"/>
       <c r="B678" s="26"/>
       <c r="C678" s="26"/>
@@ -36570,7 +36580,7 @@
       <c r="AR678" s="26"/>
       <c r="AS678" s="26"/>
     </row>
-    <row r="679" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:45" ht="15.75" customHeight="1">
       <c r="A679" s="29"/>
       <c r="B679" s="26"/>
       <c r="C679" s="26"/>
@@ -36617,7 +36627,7 @@
       <c r="AR679" s="26"/>
       <c r="AS679" s="26"/>
     </row>
-    <row r="680" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:45" ht="15.75" customHeight="1">
       <c r="A680" s="29"/>
       <c r="B680" s="26"/>
       <c r="C680" s="26"/>
@@ -36664,7 +36674,7 @@
       <c r="AR680" s="26"/>
       <c r="AS680" s="26"/>
     </row>
-    <row r="681" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:45" ht="15.75" customHeight="1">
       <c r="A681" s="29"/>
       <c r="B681" s="26"/>
       <c r="C681" s="26"/>
@@ -36711,7 +36721,7 @@
       <c r="AR681" s="26"/>
       <c r="AS681" s="26"/>
     </row>
-    <row r="682" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:45" ht="15.75" customHeight="1">
       <c r="A682" s="29"/>
       <c r="B682" s="26"/>
       <c r="C682" s="26"/>
@@ -36758,7 +36768,7 @@
       <c r="AR682" s="26"/>
       <c r="AS682" s="26"/>
     </row>
-    <row r="683" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:45" ht="15.75" customHeight="1">
       <c r="A683" s="29"/>
       <c r="B683" s="26"/>
       <c r="C683" s="26"/>
@@ -36805,7 +36815,7 @@
       <c r="AR683" s="26"/>
       <c r="AS683" s="26"/>
     </row>
-    <row r="684" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:45" ht="15.75" customHeight="1">
       <c r="A684" s="29"/>
       <c r="B684" s="26"/>
       <c r="C684" s="26"/>
@@ -36852,7 +36862,7 @@
       <c r="AR684" s="26"/>
       <c r="AS684" s="26"/>
     </row>
-    <row r="685" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:45" ht="15.75" customHeight="1">
       <c r="A685" s="29"/>
       <c r="B685" s="26"/>
       <c r="C685" s="26"/>
@@ -36899,7 +36909,7 @@
       <c r="AR685" s="26"/>
       <c r="AS685" s="26"/>
     </row>
-    <row r="686" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:45" ht="15.75" customHeight="1">
       <c r="A686" s="29"/>
       <c r="B686" s="26"/>
       <c r="C686" s="26"/>
@@ -36946,7 +36956,7 @@
       <c r="AR686" s="26"/>
       <c r="AS686" s="26"/>
     </row>
-    <row r="687" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:45" ht="15.75" customHeight="1">
       <c r="A687" s="29"/>
       <c r="B687" s="26"/>
       <c r="C687" s="26"/>
@@ -36993,7 +37003,7 @@
       <c r="AR687" s="26"/>
       <c r="AS687" s="26"/>
     </row>
-    <row r="688" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:45" ht="15.75" customHeight="1">
       <c r="A688" s="29"/>
       <c r="B688" s="26"/>
       <c r="C688" s="26"/>
@@ -37040,7 +37050,7 @@
       <c r="AR688" s="26"/>
       <c r="AS688" s="26"/>
     </row>
-    <row r="689" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:45" ht="15.75" customHeight="1">
       <c r="A689" s="29"/>
       <c r="B689" s="26"/>
       <c r="C689" s="26"/>
@@ -37087,7 +37097,7 @@
       <c r="AR689" s="26"/>
       <c r="AS689" s="26"/>
     </row>
-    <row r="690" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:45" ht="15.75" customHeight="1">
       <c r="A690" s="29"/>
       <c r="B690" s="26"/>
       <c r="C690" s="26"/>
@@ -37134,7 +37144,7 @@
       <c r="AR690" s="26"/>
       <c r="AS690" s="26"/>
     </row>
-    <row r="691" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:45" ht="15.75" customHeight="1">
       <c r="A691" s="29"/>
       <c r="B691" s="26"/>
       <c r="C691" s="26"/>
@@ -37181,7 +37191,7 @@
       <c r="AR691" s="26"/>
       <c r="AS691" s="26"/>
     </row>
-    <row r="692" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:45" ht="15.75" customHeight="1">
       <c r="A692" s="29"/>
       <c r="B692" s="26"/>
       <c r="C692" s="26"/>
@@ -37228,7 +37238,7 @@
       <c r="AR692" s="26"/>
       <c r="AS692" s="26"/>
     </row>
-    <row r="693" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:45" ht="15.75" customHeight="1">
       <c r="A693" s="29"/>
       <c r="B693" s="26"/>
       <c r="C693" s="26"/>
@@ -37275,7 +37285,7 @@
       <c r="AR693" s="26"/>
       <c r="AS693" s="26"/>
     </row>
-    <row r="694" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:45" ht="15.75" customHeight="1">
       <c r="A694" s="29"/>
       <c r="B694" s="26"/>
       <c r="C694" s="26"/>
@@ -37322,7 +37332,7 @@
       <c r="AR694" s="26"/>
       <c r="AS694" s="26"/>
     </row>
-    <row r="695" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:45" ht="15.75" customHeight="1">
       <c r="A695" s="29"/>
       <c r="B695" s="26"/>
       <c r="C695" s="26"/>
@@ -37369,7 +37379,7 @@
       <c r="AR695" s="26"/>
       <c r="AS695" s="26"/>
     </row>
-    <row r="696" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:45" ht="15.75" customHeight="1">
       <c r="A696" s="29"/>
       <c r="B696" s="26"/>
       <c r="C696" s="26"/>
@@ -37416,7 +37426,7 @@
       <c r="AR696" s="26"/>
       <c r="AS696" s="26"/>
     </row>
-    <row r="697" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:45" ht="15.75" customHeight="1">
       <c r="A697" s="29"/>
       <c r="B697" s="26"/>
       <c r="C697" s="26"/>
@@ -37463,7 +37473,7 @@
       <c r="AR697" s="26"/>
       <c r="AS697" s="26"/>
     </row>
-    <row r="698" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:45" ht="15.75" customHeight="1">
       <c r="A698" s="29"/>
       <c r="B698" s="26"/>
       <c r="C698" s="26"/>
@@ -37510,7 +37520,7 @@
       <c r="AR698" s="26"/>
       <c r="AS698" s="26"/>
     </row>
-    <row r="699" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:45" ht="15.75" customHeight="1">
       <c r="A699" s="29"/>
       <c r="B699" s="26"/>
       <c r="C699" s="26"/>
@@ -37557,7 +37567,7 @@
       <c r="AR699" s="26"/>
       <c r="AS699" s="26"/>
     </row>
-    <row r="700" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:45" ht="15.75" customHeight="1">
       <c r="A700" s="29"/>
       <c r="B700" s="26"/>
       <c r="C700" s="26"/>
@@ -37604,7 +37614,7 @@
       <c r="AR700" s="26"/>
       <c r="AS700" s="26"/>
     </row>
-    <row r="701" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:45" ht="15.75" customHeight="1">
       <c r="A701" s="29"/>
       <c r="B701" s="26"/>
       <c r="C701" s="26"/>
@@ -37651,7 +37661,7 @@
       <c r="AR701" s="26"/>
       <c r="AS701" s="26"/>
     </row>
-    <row r="702" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:45" ht="15.75" customHeight="1">
       <c r="A702" s="29"/>
       <c r="B702" s="26"/>
       <c r="C702" s="26"/>
@@ -37698,7 +37708,7 @@
       <c r="AR702" s="26"/>
       <c r="AS702" s="26"/>
     </row>
-    <row r="703" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:45" ht="15.75" customHeight="1">
       <c r="A703" s="29"/>
       <c r="B703" s="26"/>
       <c r="C703" s="26"/>
@@ -37745,7 +37755,7 @@
       <c r="AR703" s="26"/>
       <c r="AS703" s="26"/>
     </row>
-    <row r="704" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:45" ht="15.75" customHeight="1">
       <c r="A704" s="29"/>
       <c r="B704" s="26"/>
       <c r="C704" s="26"/>
@@ -37792,7 +37802,7 @@
       <c r="AR704" s="26"/>
       <c r="AS704" s="26"/>
     </row>
-    <row r="705" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:45" ht="15.75" customHeight="1">
       <c r="A705" s="29"/>
       <c r="B705" s="26"/>
       <c r="C705" s="26"/>
@@ -37839,7 +37849,7 @@
       <c r="AR705" s="26"/>
       <c r="AS705" s="26"/>
     </row>
-    <row r="706" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:45" ht="15.75" customHeight="1">
       <c r="A706" s="29"/>
       <c r="B706" s="26"/>
       <c r="C706" s="26"/>
@@ -37886,7 +37896,7 @@
       <c r="AR706" s="26"/>
       <c r="AS706" s="26"/>
     </row>
-    <row r="707" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:45" ht="15.75" customHeight="1">
       <c r="A707" s="29"/>
       <c r="B707" s="26"/>
       <c r="C707" s="26"/>
@@ -37933,7 +37943,7 @@
       <c r="AR707" s="26"/>
       <c r="AS707" s="26"/>
     </row>
-    <row r="708" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:45" ht="15.75" customHeight="1">
       <c r="A708" s="29"/>
       <c r="B708" s="26"/>
       <c r="C708" s="26"/>
@@ -37980,7 +37990,7 @@
       <c r="AR708" s="26"/>
       <c r="AS708" s="26"/>
     </row>
-    <row r="709" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:45" ht="15.75" customHeight="1">
       <c r="A709" s="29"/>
       <c r="B709" s="26"/>
       <c r="C709" s="26"/>
@@ -38027,7 +38037,7 @@
       <c r="AR709" s="26"/>
       <c r="AS709" s="26"/>
     </row>
-    <row r="710" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:45" ht="15.75" customHeight="1">
       <c r="A710" s="29"/>
       <c r="B710" s="26"/>
       <c r="C710" s="26"/>
@@ -38074,7 +38084,7 @@
       <c r="AR710" s="26"/>
       <c r="AS710" s="26"/>
     </row>
-    <row r="711" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:45" ht="15.75" customHeight="1">
       <c r="A711" s="29"/>
       <c r="B711" s="26"/>
       <c r="C711" s="26"/>
@@ -38121,7 +38131,7 @@
       <c r="AR711" s="26"/>
       <c r="AS711" s="26"/>
     </row>
-    <row r="712" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:45" ht="15.75" customHeight="1">
       <c r="A712" s="29"/>
       <c r="B712" s="26"/>
       <c r="C712" s="26"/>
@@ -38168,7 +38178,7 @@
       <c r="AR712" s="26"/>
       <c r="AS712" s="26"/>
     </row>
-    <row r="713" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:45" ht="15.75" customHeight="1">
       <c r="A713" s="29"/>
       <c r="B713" s="26"/>
       <c r="C713" s="26"/>
@@ -38215,7 +38225,7 @@
       <c r="AR713" s="26"/>
       <c r="AS713" s="26"/>
     </row>
-    <row r="714" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:45" ht="15.75" customHeight="1">
       <c r="A714" s="29"/>
       <c r="B714" s="26"/>
       <c r="C714" s="26"/>
@@ -38262,7 +38272,7 @@
       <c r="AR714" s="26"/>
       <c r="AS714" s="26"/>
     </row>
-    <row r="715" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:45" ht="15.75" customHeight="1">
       <c r="A715" s="29"/>
       <c r="B715" s="26"/>
       <c r="C715" s="26"/>
@@ -38309,7 +38319,7 @@
       <c r="AR715" s="26"/>
       <c r="AS715" s="26"/>
     </row>
-    <row r="716" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:45" ht="15.75" customHeight="1">
       <c r="A716" s="29"/>
       <c r="B716" s="26"/>
       <c r="C716" s="26"/>
@@ -38356,7 +38366,7 @@
       <c r="AR716" s="26"/>
       <c r="AS716" s="26"/>
     </row>
-    <row r="717" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:45" ht="15.75" customHeight="1">
       <c r="A717" s="29"/>
       <c r="B717" s="26"/>
       <c r="C717" s="26"/>
@@ -38403,7 +38413,7 @@
       <c r="AR717" s="26"/>
       <c r="AS717" s="26"/>
     </row>
-    <row r="718" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:45" ht="15.75" customHeight="1">
       <c r="A718" s="29"/>
       <c r="B718" s="26"/>
       <c r="C718" s="26"/>
@@ -38450,7 +38460,7 @@
       <c r="AR718" s="26"/>
       <c r="AS718" s="26"/>
     </row>
-    <row r="719" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:45" ht="15.75" customHeight="1">
       <c r="A719" s="29"/>
       <c r="B719" s="26"/>
       <c r="C719" s="26"/>
@@ -38497,7 +38507,7 @@
       <c r="AR719" s="26"/>
       <c r="AS719" s="26"/>
     </row>
-    <row r="720" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:45" ht="15.75" customHeight="1">
       <c r="A720" s="29"/>
       <c r="B720" s="26"/>
       <c r="C720" s="26"/>
@@ -38544,7 +38554,7 @@
       <c r="AR720" s="26"/>
       <c r="AS720" s="26"/>
     </row>
-    <row r="721" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:45" ht="15.75" customHeight="1">
       <c r="A721" s="29"/>
       <c r="B721" s="26"/>
       <c r="C721" s="26"/>
@@ -38591,7 +38601,7 @@
       <c r="AR721" s="26"/>
       <c r="AS721" s="26"/>
     </row>
-    <row r="722" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:45" ht="15.75" customHeight="1">
       <c r="A722" s="29"/>
       <c r="B722" s="26"/>
       <c r="C722" s="26"/>
@@ -38638,7 +38648,7 @@
       <c r="AR722" s="26"/>
       <c r="AS722" s="26"/>
     </row>
-    <row r="723" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:45" ht="15.75" customHeight="1">
       <c r="A723" s="29"/>
       <c r="B723" s="26"/>
       <c r="C723" s="26"/>
@@ -38685,7 +38695,7 @@
       <c r="AR723" s="26"/>
       <c r="AS723" s="26"/>
     </row>
-    <row r="724" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:45" ht="15.75" customHeight="1">
       <c r="A724" s="29"/>
       <c r="B724" s="26"/>
       <c r="C724" s="26"/>
@@ -38732,7 +38742,7 @@
       <c r="AR724" s="26"/>
       <c r="AS724" s="26"/>
     </row>
-    <row r="725" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:45" ht="15.75" customHeight="1">
       <c r="A725" s="29"/>
       <c r="B725" s="26"/>
       <c r="C725" s="26"/>
@@ -38779,7 +38789,7 @@
       <c r="AR725" s="26"/>
       <c r="AS725" s="26"/>
     </row>
-    <row r="726" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:45" ht="15.75" customHeight="1">
       <c r="A726" s="29"/>
       <c r="B726" s="26"/>
       <c r="C726" s="26"/>
@@ -38826,7 +38836,7 @@
       <c r="AR726" s="26"/>
       <c r="AS726" s="26"/>
     </row>
-    <row r="727" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:45" ht="15.75" customHeight="1">
       <c r="A727" s="29"/>
       <c r="B727" s="26"/>
       <c r="C727" s="26"/>
@@ -38873,7 +38883,7 @@
       <c r="AR727" s="26"/>
       <c r="AS727" s="26"/>
     </row>
-    <row r="728" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:45" ht="15.75" customHeight="1">
       <c r="A728" s="29"/>
       <c r="B728" s="26"/>
       <c r="C728" s="26"/>
@@ -38920,7 +38930,7 @@
       <c r="AR728" s="26"/>
       <c r="AS728" s="26"/>
     </row>
-    <row r="729" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:45" ht="15.75" customHeight="1">
       <c r="A729" s="29"/>
       <c r="B729" s="26"/>
       <c r="C729" s="26"/>
@@ -38967,7 +38977,7 @@
       <c r="AR729" s="26"/>
       <c r="AS729" s="26"/>
     </row>
-    <row r="730" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:45" ht="15.75" customHeight="1">
       <c r="A730" s="29"/>
       <c r="B730" s="26"/>
       <c r="C730" s="26"/>
@@ -39014,7 +39024,7 @@
       <c r="AR730" s="26"/>
       <c r="AS730" s="26"/>
     </row>
-    <row r="731" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:45" ht="15.75" customHeight="1">
       <c r="A731" s="29"/>
       <c r="B731" s="26"/>
       <c r="C731" s="26"/>
@@ -39061,7 +39071,7 @@
       <c r="AR731" s="26"/>
       <c r="AS731" s="26"/>
     </row>
-    <row r="732" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:45" ht="15.75" customHeight="1">
       <c r="A732" s="29"/>
       <c r="B732" s="26"/>
       <c r="C732" s="26"/>
@@ -39108,7 +39118,7 @@
       <c r="AR732" s="26"/>
       <c r="AS732" s="26"/>
     </row>
-    <row r="733" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:45" ht="15.75" customHeight="1">
       <c r="A733" s="29"/>
       <c r="B733" s="26"/>
       <c r="C733" s="26"/>
@@ -39155,7 +39165,7 @@
       <c r="AR733" s="26"/>
       <c r="AS733" s="26"/>
     </row>
-    <row r="734" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:45" ht="15.75" customHeight="1">
       <c r="A734" s="29"/>
       <c r="B734" s="26"/>
       <c r="C734" s="26"/>
@@ -39202,7 +39212,7 @@
       <c r="AR734" s="26"/>
       <c r="AS734" s="26"/>
     </row>
-    <row r="735" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:45" ht="15.75" customHeight="1">
       <c r="A735" s="29"/>
       <c r="B735" s="26"/>
       <c r="C735" s="26"/>
@@ -39249,7 +39259,7 @@
       <c r="AR735" s="26"/>
       <c r="AS735" s="26"/>
     </row>
-    <row r="736" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:45" ht="15.75" customHeight="1">
       <c r="A736" s="29"/>
       <c r="B736" s="26"/>
       <c r="C736" s="26"/>
@@ -39296,7 +39306,7 @@
       <c r="AR736" s="26"/>
       <c r="AS736" s="26"/>
     </row>
-    <row r="737" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:45" ht="15.75" customHeight="1">
       <c r="A737" s="29"/>
       <c r="B737" s="26"/>
       <c r="C737" s="26"/>
@@ -39343,7 +39353,7 @@
       <c r="AR737" s="26"/>
       <c r="AS737" s="26"/>
     </row>
-    <row r="738" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:45" ht="15.75" customHeight="1">
       <c r="A738" s="29"/>
       <c r="B738" s="26"/>
       <c r="C738" s="26"/>
@@ -39390,7 +39400,7 @@
       <c r="AR738" s="26"/>
       <c r="AS738" s="26"/>
     </row>
-    <row r="739" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:45" ht="15.75" customHeight="1">
       <c r="A739" s="29"/>
       <c r="B739" s="26"/>
       <c r="C739" s="26"/>
@@ -39437,7 +39447,7 @@
       <c r="AR739" s="26"/>
       <c r="AS739" s="26"/>
     </row>
-    <row r="740" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:45" ht="15.75" customHeight="1">
       <c r="A740" s="29"/>
       <c r="B740" s="26"/>
       <c r="C740" s="26"/>
@@ -39484,7 +39494,7 @@
       <c r="AR740" s="26"/>
       <c r="AS740" s="26"/>
     </row>
-    <row r="741" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:45" ht="15.75" customHeight="1">
       <c r="A741" s="29"/>
       <c r="B741" s="26"/>
       <c r="C741" s="26"/>
@@ -39531,7 +39541,7 @@
       <c r="AR741" s="26"/>
       <c r="AS741" s="26"/>
     </row>
-    <row r="742" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:45" ht="15.75" customHeight="1">
       <c r="A742" s="29"/>
       <c r="B742" s="26"/>
       <c r="C742" s="26"/>
@@ -39578,7 +39588,7 @@
       <c r="AR742" s="26"/>
       <c r="AS742" s="26"/>
     </row>
-    <row r="743" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:45" ht="15.75" customHeight="1">
       <c r="A743" s="29"/>
       <c r="B743" s="26"/>
       <c r="C743" s="26"/>
@@ -39625,7 +39635,7 @@
       <c r="AR743" s="26"/>
       <c r="AS743" s="26"/>
     </row>
-    <row r="744" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:45" ht="15.75" customHeight="1">
       <c r="A744" s="29"/>
       <c r="B744" s="26"/>
       <c r="C744" s="26"/>
@@ -39672,7 +39682,7 @@
       <c r="AR744" s="26"/>
       <c r="AS744" s="26"/>
     </row>
-    <row r="745" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:45" ht="15.75" customHeight="1">
       <c r="A745" s="29"/>
       <c r="B745" s="26"/>
       <c r="C745" s="26"/>
@@ -39719,7 +39729,7 @@
       <c r="AR745" s="26"/>
       <c r="AS745" s="26"/>
     </row>
-    <row r="746" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:45" ht="15.75" customHeight="1">
       <c r="A746" s="29"/>
       <c r="B746" s="26"/>
       <c r="C746" s="26"/>
@@ -39766,7 +39776,7 @@
       <c r="AR746" s="26"/>
       <c r="AS746" s="26"/>
     </row>
-    <row r="747" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:45" ht="15.75" customHeight="1">
       <c r="A747" s="29"/>
       <c r="B747" s="26"/>
       <c r="C747" s="26"/>
@@ -39813,7 +39823,7 @@
       <c r="AR747" s="26"/>
       <c r="AS747" s="26"/>
     </row>
-    <row r="748" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:45" ht="15.75" customHeight="1">
       <c r="A748" s="29"/>
       <c r="B748" s="26"/>
       <c r="C748" s="26"/>
@@ -39860,7 +39870,7 @@
       <c r="AR748" s="26"/>
       <c r="AS748" s="26"/>
     </row>
-    <row r="749" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:45" ht="15.75" customHeight="1">
       <c r="A749" s="29"/>
       <c r="B749" s="26"/>
       <c r="C749" s="26"/>
@@ -39907,7 +39917,7 @@
       <c r="AR749" s="26"/>
       <c r="AS749" s="26"/>
     </row>
-    <row r="750" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:45" ht="15.75" customHeight="1">
       <c r="A750" s="29"/>
       <c r="B750" s="26"/>
       <c r="C750" s="26"/>
@@ -39954,7 +39964,7 @@
       <c r="AR750" s="26"/>
       <c r="AS750" s="26"/>
     </row>
-    <row r="751" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:45" ht="15.75" customHeight="1">
       <c r="A751" s="29"/>
       <c r="B751" s="26"/>
       <c r="C751" s="26"/>
@@ -40001,7 +40011,7 @@
       <c r="AR751" s="26"/>
       <c r="AS751" s="26"/>
     </row>
-    <row r="752" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:45" ht="15.75" customHeight="1">
       <c r="A752" s="29"/>
       <c r="B752" s="26"/>
       <c r="C752" s="26"/>
@@ -40048,7 +40058,7 @@
       <c r="AR752" s="26"/>
       <c r="AS752" s="26"/>
     </row>
-    <row r="753" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:45" ht="15.75" customHeight="1">
       <c r="A753" s="29"/>
       <c r="B753" s="26"/>
       <c r="C753" s="26"/>
@@ -40095,7 +40105,7 @@
       <c r="AR753" s="26"/>
       <c r="AS753" s="26"/>
     </row>
-    <row r="754" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:45" ht="15.75" customHeight="1">
       <c r="A754" s="29"/>
       <c r="B754" s="26"/>
       <c r="C754" s="26"/>
@@ -40142,7 +40152,7 @@
       <c r="AR754" s="26"/>
       <c r="AS754" s="26"/>
     </row>
-    <row r="755" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:45" ht="15.75" customHeight="1">
       <c r="A755" s="29"/>
       <c r="B755" s="26"/>
       <c r="C755" s="26"/>
@@ -40189,7 +40199,7 @@
       <c r="AR755" s="26"/>
       <c r="AS755" s="26"/>
     </row>
-    <row r="756" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:45" ht="15.75" customHeight="1">
       <c r="A756" s="29"/>
       <c r="B756" s="26"/>
       <c r="C756" s="26"/>
@@ -40236,7 +40246,7 @@
       <c r="AR756" s="26"/>
       <c r="AS756" s="26"/>
     </row>
-    <row r="757" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:45" ht="15.75" customHeight="1">
       <c r="A757" s="29"/>
       <c r="B757" s="26"/>
       <c r="C757" s="26"/>
@@ -40283,7 +40293,7 @@
       <c r="AR757" s="26"/>
       <c r="AS757" s="26"/>
     </row>
-    <row r="758" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:45" ht="15.75" customHeight="1">
       <c r="A758" s="29"/>
       <c r="B758" s="26"/>
       <c r="C758" s="26"/>
@@ -40330,7 +40340,7 @@
       <c r="AR758" s="26"/>
       <c r="AS758" s="26"/>
     </row>
-    <row r="759" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:45" ht="15.75" customHeight="1">
       <c r="A759" s="29"/>
       <c r="B759" s="26"/>
       <c r="C759" s="26"/>
@@ -40377,7 +40387,7 @@
       <c r="AR759" s="26"/>
       <c r="AS759" s="26"/>
     </row>
-    <row r="760" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:45" ht="15.75" customHeight="1">
       <c r="A760" s="29"/>
       <c r="B760" s="26"/>
       <c r="C760" s="26"/>
@@ -40424,7 +40434,7 @@
       <c r="AR760" s="26"/>
       <c r="AS760" s="26"/>
     </row>
-    <row r="761" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:45" ht="15.75" customHeight="1">
       <c r="A761" s="29"/>
       <c r="B761" s="26"/>
       <c r="C761" s="26"/>
@@ -40471,7 +40481,7 @@
       <c r="AR761" s="26"/>
       <c r="AS761" s="26"/>
     </row>
-    <row r="762" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:45" ht="15.75" customHeight="1">
       <c r="A762" s="29"/>
       <c r="B762" s="26"/>
       <c r="C762" s="26"/>
@@ -40518,7 +40528,7 @@
       <c r="AR762" s="26"/>
       <c r="AS762" s="26"/>
     </row>
-    <row r="763" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:45" ht="15.75" customHeight="1">
       <c r="A763" s="29"/>
       <c r="B763" s="26"/>
       <c r="C763" s="26"/>
@@ -40565,7 +40575,7 @@
       <c r="AR763" s="26"/>
       <c r="AS763" s="26"/>
     </row>
-    <row r="764" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:45" ht="15.75" customHeight="1">
       <c r="A764" s="29"/>
       <c r="B764" s="26"/>
       <c r="C764" s="26"/>
@@ -40612,7 +40622,7 @@
       <c r="AR764" s="26"/>
       <c r="AS764" s="26"/>
     </row>
-    <row r="765" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:45" ht="15.75" customHeight="1">
       <c r="A765" s="29"/>
       <c r="B765" s="26"/>
       <c r="C765" s="26"/>
@@ -40659,7 +40669,7 @@
       <c r="AR765" s="26"/>
       <c r="AS765" s="26"/>
     </row>
-    <row r="766" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:45" ht="15.75" customHeight="1">
       <c r="A766" s="29"/>
       <c r="B766" s="26"/>
       <c r="C766" s="26"/>
@@ -40706,7 +40716,7 @@
       <c r="AR766" s="26"/>
       <c r="AS766" s="26"/>
     </row>
-    <row r="767" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:45" ht="15.75" customHeight="1">
       <c r="A767" s="29"/>
       <c r="B767" s="26"/>
       <c r="C767" s="26"/>
@@ -40753,7 +40763,7 @@
       <c r="AR767" s="26"/>
       <c r="AS767" s="26"/>
     </row>
-    <row r="768" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:45" ht="15.75" customHeight="1">
       <c r="A768" s="29"/>
       <c r="B768" s="26"/>
       <c r="C768" s="26"/>
@@ -40800,7 +40810,7 @@
       <c r="AR768" s="26"/>
       <c r="AS768" s="26"/>
     </row>
-    <row r="769" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:45" ht="15.75" customHeight="1">
       <c r="A769" s="29"/>
       <c r="B769" s="26"/>
       <c r="C769" s="26"/>
@@ -40847,7 +40857,7 @@
       <c r="AR769" s="26"/>
       <c r="AS769" s="26"/>
     </row>
-    <row r="770" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:45" ht="15.75" customHeight="1">
       <c r="A770" s="29"/>
       <c r="B770" s="26"/>
       <c r="C770" s="26"/>
@@ -40894,7 +40904,7 @@
       <c r="AR770" s="26"/>
       <c r="AS770" s="26"/>
     </row>
-    <row r="771" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:45" ht="15.75" customHeight="1">
       <c r="A771" s="29"/>
       <c r="B771" s="26"/>
       <c r="C771" s="26"/>
@@ -40941,7 +40951,7 @@
       <c r="AR771" s="26"/>
       <c r="AS771" s="26"/>
     </row>
-    <row r="772" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:45" ht="15.75" customHeight="1">
       <c r="A772" s="29"/>
       <c r="B772" s="26"/>
       <c r="C772" s="26"/>
@@ -40988,7 +40998,7 @@
       <c r="AR772" s="26"/>
       <c r="AS772" s="26"/>
     </row>
-    <row r="773" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:45" ht="15.75" customHeight="1">
       <c r="A773" s="29"/>
       <c r="B773" s="26"/>
       <c r="C773" s="26"/>
@@ -41035,7 +41045,7 @@
       <c r="AR773" s="26"/>
       <c r="AS773" s="26"/>
     </row>
-    <row r="774" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:45" ht="15.75" customHeight="1">
       <c r="A774" s="29"/>
       <c r="B774" s="26"/>
       <c r="C774" s="26"/>
@@ -41082,7 +41092,7 @@
       <c r="AR774" s="26"/>
       <c r="AS774" s="26"/>
     </row>
-    <row r="775" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:45" ht="15.75" customHeight="1">
       <c r="A775" s="29"/>
       <c r="B775" s="26"/>
       <c r="C775" s="26"/>
@@ -41129,7 +41139,7 @@
       <c r="AR775" s="26"/>
       <c r="AS775" s="26"/>
     </row>
-    <row r="776" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:45" ht="15.75" customHeight="1">
       <c r="A776" s="29"/>
       <c r="B776" s="26"/>
       <c r="C776" s="26"/>
@@ -41176,7 +41186,7 @@
       <c r="AR776" s="26"/>
       <c r="AS776" s="26"/>
     </row>
-    <row r="777" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:45" ht="15.75" customHeight="1">
       <c r="A777" s="29"/>
       <c r="B777" s="26"/>
       <c r="C777" s="26"/>
@@ -41223,7 +41233,7 @@
       <c r="AR777" s="26"/>
       <c r="AS777" s="26"/>
     </row>
-    <row r="778" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:45" ht="15.75" customHeight="1">
       <c r="A778" s="29"/>
       <c r="B778" s="26"/>
       <c r="C778" s="26"/>
@@ -41270,7 +41280,7 @@
       <c r="AR778" s="26"/>
       <c r="AS778" s="26"/>
     </row>
-    <row r="779" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:45" ht="15.75" customHeight="1">
       <c r="A779" s="29"/>
       <c r="B779" s="26"/>
       <c r="C779" s="26"/>
@@ -41317,7 +41327,7 @@
       <c r="AR779" s="26"/>
       <c r="AS779" s="26"/>
     </row>
-    <row r="780" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:45" ht="15.75" customHeight="1">
       <c r="A780" s="29"/>
       <c r="B780" s="26"/>
       <c r="C780" s="26"/>
@@ -41364,7 +41374,7 @@
       <c r="AR780" s="26"/>
       <c r="AS780" s="26"/>
     </row>
-    <row r="781" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:45" ht="15.75" customHeight="1">
       <c r="A781" s="29"/>
       <c r="B781" s="26"/>
       <c r="C781" s="26"/>
@@ -41411,7 +41421,7 @@
       <c r="AR781" s="26"/>
       <c r="AS781" s="26"/>
     </row>
-    <row r="782" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:45" ht="15.75" customHeight="1">
       <c r="A782" s="29"/>
       <c r="B782" s="26"/>
       <c r="C782" s="26"/>
@@ -41458,7 +41468,7 @@
       <c r="AR782" s="26"/>
       <c r="AS782" s="26"/>
     </row>
-    <row r="783" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:45" ht="15.75" customHeight="1">
       <c r="A783" s="29"/>
       <c r="B783" s="26"/>
       <c r="C783" s="26"/>
@@ -41505,7 +41515,7 @@
       <c r="AR783" s="26"/>
       <c r="AS783" s="26"/>
     </row>
-    <row r="784" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:45" ht="15.75" customHeight="1">
       <c r="A784" s="29"/>
       <c r="B784" s="26"/>
       <c r="C784" s="26"/>
@@ -41552,7 +41562,7 @@
       <c r="AR784" s="26"/>
       <c r="AS784" s="26"/>
     </row>
-    <row r="785" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:45" ht="15.75" customHeight="1">
       <c r="A785" s="29"/>
       <c r="B785" s="26"/>
       <c r="C785" s="26"/>
@@ -41599,7 +41609,7 @@
       <c r="AR785" s="26"/>
       <c r="AS785" s="26"/>
     </row>
-    <row r="786" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:45" ht="15.75" customHeight="1">
       <c r="A786" s="29"/>
       <c r="B786" s="26"/>
       <c r="C786" s="26"/>
@@ -41646,7 +41656,7 @@
       <c r="AR786" s="26"/>
       <c r="AS786" s="26"/>
     </row>
-    <row r="787" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:45" ht="15.75" customHeight="1">
       <c r="A787" s="29"/>
       <c r="B787" s="26"/>
       <c r="C787" s="26"/>
@@ -41693,7 +41703,7 @@
       <c r="AR787" s="26"/>
       <c r="AS787" s="26"/>
     </row>
-    <row r="788" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:45" ht="15.75" customHeight="1">
       <c r="A788" s="29"/>
       <c r="B788" s="26"/>
       <c r="C788" s="26"/>
@@ -41740,7 +41750,7 @@
       <c r="AR788" s="26"/>
       <c r="AS788" s="26"/>
     </row>
-    <row r="789" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:45" ht="15.75" customHeight="1">
       <c r="A789" s="29"/>
       <c r="B789" s="26"/>
       <c r="C789" s="26"/>
@@ -41787,7 +41797,7 @@
       <c r="AR789" s="26"/>
       <c r="AS789" s="26"/>
     </row>
-    <row r="790" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:45" ht="15.75" customHeight="1">
       <c r="A790" s="29"/>
       <c r="B790" s="26"/>
       <c r="C790" s="26"/>
@@ -41834,7 +41844,7 @@
       <c r="AR790" s="26"/>
       <c r="AS790" s="26"/>
     </row>
-    <row r="791" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:45" ht="15.75" customHeight="1">
       <c r="A791" s="29"/>
       <c r="B791" s="26"/>
       <c r="C791" s="26"/>
@@ -41881,7 +41891,7 @@
       <c r="AR791" s="26"/>
       <c r="AS791" s="26"/>
     </row>
-    <row r="792" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:45" ht="15.75" customHeight="1">
       <c r="A792" s="29"/>
       <c r="B792" s="26"/>
       <c r="C792" s="26"/>
@@ -41928,7 +41938,7 @@
       <c r="AR792" s="26"/>
       <c r="AS792" s="26"/>
     </row>
-    <row r="793" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:45" ht="15.75" customHeight="1">
       <c r="A793" s="29"/>
       <c r="B793" s="26"/>
       <c r="C793" s="26"/>
@@ -41975,7 +41985,7 @@
       <c r="AR793" s="26"/>
       <c r="AS793" s="26"/>
     </row>
-    <row r="794" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:45" ht="15.75" customHeight="1">
       <c r="A794" s="29"/>
       <c r="B794" s="26"/>
       <c r="C794" s="26"/>
@@ -42022,7 +42032,7 @@
       <c r="AR794" s="26"/>
       <c r="AS794" s="26"/>
     </row>
-    <row r="795" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:45" ht="15.75" customHeight="1">
       <c r="A795" s="29"/>
       <c r="B795" s="26"/>
       <c r="C795" s="26"/>
@@ -42069,7 +42079,7 @@
       <c r="AR795" s="26"/>
       <c r="AS795" s="26"/>
     </row>
-    <row r="796" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:45" ht="15.75" customHeight="1">
       <c r="A796" s="29"/>
       <c r="B796" s="26"/>
       <c r="C796" s="26"/>
@@ -42116,7 +42126,7 @@
       <c r="AR796" s="26"/>
       <c r="AS796" s="26"/>
     </row>
-    <row r="797" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:45" ht="15.75" customHeight="1">
       <c r="A797" s="29"/>
       <c r="B797" s="26"/>
       <c r="C797" s="26"/>
@@ -42163,7 +42173,7 @@
       <c r="AR797" s="26"/>
       <c r="AS797" s="26"/>
     </row>
-    <row r="798" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:45" ht="15.75" customHeight="1">
       <c r="A798" s="29"/>
       <c r="B798" s="26"/>
       <c r="C798" s="26"/>
@@ -42210,7 +42220,7 @@
       <c r="AR798" s="26"/>
       <c r="AS798" s="26"/>
     </row>
-    <row r="799" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:45" ht="15.75" customHeight="1">
       <c r="A799" s="29"/>
       <c r="B799" s="26"/>
       <c r="C799" s="26"/>
@@ -42257,7 +42267,7 @@
       <c r="AR799" s="26"/>
       <c r="AS799" s="26"/>
     </row>
-    <row r="800" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:45" ht="15.75" customHeight="1">
       <c r="A800" s="29"/>
       <c r="B800" s="26"/>
       <c r="C800" s="26"/>
@@ -42304,7 +42314,7 @@
       <c r="AR800" s="26"/>
       <c r="AS800" s="26"/>
     </row>
-    <row r="801" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:45" ht="15.75" customHeight="1">
       <c r="A801" s="29"/>
       <c r="B801" s="26"/>
       <c r="C801" s="26"/>
@@ -42351,7 +42361,7 @@
       <c r="AR801" s="26"/>
       <c r="AS801" s="26"/>
     </row>
-    <row r="802" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:45" ht="15.75" customHeight="1">
       <c r="A802" s="29"/>
       <c r="B802" s="26"/>
       <c r="C802" s="26"/>
@@ -42398,7 +42408,7 @@
       <c r="AR802" s="26"/>
       <c r="AS802" s="26"/>
     </row>
-    <row r="803" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:45" ht="15.75" customHeight="1">
       <c r="A803" s="29"/>
       <c r="B803" s="26"/>
       <c r="C803" s="26"/>
@@ -42445,7 +42455,7 @@
       <c r="AR803" s="26"/>
       <c r="AS803" s="26"/>
     </row>
-    <row r="804" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:45" ht="15.75" customHeight="1">
       <c r="A804" s="29"/>
       <c r="B804" s="26"/>
       <c r="C804" s="26"/>
@@ -42492,7 +42502,7 @@
       <c r="AR804" s="26"/>
       <c r="AS804" s="26"/>
     </row>
-    <row r="805" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:45" ht="15.75" customHeight="1">
       <c r="A805" s="29"/>
       <c r="B805" s="26"/>
       <c r="C805" s="26"/>
@@ -42539,7 +42549,7 @@
       <c r="AR805" s="26"/>
       <c r="AS805" s="26"/>
     </row>
-    <row r="806" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:45" ht="15.75" customHeight="1">
       <c r="A806" s="29"/>
       <c r="B806" s="26"/>
       <c r="C806" s="26"/>
@@ -42586,7 +42596,7 @@
       <c r="AR806" s="26"/>
       <c r="AS806" s="26"/>
     </row>
-    <row r="807" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:45" ht="15.75" customHeight="1">
       <c r="A807" s="29"/>
       <c r="B807" s="26"/>
       <c r="C807" s="26"/>
@@ -42633,7 +42643,7 @@
       <c r="AR807" s="26"/>
       <c r="AS807" s="26"/>
     </row>
-    <row r="808" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:45" ht="15.75" customHeight="1">
       <c r="A808" s="29"/>
       <c r="B808" s="26"/>
       <c r="C808" s="26"/>
@@ -42680,7 +42690,7 @@
       <c r="AR808" s="26"/>
       <c r="AS808" s="26"/>
     </row>
-    <row r="809" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:45" ht="15.75" customHeight="1">
       <c r="A809" s="29"/>
       <c r="B809" s="26"/>
       <c r="C809" s="26"/>
@@ -42727,7 +42737,7 @@
       <c r="AR809" s="26"/>
       <c r="AS809" s="26"/>
     </row>
-    <row r="810" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:45" ht="15.75" customHeight="1">
       <c r="A810" s="29"/>
       <c r="B810" s="26"/>
       <c r="C810" s="26"/>
@@ -42774,7 +42784,7 @@
       <c r="AR810" s="26"/>
       <c r="AS810" s="26"/>
     </row>
-    <row r="811" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:45" ht="15.75" customHeight="1">
       <c r="A811" s="29"/>
       <c r="B811" s="26"/>
       <c r="C811" s="26"/>
@@ -42821,7 +42831,7 @@
       <c r="AR811" s="26"/>
       <c r="AS811" s="26"/>
     </row>
-    <row r="812" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:45" ht="15.75" customHeight="1">
       <c r="A812" s="29"/>
       <c r="B812" s="26"/>
       <c r="C812" s="26"/>
@@ -42868,7 +42878,7 @@
       <c r="AR812" s="26"/>
       <c r="AS812" s="26"/>
     </row>
-    <row r="813" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:45" ht="15.75" customHeight="1">
       <c r="A813" s="29"/>
       <c r="B813" s="26"/>
       <c r="C813" s="26"/>
@@ -42915,7 +42925,7 @@
       <c r="AR813" s="26"/>
       <c r="AS813" s="26"/>
     </row>
-    <row r="814" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:45" ht="15.75" customHeight="1">
       <c r="A814" s="29"/>
       <c r="B814" s="26"/>
       <c r="C814" s="26"/>
@@ -42962,7 +42972,7 @@
       <c r="AR814" s="26"/>
       <c r="AS814" s="26"/>
     </row>
-    <row r="815" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:45" ht="15.75" customHeight="1">
       <c r="A815" s="29"/>
       <c r="B815" s="26"/>
       <c r="C815" s="26"/>
@@ -43009,7 +43019,7 @@
       <c r="AR815" s="26"/>
       <c r="AS815" s="26"/>
     </row>
-    <row r="816" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:45" ht="15.75" customHeight="1">
       <c r="A816" s="29"/>
       <c r="B816" s="26"/>
       <c r="C816" s="26"/>
@@ -43056,7 +43066,7 @@
       <c r="AR816" s="26"/>
       <c r="AS816" s="26"/>
     </row>
-    <row r="817" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:45" ht="15.75" customHeight="1">
       <c r="A817" s="29"/>
       <c r="B817" s="26"/>
       <c r="C817" s="26"/>
@@ -43103,7 +43113,7 @@
       <c r="AR817" s="26"/>
       <c r="AS817" s="26"/>
     </row>
-    <row r="818" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:45" ht="15.75" customHeight="1">
       <c r="A818" s="29"/>
       <c r="B818" s="26"/>
       <c r="C818" s="26"/>
@@ -43150,7 +43160,7 @@
       <c r="AR818" s="26"/>
       <c r="AS818" s="26"/>
     </row>
-    <row r="819" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:45" ht="15.75" customHeight="1">
       <c r="A819" s="29"/>
       <c r="B819" s="26"/>
       <c r="C819" s="26"/>
@@ -43197,7 +43207,7 @@
       <c r="AR819" s="26"/>
       <c r="AS819" s="26"/>
     </row>
-    <row r="820" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:45" ht="15.75" customHeight="1">
       <c r="A820" s="29"/>
       <c r="B820" s="26"/>
       <c r="C820" s="26"/>
@@ -43244,7 +43254,7 @@
       <c r="AR820" s="26"/>
       <c r="AS820" s="26"/>
     </row>
-    <row r="821" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:45" ht="15.75" customHeight="1">
       <c r="A821" s="29"/>
       <c r="B821" s="26"/>
       <c r="C821" s="26"/>
@@ -43291,7 +43301,7 @@
       <c r="AR821" s="26"/>
       <c r="AS821" s="26"/>
     </row>
-    <row r="822" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:45" ht="15.75" customHeight="1">
       <c r="A822" s="29"/>
       <c r="B822" s="26"/>
       <c r="C822" s="26"/>
@@ -43338,7 +43348,7 @@
       <c r="AR822" s="26"/>
       <c r="AS822" s="26"/>
     </row>
-    <row r="823" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:45" ht="15.75" customHeight="1">
       <c r="A823" s="29"/>
       <c r="B823" s="26"/>
       <c r="C823" s="26"/>
@@ -43385,7 +43395,7 @@
       <c r="AR823" s="26"/>
       <c r="AS823" s="26"/>
     </row>
-    <row r="824" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:45" ht="15.75" customHeight="1">
       <c r="A824" s="29"/>
       <c r="B824" s="26"/>
       <c r="C824" s="26"/>
@@ -43432,7 +43442,7 @@
       <c r="AR824" s="26"/>
       <c r="AS824" s="26"/>
     </row>
-    <row r="825" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:45" ht="15.75" customHeight="1">
       <c r="A825" s="29"/>
       <c r="B825" s="26"/>
       <c r="C825" s="26"/>
@@ -43479,7 +43489,7 @@
       <c r="AR825" s="26"/>
       <c r="AS825" s="26"/>
     </row>
-    <row r="826" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:45" ht="15.75" customHeight="1">
       <c r="A826" s="29"/>
       <c r="B826" s="26"/>
       <c r="C826" s="26"/>
@@ -43526,7 +43536,7 @@
       <c r="AR826" s="26"/>
       <c r="AS826" s="26"/>
     </row>
-    <row r="827" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:45" ht="15.75" customHeight="1">
       <c r="A827" s="29"/>
       <c r="B827" s="26"/>
       <c r="C827" s="26"/>
@@ -43573,7 +43583,7 @@
       <c r="AR827" s="26"/>
       <c r="AS827" s="26"/>
     </row>
-    <row r="828" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:45" ht="15.75" customHeight="1">
       <c r="A828" s="29"/>
       <c r="B828" s="26"/>
       <c r="C828" s="26"/>
@@ -43620,7 +43630,7 @@
       <c r="AR828" s="26"/>
       <c r="AS828" s="26"/>
     </row>
-    <row r="829" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:45" ht="15.75" customHeight="1">
       <c r="A829" s="29"/>
       <c r="B829" s="26"/>
       <c r="C829" s="26"/>
@@ -43667,7 +43677,7 @@
       <c r="AR829" s="26"/>
       <c r="AS829" s="26"/>
     </row>
-    <row r="830" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:45" ht="15.75" customHeight="1">
       <c r="A830" s="29"/>
       <c r="B830" s="26"/>
       <c r="C830" s="26"/>
@@ -43714,7 +43724,7 @@
       <c r="AR830" s="26"/>
       <c r="AS830" s="26"/>
     </row>
-    <row r="831" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:45" ht="15.75" customHeight="1">
       <c r="A831" s="29"/>
       <c r="B831" s="26"/>
       <c r="C831" s="26"/>
@@ -43761,7 +43771,7 @@
       <c r="AR831" s="26"/>
       <c r="AS831" s="26"/>
     </row>
-    <row r="832" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:45" ht="15.75" customHeight="1">
       <c r="A832" s="29"/>
       <c r="B832" s="26"/>
       <c r="C832" s="26"/>
@@ -43808,7 +43818,7 @@
       <c r="AR832" s="26"/>
       <c r="AS832" s="26"/>
     </row>
-    <row r="833" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:45" ht="15.75" customHeight="1">
       <c r="A833" s="29"/>
       <c r="B833" s="26"/>
       <c r="C833" s="26"/>
@@ -43855,7 +43865,7 @@
       <c r="AR833" s="26"/>
       <c r="AS833" s="26"/>
     </row>
-    <row r="834" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:45" ht="15.75" customHeight="1">
       <c r="A834" s="29"/>
       <c r="B834" s="26"/>
       <c r="C834" s="26"/>
@@ -43902,7 +43912,7 @@
       <c r="AR834" s="26"/>
       <c r="AS834" s="26"/>
     </row>
-    <row r="835" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:45" ht="15.75" customHeight="1">
       <c r="A835" s="29"/>
       <c r="B835" s="26"/>
       <c r="C835" s="26"/>
@@ -43949,7 +43959,7 @@
       <c r="AR835" s="26"/>
       <c r="AS835" s="26"/>
     </row>
-    <row r="836" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:45" ht="15.75" customHeight="1">
       <c r="A836" s="29"/>
       <c r="B836" s="26"/>
       <c r="C836" s="26"/>
@@ -43996,7 +44006,7 @@
       <c r="AR836" s="26"/>
       <c r="AS836" s="26"/>
     </row>
-    <row r="837" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:45" ht="15.75" customHeight="1">
       <c r="A837" s="29"/>
       <c r="B837" s="26"/>
       <c r="C837" s="26"/>
@@ -44043,7 +44053,7 @@
       <c r="AR837" s="26"/>
       <c r="AS837" s="26"/>
     </row>
-    <row r="838" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:45" ht="15.75" customHeight="1">
       <c r="A838" s="29"/>
       <c r="B838" s="26"/>
       <c r="C838" s="26"/>
@@ -44090,7 +44100,7 @@
       <c r="AR838" s="26"/>
       <c r="AS838" s="26"/>
     </row>
-    <row r="839" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:45" ht="15.75" customHeight="1">
       <c r="A839" s="29"/>
       <c r="B839" s="26"/>
       <c r="C839" s="26"/>
@@ -44137,7 +44147,7 @@
       <c r="AR839" s="26"/>
       <c r="AS839" s="26"/>
     </row>
-    <row r="840" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:45" ht="15.75" customHeight="1">
       <c r="A840" s="29"/>
       <c r="B840" s="26"/>
       <c r="C840" s="26"/>
@@ -44184,7 +44194,7 @@
       <c r="AR840" s="26"/>
       <c r="AS840" s="26"/>
     </row>
-    <row r="841" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:45" ht="15.75" customHeight="1">
       <c r="A841" s="29"/>
       <c r="B841" s="26"/>
       <c r="C841" s="26"/>
@@ -44231,7 +44241,7 @@
       <c r="AR841" s="26"/>
       <c r="AS841" s="26"/>
     </row>
-    <row r="842" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:45" ht="15.75" customHeight="1">
       <c r="A842" s="29"/>
       <c r="B842" s="26"/>
       <c r="C842" s="26"/>
@@ -44278,7 +44288,7 @@
       <c r="AR842" s="26"/>
       <c r="AS842" s="26"/>
     </row>
-    <row r="843" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:45" ht="15.75" customHeight="1">
       <c r="A843" s="29"/>
       <c r="B843" s="26"/>
       <c r="C843" s="26"/>
@@ -44325,7 +44335,7 @@
       <c r="AR843" s="26"/>
       <c r="AS843" s="26"/>
     </row>
-    <row r="844" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:45" ht="15.75" customHeight="1">
       <c r="A844" s="29"/>
       <c r="B844" s="26"/>
       <c r="C844" s="26"/>
@@ -44372,7 +44382,7 @@
       <c r="AR844" s="26"/>
       <c r="AS844" s="26"/>
     </row>
-    <row r="845" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:45" ht="15.75" customHeight="1">
       <c r="A845" s="29"/>
       <c r="B845" s="26"/>
       <c r="C845" s="26"/>
@@ -44419,7 +44429,7 @@
       <c r="AR845" s="26"/>
       <c r="AS845" s="26"/>
     </row>
-    <row r="846" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:45" ht="15.75" customHeight="1">
       <c r="A846" s="29"/>
       <c r="B846" s="26"/>
       <c r="C846" s="26"/>
@@ -44466,7 +44476,7 @@
       <c r="AR846" s="26"/>
       <c r="AS846" s="26"/>
     </row>
-    <row r="847" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:45" ht="15.75" customHeight="1">
       <c r="A847" s="29"/>
       <c r="B847" s="26"/>
       <c r="C847" s="26"/>
@@ -44513,7 +44523,7 @@
       <c r="AR847" s="26"/>
       <c r="AS847" s="26"/>
     </row>
-    <row r="848" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:45" ht="15.75" customHeight="1">
       <c r="A848" s="29"/>
       <c r="B848" s="26"/>
       <c r="C848" s="26"/>
@@ -44560,7 +44570,7 @@
       <c r="AR848" s="26"/>
       <c r="AS848" s="26"/>
     </row>
-    <row r="849" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:45" ht="15.75" customHeight="1">
       <c r="A849" s="29"/>
       <c r="B849" s="26"/>
       <c r="C849" s="26"/>
@@ -44607,7 +44617,7 @@
       <c r="AR849" s="26"/>
       <c r="AS849" s="26"/>
     </row>
-    <row r="850" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:45" ht="15.75" customHeight="1">
       <c r="A850" s="29"/>
       <c r="B850" s="26"/>
       <c r="C850" s="26"/>
@@ -44654,7 +44664,7 @@
       <c r="AR850" s="26"/>
       <c r="AS850" s="26"/>
     </row>
-    <row r="851" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:45" ht="15.75" customHeight="1">
       <c r="A851" s="29"/>
       <c r="B851" s="26"/>
       <c r="C851" s="26"/>
@@ -44701,7 +44711,7 @@
       <c r="AR851" s="26"/>
       <c r="AS851" s="26"/>
     </row>
-    <row r="852" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:45" ht="15.75" customHeight="1">
       <c r="A852" s="29"/>
       <c r="B852" s="26"/>
       <c r="C852" s="26"/>
@@ -44748,7 +44758,7 @@
       <c r="AR852" s="26"/>
       <c r="AS852" s="26"/>
     </row>
-    <row r="853" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:45" ht="15.75" customHeight="1">
       <c r="A853" s="29"/>
       <c r="B853" s="26"/>
       <c r="C853" s="26"/>
@@ -44795,7 +44805,7 @@
       <c r="AR853" s="26"/>
       <c r="AS853" s="26"/>
     </row>
-    <row r="854" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:45" ht="15.75" customHeight="1">
       <c r="A854" s="29"/>
       <c r="B854" s="26"/>
       <c r="C854" s="26"/>
@@ -44842,7 +44852,7 @@
       <c r="AR854" s="26"/>
       <c r="AS854" s="26"/>
     </row>
-    <row r="855" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:45" ht="15.75" customHeight="1">
       <c r="A855" s="29"/>
       <c r="B855" s="26"/>
       <c r="C855" s="26"/>
@@ -44889,7 +44899,7 @@
       <c r="AR855" s="26"/>
       <c r="AS855" s="26"/>
     </row>
-    <row r="856" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:45" ht="15.75" customHeight="1">
       <c r="A856" s="29"/>
       <c r="B856" s="26"/>
       <c r="C856" s="26"/>
@@ -44936,7 +44946,7 @@
       <c r="AR856" s="26"/>
       <c r="AS856" s="26"/>
     </row>
-    <row r="857" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:45" ht="15.75" customHeight="1">
       <c r="A857" s="29"/>
       <c r="B857" s="26"/>
       <c r="C857" s="26"/>
@@ -44983,7 +44993,7 @@
       <c r="AR857" s="26"/>
       <c r="AS857" s="26"/>
     </row>
-    <row r="858" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:45" ht="15.75" customHeight="1">
       <c r="A858" s="29"/>
       <c r="B858" s="26"/>
       <c r="C858" s="26"/>
@@ -45030,7 +45040,7 @@
       <c r="AR858" s="26"/>
       <c r="AS858" s="26"/>
     </row>
-    <row r="859" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:45" ht="15.75" customHeight="1">
       <c r="A859" s="29"/>
       <c r="B859" s="26"/>
       <c r="C859" s="26"/>
@@ -45077,7 +45087,7 @@
       <c r="AR859" s="26"/>
       <c r="AS859" s="26"/>
     </row>
-    <row r="860" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:45" ht="15.75" customHeight="1">
       <c r="A860" s="29"/>
       <c r="B860" s="26"/>
       <c r="C860" s="26"/>
@@ -45124,7 +45134,7 @@
       <c r="AR860" s="26"/>
       <c r="AS860" s="26"/>
     </row>
-    <row r="861" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:45" ht="15.75" customHeight="1">
       <c r="A861" s="29"/>
       <c r="B861" s="26"/>
       <c r="C861" s="26"/>
@@ -45171,7 +45181,7 @@
       <c r="AR861" s="26"/>
       <c r="AS861" s="26"/>
     </row>
-    <row r="862" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:45" ht="15.75" customHeight="1">
       <c r="A862" s="29"/>
       <c r="B862" s="26"/>
       <c r="C862" s="26"/>
@@ -45218,7 +45228,7 @@
       <c r="AR862" s="26"/>
       <c r="AS862" s="26"/>
     </row>
-    <row r="863" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:45" ht="15.75" customHeight="1">
       <c r="A863" s="29"/>
       <c r="B863" s="26"/>
       <c r="C863" s="26"/>
@@ -45265,7 +45275,7 @@
       <c r="AR863" s="26"/>
       <c r="AS863" s="26"/>
     </row>
-    <row r="864" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:45" ht="15.75" customHeight="1">
       <c r="A864" s="29"/>
       <c r="B864" s="26"/>
       <c r="C864" s="26"/>
@@ -45312,7 +45322,7 @@
       <c r="AR864" s="26"/>
       <c r="AS864" s="26"/>
     </row>
-    <row r="865" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:45" ht="15.75" customHeight="1">
       <c r="A865" s="29"/>
       <c r="B865" s="26"/>
       <c r="C865" s="26"/>
@@ -45359,7 +45369,7 @@
       <c r="AR865" s="26"/>
       <c r="AS865" s="26"/>
     </row>
-    <row r="866" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:45" ht="15.75" customHeight="1">
       <c r="A866" s="29"/>
       <c r="B866" s="26"/>
       <c r="C866" s="26"/>
@@ -45406,7 +45416,7 @@
       <c r="AR866" s="26"/>
       <c r="AS866" s="26"/>
     </row>
-    <row r="867" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:45" ht="15.75" customHeight="1">
       <c r="A867" s="29"/>
       <c r="B867" s="26"/>
       <c r="C867" s="26"/>
@@ -45453,7 +45463,7 @@
       <c r="AR867" s="26"/>
       <c r="AS867" s="26"/>
     </row>
-    <row r="868" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:45" ht="15.75" customHeight="1">
       <c r="A868" s="29"/>
       <c r="B868" s="26"/>
       <c r="C868" s="26"/>
@@ -45500,7 +45510,7 @@
       <c r="AR868" s="26"/>
       <c r="AS868" s="26"/>
     </row>
-    <row r="869" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:45" ht="15.75" customHeight="1">
       <c r="A869" s="29"/>
       <c r="B869" s="26"/>
       <c r="C869" s="26"/>
@@ -45547,7 +45557,7 @@
       <c r="AR869" s="26"/>
       <c r="AS869" s="26"/>
     </row>
-    <row r="870" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:45" ht="15.75" customHeight="1">
       <c r="A870" s="29"/>
       <c r="B870" s="26"/>
       <c r="C870" s="26"/>
@@ -45594,7 +45604,7 @@
       <c r="AR870" s="26"/>
       <c r="AS870" s="26"/>
     </row>
-    <row r="871" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:45" ht="15.75" customHeight="1">
       <c r="A871" s="29"/>
       <c r="B871" s="26"/>
       <c r="C871" s="26"/>
@@ -45641,7 +45651,7 @@
       <c r="AR871" s="26"/>
       <c r="AS871" s="26"/>
     </row>
-    <row r="872" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:45" ht="15.75" customHeight="1">
       <c r="A872" s="29"/>
       <c r="B872" s="26"/>
       <c r="C872" s="26"/>
@@ -45688,7 +45698,7 @@
       <c r="AR872" s="26"/>
       <c r="AS872" s="26"/>
     </row>
-    <row r="873" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:45" ht="15.75" customHeight="1">
       <c r="A873" s="29"/>
       <c r="B873" s="26"/>
       <c r="C873" s="26"/>
@@ -45735,7 +45745,7 @@
       <c r="AR873" s="26"/>
       <c r="AS873" s="26"/>
     </row>
-    <row r="874" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:45" ht="15.75" customHeight="1">
       <c r="A874" s="29"/>
       <c r="B874" s="26"/>
       <c r="C874" s="26"/>
@@ -45782,7 +45792,7 @@
       <c r="AR874" s="26"/>
       <c r="AS874" s="26"/>
     </row>
-    <row r="875" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:45" ht="15.75" customHeight="1">
       <c r="A875" s="29"/>
       <c r="B875" s="26"/>
       <c r="C875" s="26"/>
@@ -45829,7 +45839,7 @@
       <c r="AR875" s="26"/>
       <c r="AS875" s="26"/>
     </row>
-    <row r="876" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:45" ht="15.75" customHeight="1">
       <c r="A876" s="29"/>
       <c r="B876" s="26"/>
       <c r="C876" s="26"/>
@@ -45876,7 +45886,7 @@
       <c r="AR876" s="26"/>
       <c r="AS876" s="26"/>
     </row>
-    <row r="877" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:45" ht="15.75" customHeight="1">
       <c r="A877" s="29"/>
       <c r="B877" s="26"/>
       <c r="C877" s="26"/>
@@ -45923,7 +45933,7 @@
       <c r="AR877" s="26"/>
       <c r="AS877" s="26"/>
     </row>
-    <row r="878" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:45" ht="15.75" customHeight="1">
       <c r="A878" s="29"/>
       <c r="B878" s="26"/>
       <c r="C878" s="26"/>
@@ -45970,7 +45980,7 @@
       <c r="AR878" s="26"/>
       <c r="AS878" s="26"/>
     </row>
-    <row r="879" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:45" ht="15.75" customHeight="1">
       <c r="A879" s="29"/>
       <c r="B879" s="26"/>
       <c r="C879" s="26"/>
@@ -46017,7 +46027,7 @@
       <c r="AR879" s="26"/>
       <c r="AS879" s="26"/>
     </row>
-    <row r="880" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:45" ht="15.75" customHeight="1">
       <c r="A880" s="29"/>
       <c r="B880" s="26"/>
       <c r="C880" s="26"/>
@@ -46064,7 +46074,7 @@
       <c r="AR880" s="26"/>
       <c r="AS880" s="26"/>
     </row>
-    <row r="881" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:45" ht="15.75" customHeight="1">
       <c r="A881" s="29"/>
       <c r="B881" s="26"/>
       <c r="C881" s="26"/>
@@ -46111,7 +46121,7 @@
       <c r="AR881" s="26"/>
       <c r="AS881" s="26"/>
     </row>
-    <row r="882" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:45" ht="15.75" customHeight="1">
       <c r="A882" s="29"/>
       <c r="B882" s="26"/>
       <c r="C882" s="26"/>
@@ -46158,7 +46168,7 @@
       <c r="AR882" s="26"/>
       <c r="AS882" s="26"/>
     </row>
-    <row r="883" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:45" ht="15.75" customHeight="1">
       <c r="A883" s="29"/>
       <c r="B883" s="26"/>
       <c r="C883" s="26"/>
@@ -46205,7 +46215,7 @@
       <c r="AR883" s="26"/>
       <c r="AS883" s="26"/>
     </row>
-    <row r="884" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:45" ht="15.75" customHeight="1">
       <c r="A884" s="29"/>
       <c r="B884" s="26"/>
       <c r="C884" s="26"/>
@@ -46252,7 +46262,7 @@
       <c r="AR884" s="26"/>
       <c r="AS884" s="26"/>
     </row>
-    <row r="885" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:45" ht="15.75" customHeight="1">
       <c r="A885" s="29"/>
       <c r="B885" s="26"/>
       <c r="C885" s="26"/>
@@ -46299,7 +46309,7 @@
       <c r="AR885" s="26"/>
       <c r="AS885" s="26"/>
     </row>
-    <row r="886" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:45" ht="15.75" customHeight="1">
       <c r="A886" s="29"/>
       <c r="B886" s="26"/>
       <c r="C886" s="26"/>
@@ -46346,7 +46356,7 @@
       <c r="AR886" s="26"/>
       <c r="AS886" s="26"/>
     </row>
-    <row r="887" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:45" ht="15.75" customHeight="1">
       <c r="A887" s="29"/>
       <c r="B887" s="26"/>
       <c r="C887" s="26"/>
@@ -46393,7 +46403,7 @@
       <c r="AR887" s="26"/>
       <c r="AS887" s="26"/>
     </row>
-    <row r="888" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:45" ht="15.75" customHeight="1">
       <c r="A888" s="29"/>
       <c r="B888" s="26"/>
       <c r="C888" s="26"/>
@@ -46440,7 +46450,7 @@
       <c r="AR888" s="26"/>
       <c r="AS888" s="26"/>
     </row>
-    <row r="889" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:45" ht="15.75" customHeight="1">
       <c r="A889" s="29"/>
       <c r="B889" s="26"/>
       <c r="C889" s="26"/>
@@ -46487,7 +46497,7 @@
       <c r="AR889" s="26"/>
       <c r="AS889" s="26"/>
     </row>
-    <row r="890" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:45" ht="15.75" customHeight="1">
       <c r="A890" s="29"/>
       <c r="B890" s="26"/>
       <c r="C890" s="26"/>
@@ -46534,7 +46544,7 @@
       <c r="AR890" s="26"/>
       <c r="AS890" s="26"/>
     </row>
-    <row r="891" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:45" ht="15.75" customHeight="1">
       <c r="A891" s="29"/>
       <c r="B891" s="26"/>
       <c r="C891" s="26"/>
@@ -46581,7 +46591,7 @@
       <c r="AR891" s="26"/>
       <c r="AS891" s="26"/>
     </row>
-    <row r="892" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:45" ht="15.75" customHeight="1">
       <c r="A892" s="29"/>
       <c r="B892" s="26"/>
       <c r="C892" s="26"/>
@@ -46628,7 +46638,7 @@
       <c r="AR892" s="26"/>
       <c r="AS892" s="26"/>
     </row>
-    <row r="893" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:45" ht="15.75" customHeight="1">
       <c r="A893" s="29"/>
       <c r="B893" s="26"/>
       <c r="C893" s="26"/>
@@ -46675,7 +46685,7 @@
       <c r="AR893" s="26"/>
       <c r="AS893" s="26"/>
     </row>
-    <row r="894" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:45" ht="15.75" customHeight="1">
       <c r="A894" s="29"/>
       <c r="B894" s="26"/>
       <c r="C894" s="26"/>
@@ -46722,7 +46732,7 @@
       <c r="AR894" s="26"/>
       <c r="AS894" s="26"/>
     </row>
-    <row r="895" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:45" ht="15.75" customHeight="1">
       <c r="A895" s="29"/>
       <c r="B895" s="26"/>
       <c r="C895" s="26"/>
@@ -46769,7 +46779,7 @@
       <c r="AR895" s="26"/>
       <c r="AS895" s="26"/>
     </row>
-    <row r="896" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:45" ht="15.75" customHeight="1">
       <c r="A896" s="29"/>
       <c r="B896" s="26"/>
       <c r="C896" s="26"/>
@@ -46816,7 +46826,7 @@
       <c r="AR896" s="26"/>
       <c r="AS896" s="26"/>
     </row>
-    <row r="897" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:45" ht="15.75" customHeight="1">
       <c r="A897" s="29"/>
       <c r="B897" s="26"/>
       <c r="C897" s="26"/>
@@ -46863,7 +46873,7 @@
       <c r="AR897" s="26"/>
       <c r="AS897" s="26"/>
     </row>
-    <row r="898" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:45" ht="15.75" customHeight="1">
       <c r="A898" s="29"/>
       <c r="B898" s="26"/>
       <c r="C898" s="26"/>
@@ -46910,7 +46920,7 @@
       <c r="AR898" s="26"/>
       <c r="AS898" s="26"/>
     </row>
-    <row r="899" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:45" ht="15.75" customHeight="1">
       <c r="A899" s="29"/>
       <c r="B899" s="26"/>
       <c r="C899" s="26"/>
@@ -46957,7 +46967,7 @@
       <c r="AR899" s="26"/>
       <c r="AS899" s="26"/>
     </row>
-    <row r="900" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:45" ht="15.75" customHeight="1">
       <c r="A900" s="29"/>
       <c r="B900" s="26"/>
       <c r="C900" s="26"/>
@@ -47004,7 +47014,7 @@
       <c r="AR900" s="26"/>
       <c r="AS900" s="26"/>
     </row>
-    <row r="901" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:45" ht="15.75" customHeight="1">
       <c r="A901" s="29"/>
       <c r="B901" s="26"/>
       <c r="C901" s="26"/>
@@ -47051,7 +47061,7 @@
       <c r="AR901" s="26"/>
       <c r="AS901" s="26"/>
     </row>
-    <row r="902" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:45" ht="15.75" customHeight="1">
       <c r="A902" s="29"/>
       <c r="B902" s="26"/>
       <c r="C902" s="26"/>
@@ -47098,7 +47108,7 @@
       <c r="AR902" s="26"/>
       <c r="AS902" s="26"/>
     </row>
-    <row r="903" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:45" ht="15.75" customHeight="1">
       <c r="A903" s="29"/>
       <c r="B903" s="26"/>
       <c r="C903" s="26"/>
@@ -47145,7 +47155,7 @@
       <c r="AR903" s="26"/>
       <c r="AS903" s="26"/>
     </row>
-    <row r="904" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:45" ht="15.75" customHeight="1">
       <c r="A904" s="29"/>
       <c r="B904" s="26"/>
       <c r="C904" s="26"/>
@@ -47192,7 +47202,7 @@
       <c r="AR904" s="26"/>
       <c r="AS904" s="26"/>
     </row>
-    <row r="905" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:45" ht="15.75" customHeight="1">
       <c r="A905" s="29"/>
       <c r="B905" s="26"/>
       <c r="C905" s="26"/>
@@ -47239,7 +47249,7 @@
       <c r="AR905" s="26"/>
       <c r="AS905" s="26"/>
     </row>
-    <row r="906" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:45" ht="15.75" customHeight="1">
       <c r="A906" s="29"/>
       <c r="B906" s="26"/>
       <c r="C906" s="26"/>
@@ -47286,7 +47296,7 @@
       <c r="AR906" s="26"/>
       <c r="AS906" s="26"/>
     </row>
-    <row r="907" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:45" ht="15.75" customHeight="1">
       <c r="A907" s="29"/>
       <c r="B907" s="26"/>
       <c r="C907" s="26"/>
@@ -47333,7 +47343,7 @@
       <c r="AR907" s="26"/>
       <c r="AS907" s="26"/>
     </row>
-    <row r="908" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:45" ht="15.75" customHeight="1">
       <c r="A908" s="29"/>
       <c r="B908" s="26"/>
       <c r="C908" s="26"/>
@@ -47380,7 +47390,7 @@
       <c r="AR908" s="26"/>
       <c r="AS908" s="26"/>
     </row>
-    <row r="909" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:45" ht="15.75" customHeight="1">
       <c r="A909" s="29"/>
       <c r="B909" s="26"/>
       <c r="C909" s="26"/>
@@ -47427,7 +47437,7 @@
       <c r="AR909" s="26"/>
       <c r="AS909" s="26"/>
     </row>
-    <row r="910" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:45" ht="15.75" customHeight="1">
       <c r="A910" s="29"/>
       <c r="B910" s="26"/>
       <c r="C910" s="26"/>
@@ -47474,7 +47484,7 @@
       <c r="AR910" s="26"/>
       <c r="AS910" s="26"/>
     </row>
-    <row r="911" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:45" ht="15.75" customHeight="1">
       <c r="A911" s="29"/>
       <c r="B911" s="26"/>
       <c r="C911" s="26"/>
@@ -47521,7 +47531,7 @@
       <c r="AR911" s="26"/>
       <c r="AS911" s="26"/>
     </row>
-    <row r="912" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:45" ht="15.75" customHeight="1">
       <c r="A912" s="29"/>
       <c r="B912" s="26"/>
       <c r="C912" s="26"/>
@@ -47568,7 +47578,7 @@
       <c r="AR912" s="26"/>
       <c r="AS912" s="26"/>
     </row>
-    <row r="913" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:45" ht="15.75" customHeight="1">
       <c r="A913" s="29"/>
       <c r="B913" s="26"/>
       <c r="C913" s="26"/>
@@ -47615,7 +47625,7 @@
       <c r="AR913" s="26"/>
       <c r="AS913" s="26"/>
     </row>
-    <row r="914" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:45" ht="15.75" customHeight="1">
       <c r="A914" s="29"/>
       <c r="B914" s="26"/>
       <c r="C914" s="26"/>
@@ -47662,7 +47672,7 @@
       <c r="AR914" s="26"/>
       <c r="AS914" s="26"/>
     </row>
-    <row r="915" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:45" ht="15.75" customHeight="1">
       <c r="A915" s="29"/>
       <c r="B915" s="26"/>
       <c r="C915" s="26"/>
@@ -47709,7 +47719,7 @@
       <c r="AR915" s="26"/>
       <c r="AS915" s="26"/>
     </row>
-    <row r="916" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:45" ht="15.75" customHeight="1">
       <c r="A916" s="29"/>
       <c r="B916" s="26"/>
       <c r="C916" s="26"/>
@@ -47756,7 +47766,7 @@
       <c r="AR916" s="26"/>
       <c r="AS916" s="26"/>
     </row>
-    <row r="917" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:45" ht="15.75" customHeight="1">
       <c r="A917" s="29"/>
       <c r="B917" s="26"/>
       <c r="C917" s="26"/>
@@ -47803,7 +47813,7 @@
       <c r="AR917" s="26"/>
       <c r="AS917" s="26"/>
     </row>
-    <row r="918" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:45" ht="15.75" customHeight="1">
       <c r="A918" s="29"/>
       <c r="B918" s="26"/>
       <c r="C918" s="26"/>
@@ -47850,7 +47860,7 @@
       <c r="AR918" s="26"/>
       <c r="AS918" s="26"/>
     </row>
-    <row r="919" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:45" ht="15.75" customHeight="1">
       <c r="A919" s="29"/>
       <c r="B919" s="26"/>
       <c r="C919" s="26"/>
@@ -47897,7 +47907,7 @@
       <c r="AR919" s="26"/>
       <c r="AS919" s="26"/>
     </row>
-    <row r="920" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:45" ht="15.75" customHeight="1">
       <c r="A920" s="29"/>
       <c r="B920" s="26"/>
       <c r="C920" s="26"/>
@@ -47944,7 +47954,7 @@
       <c r="AR920" s="26"/>
       <c r="AS920" s="26"/>
     </row>
-    <row r="921" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:45" ht="15.75" customHeight="1">
       <c r="A921" s="29"/>
       <c r="B921" s="26"/>
       <c r="C921" s="26"/>
@@ -47991,7 +48001,7 @@
       <c r="AR921" s="26"/>
       <c r="AS921" s="26"/>
     </row>
-    <row r="922" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:45" ht="15.75" customHeight="1">
       <c r="A922" s="29"/>
       <c r="B922" s="26"/>
       <c r="C922" s="26"/>
@@ -48038,7 +48048,7 @@
       <c r="AR922" s="26"/>
       <c r="AS922" s="26"/>
     </row>
-    <row r="923" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:45" ht="15.75" customHeight="1">
       <c r="A923" s="29"/>
       <c r="B923" s="26"/>
       <c r="C923" s="26"/>
@@ -48085,7 +48095,7 @@
       <c r="AR923" s="26"/>
       <c r="AS923" s="26"/>
     </row>
-    <row r="924" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:45" ht="15.75" customHeight="1">
       <c r="A924" s="29"/>
       <c r="B924" s="26"/>
       <c r="C924" s="26"/>
@@ -48132,7 +48142,7 @@
       <c r="AR924" s="26"/>
       <c r="AS924" s="26"/>
     </row>
-    <row r="925" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:45" ht="15.75" customHeight="1">
       <c r="A925" s="29"/>
       <c r="B925" s="26"/>
       <c r="C925" s="26"/>
@@ -48179,7 +48189,7 @@
       <c r="AR925" s="26"/>
       <c r="AS925" s="26"/>
     </row>
-    <row r="926" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:45" ht="15.75" customHeight="1">
       <c r="A926" s="29"/>
       <c r="B926" s="26"/>
       <c r="C926" s="26"/>
@@ -48226,7 +48236,7 @@
       <c r="AR926" s="26"/>
       <c r="AS926" s="26"/>
     </row>
-    <row r="927" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:45" ht="15.75" customHeight="1">
       <c r="A927" s="29"/>
       <c r="B927" s="26"/>
       <c r="C927" s="26"/>
@@ -48273,7 +48283,7 @@
       <c r="AR927" s="26"/>
       <c r="AS927" s="26"/>
     </row>
-    <row r="928" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:45" ht="15.75" customHeight="1">
       <c r="A928" s="29"/>
       <c r="B928" s="26"/>
       <c r="C928" s="26"/>
@@ -48320,7 +48330,7 @@
       <c r="AR928" s="26"/>
       <c r="AS928" s="26"/>
     </row>
-    <row r="929" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:45" ht="15.75" customHeight="1">
       <c r="A929" s="29"/>
       <c r="B929" s="26"/>
       <c r="C929" s="26"/>
@@ -48367,7 +48377,7 @@
       <c r="AR929" s="26"/>
       <c r="AS929" s="26"/>
     </row>
-    <row r="930" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:45" ht="15.75" customHeight="1">
       <c r="A930" s="29"/>
       <c r="B930" s="26"/>
       <c r="C930" s="26"/>
@@ -48414,7 +48424,7 @@
       <c r="AR930" s="26"/>
       <c r="AS930" s="26"/>
     </row>
-    <row r="931" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:45" ht="15.75" customHeight="1">
       <c r="A931" s="29"/>
       <c r="B931" s="26"/>
       <c r="C931" s="26"/>
@@ -48461,7 +48471,7 @@
       <c r="AR931" s="26"/>
       <c r="AS931" s="26"/>
     </row>
-    <row r="932" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:45" ht="15.75" customHeight="1">
       <c r="A932" s="29"/>
       <c r="B932" s="26"/>
       <c r="C932" s="26"/>
@@ -48508,7 +48518,7 @@
       <c r="AR932" s="26"/>
       <c r="AS932" s="26"/>
     </row>
-    <row r="933" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:45" ht="15.75" customHeight="1">
       <c r="A933" s="29"/>
       <c r="B933" s="26"/>
       <c r="C933" s="26"/>
@@ -48555,7 +48565,7 @@
       <c r="AR933" s="26"/>
       <c r="AS933" s="26"/>
     </row>
-    <row r="934" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:45" ht="15.75" customHeight="1">
       <c r="A934" s="29"/>
       <c r="B934" s="26"/>
       <c r="C934" s="26"/>
@@ -48602,7 +48612,7 @@
       <c r="AR934" s="26"/>
       <c r="AS934" s="26"/>
     </row>
-    <row r="935" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:45" ht="15.75" customHeight="1">
       <c r="A935" s="29"/>
       <c r="B935" s="26"/>
       <c r="C935" s="26"/>
@@ -48649,7 +48659,7 @@
       <c r="AR935" s="26"/>
       <c r="AS935" s="26"/>
     </row>
-    <row r="936" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:45" ht="15.75" customHeight="1">
       <c r="A936" s="29"/>
       <c r="B936" s="26"/>
       <c r="C936" s="26"/>
@@ -48696,7 +48706,7 @@
       <c r="AR936" s="26"/>
       <c r="AS936" s="26"/>
     </row>
-    <row r="937" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:45" ht="15.75" customHeight="1">
       <c r="A937" s="29"/>
       <c r="B937" s="26"/>
       <c r="C937" s="26"/>
@@ -48743,7 +48753,7 @@
       <c r="AR937" s="26"/>
       <c r="AS937" s="26"/>
     </row>
-    <row r="938" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:45" ht="15.75" customHeight="1">
       <c r="A938" s="29"/>
       <c r="B938" s="26"/>
       <c r="C938" s="26"/>
@@ -48790,7 +48800,7 @@
       <c r="AR938" s="26"/>
       <c r="AS938" s="26"/>
     </row>
-    <row r="939" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:45" ht="15.75" customHeight="1">
       <c r="A939" s="29"/>
       <c r="B939" s="26"/>
       <c r="C939" s="26"/>
@@ -48837,7 +48847,7 @@
       <c r="AR939" s="26"/>
       <c r="AS939" s="26"/>
     </row>
-    <row r="940" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:45" ht="15.75" customHeight="1">
       <c r="A940" s="29"/>
       <c r="B940" s="26"/>
       <c r="C940" s="26"/>
@@ -48884,7 +48894,7 @@
       <c r="AR940" s="26"/>
       <c r="AS940" s="26"/>
     </row>
-    <row r="941" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:45" ht="15.75" customHeight="1">
       <c r="A941" s="29"/>
       <c r="B941" s="26"/>
       <c r="C941" s="26"/>
@@ -48931,7 +48941,7 @@
       <c r="AR941" s="26"/>
       <c r="AS941" s="26"/>
     </row>
-    <row r="942" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:45" ht="15.75" customHeight="1">
       <c r="A942" s="29"/>
       <c r="B942" s="26"/>
       <c r="C942" s="26"/>
@@ -48978,7 +48988,7 @@
       <c r="AR942" s="26"/>
       <c r="AS942" s="26"/>
     </row>
-    <row r="943" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:45" ht="15.75" customHeight="1">
       <c r="A943" s="29"/>
       <c r="B943" s="26"/>
       <c r="C943" s="26"/>
@@ -49025,7 +49035,7 @@
       <c r="AR943" s="26"/>
       <c r="AS943" s="26"/>
     </row>
-    <row r="944" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:45" ht="15.75" customHeight="1">
       <c r="A944" s="29"/>
       <c r="B944" s="26"/>
       <c r="C944" s="26"/>
@@ -49072,7 +49082,7 @@
       <c r="AR944" s="26"/>
       <c r="AS944" s="26"/>
     </row>
-    <row r="945" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:45" ht="15.75" customHeight="1">
       <c r="A945" s="29"/>
       <c r="B945" s="26"/>
       <c r="C945" s="26"/>
@@ -49119,7 +49129,7 @@
       <c r="AR945" s="26"/>
       <c r="AS945" s="26"/>
     </row>
-    <row r="946" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:45" ht="15.75" customHeight="1">
       <c r="A946" s="29"/>
       <c r="B946" s="26"/>
       <c r="C946" s="26"/>
@@ -49166,7 +49176,7 @@
       <c r="AR946" s="26"/>
       <c r="AS946" s="26"/>
     </row>
-    <row r="947" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:45" ht="15.75" customHeight="1">
       <c r="A947" s="29"/>
       <c r="B947" s="26"/>
       <c r="C947" s="26"/>
@@ -49213,7 +49223,7 @@
       <c r="AR947" s="26"/>
       <c r="AS947" s="26"/>
     </row>
-    <row r="948" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:45" ht="15.75" customHeight="1">
       <c r="A948" s="29"/>
       <c r="B948" s="26"/>
       <c r="C948" s="26"/>
@@ -49260,7 +49270,7 @@
       <c r="AR948" s="26"/>
       <c r="AS948" s="26"/>
     </row>
-    <row r="949" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:45" ht="15.75" customHeight="1">
       <c r="A949" s="29"/>
       <c r="B949" s="26"/>
       <c r="C949" s="26"/>
@@ -49307,7 +49317,7 @@
       <c r="AR949" s="26"/>
       <c r="AS949" s="26"/>
     </row>
-    <row r="950" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:45" ht="15.75" customHeight="1">
       <c r="A950" s="29"/>
       <c r="B950" s="26"/>
       <c r="C950" s="26"/>
@@ -49354,7 +49364,7 @@
       <c r="AR950" s="26"/>
       <c r="AS950" s="26"/>
     </row>
-    <row r="951" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:45" ht="15.75" customHeight="1">
       <c r="A951" s="29"/>
       <c r="B951" s="26"/>
       <c r="C951" s="26"/>
@@ -49401,7 +49411,7 @@
       <c r="AR951" s="26"/>
       <c r="AS951" s="26"/>
     </row>
-    <row r="952" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:45" ht="15.75" customHeight="1">
       <c r="A952" s="29"/>
       <c r="B952" s="26"/>
       <c r="C952" s="26"/>
@@ -49448,7 +49458,7 @@
       <c r="AR952" s="26"/>
       <c r="AS952" s="26"/>
     </row>
-    <row r="953" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:45" ht="15.75" customHeight="1">
       <c r="A953" s="29"/>
       <c r="B953" s="26"/>
       <c r="C953" s="26"/>
@@ -49495,7 +49505,7 @@
       <c r="AR953" s="26"/>
       <c r="AS953" s="26"/>
     </row>
-    <row r="954" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:45" ht="15.75" customHeight="1">
       <c r="A954" s="29"/>
       <c r="B954" s="26"/>
       <c r="C954" s="26"/>
@@ -49542,7 +49552,7 @@
       <c r="AR954" s="26"/>
       <c r="AS954" s="26"/>
     </row>
-    <row r="955" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:45" ht="15.75" customHeight="1">
       <c r="A955" s="29"/>
       <c r="B955" s="26"/>
       <c r="C955" s="26"/>
@@ -49589,7 +49599,7 @@
       <c r="AR955" s="26"/>
       <c r="AS955" s="26"/>
     </row>
-    <row r="956" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:45" ht="15.75" customHeight="1">
       <c r="A956" s="29"/>
       <c r="B956" s="26"/>
       <c r="C956" s="26"/>
@@ -49636,7 +49646,7 @@
       <c r="AR956" s="26"/>
       <c r="AS956" s="26"/>
     </row>
-    <row r="957" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:45" ht="15.75" customHeight="1">
       <c r="A957" s="29"/>
       <c r="B957" s="26"/>
       <c r="C957" s="26"/>
@@ -49683,7 +49693,7 @@
       <c r="AR957" s="26"/>
       <c r="AS957" s="26"/>
     </row>
-    <row r="958" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:45" ht="15.75" customHeight="1">
       <c r="A958" s="29"/>
       <c r="B958" s="26"/>
       <c r="C958" s="26"/>
@@ -49730,7 +49740,7 @@
       <c r="AR958" s="26"/>
       <c r="AS958" s="26"/>
     </row>
-    <row r="959" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:45" ht="15.75" customHeight="1">
       <c r="A959" s="29"/>
       <c r="B959" s="26"/>
       <c r="C959" s="26"/>
@@ -49777,7 +49787,7 @@
       <c r="AR959" s="26"/>
       <c r="AS959" s="26"/>
     </row>
-    <row r="960" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:45" ht="15.75" customHeight="1">
       <c r="A960" s="29"/>
       <c r="B960" s="26"/>
       <c r="C960" s="26"/>
@@ -49824,7 +49834,7 @@
       <c r="AR960" s="26"/>
       <c r="AS960" s="26"/>
     </row>
-    <row r="961" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:45" ht="15.75" customHeight="1">
       <c r="A961" s="29"/>
       <c r="B961" s="26"/>
       <c r="C961" s="26"/>
@@ -49871,7 +49881,7 @@
       <c r="AR961" s="26"/>
       <c r="AS961" s="26"/>
     </row>
-    <row r="962" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:45" ht="15.75" customHeight="1">
       <c r="A962" s="29"/>
       <c r="B962" s="26"/>
       <c r="C962" s="26"/>
@@ -49918,7 +49928,7 @@
       <c r="AR962" s="26"/>
       <c r="AS962" s="26"/>
     </row>
-    <row r="963" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:45" ht="15.75" customHeight="1">
       <c r="A963" s="29"/>
       <c r="B963" s="26"/>
       <c r="C963" s="26"/>
@@ -49965,7 +49975,7 @@
       <c r="AR963" s="26"/>
       <c r="AS963" s="26"/>
     </row>
-    <row r="964" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:45" ht="15.75" customHeight="1">
       <c r="A964" s="29"/>
       <c r="B964" s="26"/>
       <c r="C964" s="26"/>
@@ -50012,7 +50022,7 @@
       <c r="AR964" s="26"/>
       <c r="AS964" s="26"/>
     </row>
-    <row r="965" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:45" ht="15.75" customHeight="1">
       <c r="A965" s="29"/>
       <c r="B965" s="26"/>
       <c r="C965" s="26"/>
@@ -50059,7 +50069,7 @@
       <c r="AR965" s="26"/>
       <c r="AS965" s="26"/>
     </row>
-    <row r="966" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:45" ht="15.75" customHeight="1">
       <c r="A966" s="29"/>
       <c r="B966" s="26"/>
       <c r="C966" s="26"/>
@@ -50106,7 +50116,7 @@
       <c r="AR966" s="26"/>
       <c r="AS966" s="26"/>
     </row>
-    <row r="967" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:45" ht="15.75" customHeight="1">
       <c r="A967" s="29"/>
       <c r="B967" s="26"/>
       <c r="C967" s="26"/>
@@ -50153,7 +50163,7 @@
       <c r="AR967" s="26"/>
       <c r="AS967" s="26"/>
     </row>
-    <row r="968" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:45" ht="15.75" customHeight="1">
       <c r="A968" s="29"/>
       <c r="B968" s="26"/>
       <c r="C968" s="26"/>
@@ -50200,7 +50210,7 @@
       <c r="AR968" s="26"/>
       <c r="AS968" s="26"/>
     </row>
-    <row r="969" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:45" ht="15.75" customHeight="1">
       <c r="A969" s="29"/>
       <c r="B969" s="26"/>
       <c r="C969" s="26"/>
@@ -50247,7 +50257,7 @@
       <c r="AR969" s="26"/>
       <c r="AS969" s="26"/>
     </row>
-    <row r="970" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:45" ht="15.75" customHeight="1">
       <c r="A970" s="29"/>
       <c r="B970" s="26"/>
       <c r="C970" s="26"/>
@@ -50294,7 +50304,7 @@
       <c r="AR970" s="26"/>
       <c r="AS970" s="26"/>
     </row>
-    <row r="971" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:45" ht="15.75" customHeight="1">
       <c r="A971" s="29"/>
       <c r="B971" s="26"/>
       <c r="C971" s="26"/>
@@ -50341,7 +50351,7 @@
       <c r="AR971" s="26"/>
       <c r="AS971" s="26"/>
     </row>
-    <row r="972" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:45" ht="15.75" customHeight="1">
       <c r="A972" s="29"/>
       <c r="B972" s="26"/>
       <c r="C972" s="26"/>
@@ -50388,7 +50398,7 @@
       <c r="AR972" s="26"/>
       <c r="AS972" s="26"/>
     </row>
-    <row r="973" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:45" ht="15.75" customHeight="1">
       <c r="A973" s="29"/>
       <c r="B973" s="26"/>
       <c r="C973" s="26"/>
@@ -50435,7 +50445,7 @@
       <c r="AR973" s="26"/>
       <c r="AS973" s="26"/>
     </row>
-    <row r="974" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:45" ht="15.75" customHeight="1">
       <c r="A974" s="29"/>
       <c r="B974" s="26"/>
       <c r="C974" s="26"/>
@@ -50482,7 +50492,7 @@
       <c r="AR974" s="26"/>
       <c r="AS974" s="26"/>
     </row>
-    <row r="975" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:45" ht="15.75" customHeight="1">
       <c r="A975" s="29"/>
       <c r="B975" s="26"/>
       <c r="C975" s="26"/>
@@ -50529,7 +50539,7 @@
       <c r="AR975" s="26"/>
       <c r="AS975" s="26"/>
     </row>
-    <row r="976" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:45" ht="15.75" customHeight="1">
       <c r="A976" s="29"/>
       <c r="B976" s="26"/>
       <c r="C976" s="26"/>
@@ -50576,7 +50586,7 @@
       <c r="AR976" s="26"/>
       <c r="AS976" s="26"/>
     </row>
-    <row r="977" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:45" ht="15.75" customHeight="1">
       <c r="A977" s="29"/>
       <c r="B977" s="26"/>
       <c r="C977" s="26"/>
@@ -50623,7 +50633,7 @@
       <c r="AR977" s="26"/>
       <c r="AS977" s="26"/>
     </row>
-    <row r="978" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:45" ht="15.75" customHeight="1">
       <c r="A978" s="29"/>
       <c r="B978" s="26"/>
       <c r="C978" s="26"/>
@@ -50670,7 +50680,7 @@
       <c r="AR978" s="26"/>
       <c r="AS978" s="26"/>
     </row>
-    <row r="979" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:45" ht="15.75" customHeight="1">
       <c r="A979" s="29"/>
       <c r="B979" s="26"/>
       <c r="C979" s="26"/>
@@ -50717,7 +50727,7 @@
       <c r="AR979" s="26"/>
       <c r="AS979" s="26"/>
     </row>
-    <row r="980" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:45" ht="15.75" customHeight="1">
       <c r="A980" s="29"/>
       <c r="B980" s="26"/>
       <c r="C980" s="26"/>
@@ -50764,7 +50774,7 @@
       <c r="AR980" s="26"/>
       <c r="AS980" s="26"/>
     </row>
-    <row r="981" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:45" ht="15.75" customHeight="1">
       <c r="A981" s="29"/>
       <c r="B981" s="26"/>
       <c r="C981" s="26"/>
@@ -50811,7 +50821,7 @@
       <c r="AR981" s="26"/>
       <c r="AS981" s="26"/>
     </row>
-    <row r="982" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:45" ht="15.75" customHeight="1">
       <c r="A982" s="29"/>
       <c r="B982" s="26"/>
       <c r="C982" s="26"/>
@@ -50858,7 +50868,7 @@
       <c r="AR982" s="26"/>
       <c r="AS982" s="26"/>
     </row>
-    <row r="983" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:45" ht="15.75" customHeight="1">
       <c r="A983" s="29"/>
       <c r="B983" s="26"/>
       <c r="C983" s="26"/>
@@ -50905,7 +50915,7 @@
       <c r="AR983" s="26"/>
       <c r="AS983" s="26"/>
     </row>
-    <row r="984" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:45" ht="15.75" customHeight="1">
       <c r="A984" s="29"/>
       <c r="B984" s="26"/>
       <c r="C984" s="26"/>
@@ -50952,7 +50962,7 @@
       <c r="AR984" s="26"/>
       <c r="AS984" s="26"/>
     </row>
-    <row r="985" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:45" ht="15.75" customHeight="1">
       <c r="A985" s="29"/>
       <c r="B985" s="26"/>
       <c r="C985" s="26"/>
@@ -50999,7 +51009,7 @@
       <c r="AR985" s="26"/>
       <c r="AS985" s="26"/>
     </row>
-    <row r="986" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:45" ht="15.75" customHeight="1">
       <c r="A986" s="29"/>
       <c r="B986" s="26"/>
       <c r="C986" s="26"/>
@@ -51046,7 +51056,7 @@
       <c r="AR986" s="26"/>
       <c r="AS986" s="26"/>
     </row>
-    <row r="987" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:45" ht="15.75" customHeight="1">
       <c r="A987" s="29"/>
       <c r="B987" s="26"/>
       <c r="C987" s="26"/>
@@ -51093,7 +51103,7 @@
       <c r="AR987" s="26"/>
       <c r="AS987" s="26"/>
     </row>
-    <row r="988" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:45" ht="15.75" customHeight="1">
       <c r="A988" s="29"/>
       <c r="B988" s="26"/>
       <c r="C988" s="26"/>
@@ -51140,7 +51150,7 @@
       <c r="AR988" s="26"/>
       <c r="AS988" s="26"/>
     </row>
-    <row r="989" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:45" ht="15.75" customHeight="1">
       <c r="A989" s="29"/>
       <c r="B989" s="26"/>
       <c r="C989" s="26"/>
@@ -51187,7 +51197,7 @@
       <c r="AR989" s="26"/>
       <c r="AS989" s="26"/>
     </row>
-    <row r="990" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:45" ht="15.75" customHeight="1">
       <c r="A990" s="29"/>
       <c r="B990" s="26"/>
       <c r="C990" s="26"/>
@@ -51234,7 +51244,7 @@
       <c r="AR990" s="26"/>
       <c r="AS990" s="26"/>
     </row>
-    <row r="991" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:45" ht="15.75" customHeight="1">
       <c r="A991" s="29"/>
       <c r="B991" s="26"/>
       <c r="C991" s="26"/>
@@ -51281,7 +51291,7 @@
       <c r="AR991" s="26"/>
       <c r="AS991" s="26"/>
     </row>
-    <row r="992" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:45" ht="15.75" customHeight="1">
       <c r="A992" s="29"/>
       <c r="B992" s="26"/>
       <c r="C992" s="26"/>
@@ -51328,7 +51338,7 @@
       <c r="AR992" s="26"/>
       <c r="AS992" s="26"/>
     </row>
-    <row r="993" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:45" ht="15.75" customHeight="1">
       <c r="A993" s="29"/>
       <c r="B993" s="26"/>
       <c r="C993" s="26"/>
@@ -51375,7 +51385,7 @@
       <c r="AR993" s="26"/>
       <c r="AS993" s="26"/>
     </row>
-    <row r="994" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:45" ht="15.75" customHeight="1">
       <c r="A994" s="29"/>
       <c r="B994" s="26"/>
       <c r="C994" s="26"/>
@@ -51422,7 +51432,7 @@
       <c r="AR994" s="26"/>
       <c r="AS994" s="26"/>
     </row>
-    <row r="995" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:45" ht="15.75" customHeight="1">
       <c r="A995" s="29"/>
       <c r="B995" s="26"/>
       <c r="C995" s="26"/>
@@ -51469,7 +51479,7 @@
       <c r="AR995" s="26"/>
       <c r="AS995" s="26"/>
     </row>
-    <row r="996" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:45" ht="15.75" customHeight="1">
       <c r="A996" s="29"/>
       <c r="B996" s="26"/>
       <c r="C996" s="26"/>
@@ -51516,7 +51526,7 @@
       <c r="AR996" s="26"/>
       <c r="AS996" s="26"/>
     </row>
-    <row r="997" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:45" ht="15.75" customHeight="1">
       <c r="A997" s="29"/>
       <c r="B997" s="26"/>
       <c r="C997" s="26"/>
@@ -51563,7 +51573,7 @@
       <c r="AR997" s="26"/>
       <c r="AS997" s="26"/>
     </row>
-    <row r="998" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:45" ht="15.75" customHeight="1">
       <c r="A998" s="29"/>
       <c r="B998" s="26"/>
       <c r="C998" s="26"/>
@@ -51610,7 +51620,7 @@
       <c r="AR998" s="26"/>
       <c r="AS998" s="26"/>
     </row>
-    <row r="999" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:45" ht="15.75" customHeight="1">
       <c r="A999" s="29"/>
       <c r="B999" s="26"/>
       <c r="C999" s="26"/>
@@ -51661,6 +51671,7 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="U12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{D4A6A8FB-349F-4C24-82F6-C56A15A4C9A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
